--- a/Report_Template.xlsx
+++ b/Report_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\public\000-AOI_Tool_Output\Window-52\ZZZ-Excel_Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\public\Troy_P\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="3">
   <si>
     <t>0-No_Defect</t>
   </si>
@@ -27,55 +27,7 @@
     <t>1-Defect</t>
   </si>
   <si>
-    <t>37GSS034OKB1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Slot_Name: </t>
-  </si>
-  <si>
-    <t>37GSS026OKF1</t>
-  </si>
-  <si>
-    <t>37GSS027OKC0</t>
-  </si>
-  <si>
-    <t>37GSS035OKF3</t>
-  </si>
-  <si>
-    <t>37GSS057OKA6</t>
-  </si>
-  <si>
-    <t>37GSS102OKA3</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>37GSS117OKE0</t>
-  </si>
-  <si>
-    <t>37GSS121OKF1</t>
-  </si>
-  <si>
-    <t>37GSS122OKC0</t>
-  </si>
-  <si>
-    <t>37GSS123OKG2</t>
-  </si>
-  <si>
-    <t>37GSS120OKA7</t>
-  </si>
-  <si>
-    <t>37GSS124OKD1</t>
-  </si>
-  <si>
-    <t>37GSS126OKE2</t>
-  </si>
-  <si>
-    <t>37GSS128OKF3</t>
-  </si>
-  <si>
-    <t>37GSS163OKC1</t>
   </si>
 </sst>
 </file>
@@ -182,7 +134,538 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="70">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -484,21 +967,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="109" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:P254"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="2.7265625" customWidth="1"/>
-    <col min="12" max="12" width="2.81640625" customWidth="1"/>
-    <col min="13" max="17" width="2.7265625" customWidth="1"/>
-    <col min="18" max="18" width="10.90625" customWidth="1"/>
-    <col min="19" max="19" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" customWidth="1"/>
+    <col min="1" max="11" width="2.7109375" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" customWidth="1"/>
+    <col min="13" max="17" width="2.7109375" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>8</v>
       </c>
@@ -548,7 +1031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>8</v>
       </c>
@@ -558,8 +1041,8 @@
       <c r="C2" s="1">
         <v>8</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
+      <c r="D2" s="2">
+        <v>0</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -598,13 +1081,11 @@
         <v>8</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>8</v>
       </c>
@@ -654,7 +1135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>8</v>
       </c>
@@ -667,14 +1148,14 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
+      <c r="E4" s="3">
+        <v>1</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
+      <c r="G4" s="2">
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -688,8 +1169,8 @@
       <c r="K4" s="2">
         <v>0</v>
       </c>
-      <c r="L4" s="2">
-        <v>0</v>
+      <c r="L4" s="3">
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -703,16 +1184,14 @@
       <c r="P4" s="1">
         <v>8</v>
       </c>
-      <c r="S4" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S4" s="7"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
+      <c r="B5" s="2">
+        <v>0</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -720,8 +1199,8 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
+      <c r="E5" s="3">
+        <v>1</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -741,8 +1220,8 @@
       <c r="K5" s="2">
         <v>0</v>
       </c>
-      <c r="L5" s="2">
-        <v>0</v>
+      <c r="L5" s="3">
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -760,10 +1239,11 @@
         <v>0</v>
       </c>
       <c r="S5" s="4">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A1:P16, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -776,8 +1256,8 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
+      <c r="E6" s="3">
+        <v>1</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -797,8 +1277,8 @@
       <c r="K6" s="2">
         <v>0</v>
       </c>
-      <c r="L6" s="2">
-        <v>0</v>
+      <c r="L6" s="3">
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -816,10 +1296,11 @@
         <v>1</v>
       </c>
       <c r="S6" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A1:P16, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -832,8 +1313,8 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
+      <c r="E7" s="3">
+        <v>1</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -853,11 +1334,11 @@
       <c r="K7" s="2">
         <v>0</v>
       </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1</v>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -869,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -882,29 +1363,29 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -919,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -932,8 +1413,8 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="2">
-        <v>0</v>
+      <c r="E9" s="3">
+        <v>1</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -953,8 +1434,8 @@
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="2">
-        <v>0</v>
+      <c r="L9" s="3">
+        <v>1</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -969,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -982,8 +1463,8 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
+      <c r="E10" s="3">
+        <v>1</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -1003,8 +1484,8 @@
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="2">
-        <v>0</v>
+      <c r="L10" s="3">
+        <v>1</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -1019,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1032,8 +1513,8 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
+      <c r="E11" s="3">
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -1053,8 +1534,8 @@
       <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="L11" s="2">
-        <v>0</v>
+      <c r="L11" s="3">
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -1069,7 +1550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1082,8 +1563,8 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
+      <c r="E12" s="3">
+        <v>1</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -1103,8 +1584,8 @@
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="2">
-        <v>0</v>
+      <c r="L12" s="3">
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -1119,7 +1600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -1169,7 +1650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -1219,7 +1700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -1269,7 +1750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -1300,8 +1781,8 @@
       <c r="J16" s="2">
         <v>0</v>
       </c>
-      <c r="K16" s="3">
-        <v>1</v>
+      <c r="K16" s="2">
+        <v>0</v>
       </c>
       <c r="L16" s="1">
         <v>8</v>
@@ -1319,7 +1800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>8</v>
       </c>
@@ -1369,7 +1850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>8</v>
       </c>
@@ -1419,13 +1900,11 @@
         <v>8</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S19" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="S19" s="6"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>8</v>
       </c>
@@ -1475,7 +1954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>8</v>
       </c>
@@ -1488,8 +1967,8 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="2">
-        <v>0</v>
+      <c r="E21" s="3">
+        <v>1</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -1509,8 +1988,8 @@
       <c r="K21" s="2">
         <v>0</v>
       </c>
-      <c r="L21" s="2">
-        <v>0</v>
+      <c r="L21" s="3">
+        <v>1</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
@@ -1524,11 +2003,9 @@
       <c r="P21" s="1">
         <v>8</v>
       </c>
-      <c r="S21" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S21" s="7"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -1541,8 +2018,8 @@
       <c r="D22" s="2">
         <v>0</v>
       </c>
-      <c r="E22" s="2">
-        <v>0</v>
+      <c r="E22" s="3">
+        <v>1</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -1562,11 +2039,11 @@
       <c r="K22" s="2">
         <v>0</v>
       </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1</v>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -1581,10 +2058,11 @@
         <v>0</v>
       </c>
       <c r="S22" s="4">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A18:P33, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>8</v>
       </c>
@@ -1597,8 +2075,8 @@
       <c r="D23" s="2">
         <v>0</v>
       </c>
-      <c r="E23" s="2">
-        <v>0</v>
+      <c r="E23" s="3">
+        <v>1</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -1618,8 +2096,8 @@
       <c r="K23" s="2">
         <v>0</v>
       </c>
-      <c r="L23" s="2">
-        <v>0</v>
+      <c r="L23" s="3">
+        <v>1</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
@@ -1637,10 +2115,11 @@
         <v>1</v>
       </c>
       <c r="S23" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A18:P33, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -1653,8 +2132,8 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="2">
-        <v>0</v>
+      <c r="E24" s="3">
+        <v>1</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -1674,8 +2153,8 @@
       <c r="K24" s="2">
         <v>0</v>
       </c>
-      <c r="L24" s="2">
-        <v>0</v>
+      <c r="L24" s="3">
+        <v>1</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
@@ -1690,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -1703,29 +2182,29 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
@@ -1740,9 +2219,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
-        <v>1</v>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>0</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -1753,8 +2232,8 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="2">
-        <v>0</v>
+      <c r="E26" s="3">
+        <v>1</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -1771,11 +2250,11 @@
       <c r="J26" s="2">
         <v>0</v>
       </c>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0</v>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -1790,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -1803,8 +2282,8 @@
       <c r="D27" s="2">
         <v>0</v>
       </c>
-      <c r="E27" s="2">
-        <v>0</v>
+      <c r="E27" s="3">
+        <v>1</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
@@ -1824,8 +2303,8 @@
       <c r="K27" s="2">
         <v>0</v>
       </c>
-      <c r="L27" s="2">
-        <v>0</v>
+      <c r="L27" s="3">
+        <v>1</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
@@ -1840,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>8</v>
       </c>
@@ -1853,8 +2332,8 @@
       <c r="D28" s="2">
         <v>0</v>
       </c>
-      <c r="E28" s="2">
-        <v>0</v>
+      <c r="E28" s="3">
+        <v>1</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -1874,8 +2353,8 @@
       <c r="K28" s="2">
         <v>0</v>
       </c>
-      <c r="L28" s="2">
-        <v>0</v>
+      <c r="L28" s="3">
+        <v>1</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
@@ -1890,7 +2369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -1903,8 +2382,8 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="2">
-        <v>0</v>
+      <c r="E29" s="3">
+        <v>1</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
@@ -1924,11 +2403,11 @@
       <c r="K29" s="2">
         <v>0</v>
       </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>1</v>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
@@ -1940,7 +2419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -1977,8 +2456,8 @@
       <c r="L30" s="2">
         <v>0</v>
       </c>
-      <c r="M30" s="3">
-        <v>1</v>
+      <c r="M30" s="2">
+        <v>0</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
@@ -1990,7 +2469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>8</v>
       </c>
@@ -2021,8 +2500,8 @@
       <c r="J31" s="2">
         <v>0</v>
       </c>
-      <c r="K31" s="3">
-        <v>1</v>
+      <c r="K31" s="2">
+        <v>0</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
@@ -2040,7 +2519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -2053,8 +2532,8 @@
       <c r="D32" s="2">
         <v>0</v>
       </c>
-      <c r="E32" s="3">
-        <v>1</v>
+      <c r="E32" s="2">
+        <v>0</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
@@ -2090,7 +2569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>8</v>
       </c>
@@ -2106,8 +2585,8 @@
       <c r="E33" s="1">
         <v>8</v>
       </c>
-      <c r="F33" s="3">
-        <v>1</v>
+      <c r="F33" s="2">
+        <v>0</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
@@ -2140,7 +2619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -2171,8 +2650,8 @@
       <c r="J35" s="2">
         <v>0</v>
       </c>
-      <c r="K35" s="3">
-        <v>1</v>
+      <c r="K35" s="2">
+        <v>0</v>
       </c>
       <c r="L35" s="1">
         <v>8</v>
@@ -2190,7 +2669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>8</v>
       </c>
@@ -2240,13 +2719,11 @@
         <v>8</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S36" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S36" s="6"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>8</v>
       </c>
@@ -2296,7 +2773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>8</v>
       </c>
@@ -2309,8 +2786,8 @@
       <c r="D38" s="2">
         <v>0</v>
       </c>
-      <c r="E38" s="2">
-        <v>0</v>
+      <c r="E38" s="3">
+        <v>1</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
@@ -2330,8 +2807,8 @@
       <c r="K38" s="2">
         <v>0</v>
       </c>
-      <c r="L38" s="2">
-        <v>0</v>
+      <c r="L38" s="3">
+        <v>1</v>
       </c>
       <c r="M38" s="2">
         <v>0</v>
@@ -2345,11 +2822,9 @@
       <c r="P38" s="1">
         <v>8</v>
       </c>
-      <c r="S38" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S38" s="7"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>8</v>
       </c>
@@ -2359,11 +2834,11 @@
       <c r="C39" s="2">
         <v>0</v>
       </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0</v>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
@@ -2383,8 +2858,8 @@
       <c r="K39" s="2">
         <v>0</v>
       </c>
-      <c r="L39" s="2">
-        <v>0</v>
+      <c r="L39" s="3">
+        <v>1</v>
       </c>
       <c r="M39" s="2">
         <v>0</v>
@@ -2402,10 +2877,11 @@
         <v>0</v>
       </c>
       <c r="S39" s="4">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A35:P50, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>8</v>
       </c>
@@ -2418,8 +2894,8 @@
       <c r="D40" s="2">
         <v>0</v>
       </c>
-      <c r="E40" s="2">
-        <v>0</v>
+      <c r="E40" s="3">
+        <v>1</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
@@ -2433,14 +2909,14 @@
       <c r="I40" s="2">
         <v>0</v>
       </c>
-      <c r="J40" s="3">
-        <v>1</v>
+      <c r="J40" s="2">
+        <v>0</v>
       </c>
       <c r="K40" s="2">
         <v>0</v>
       </c>
-      <c r="L40" s="2">
-        <v>0</v>
+      <c r="L40" s="3">
+        <v>1</v>
       </c>
       <c r="M40" s="2">
         <v>0</v>
@@ -2458,10 +2934,11 @@
         <v>1</v>
       </c>
       <c r="S40" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A35:P50, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>0</v>
       </c>
@@ -2474,8 +2951,8 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="2">
-        <v>0</v>
+      <c r="E41" s="3">
+        <v>1</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
@@ -2495,8 +2972,8 @@
       <c r="K41" s="2">
         <v>0</v>
       </c>
-      <c r="L41" s="2">
-        <v>0</v>
+      <c r="L41" s="3">
+        <v>1</v>
       </c>
       <c r="M41" s="2">
         <v>0</v>
@@ -2511,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>0</v>
       </c>
@@ -2524,29 +3001,29 @@
       <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="2">
-        <v>0</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2">
-        <v>0</v>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1</v>
       </c>
       <c r="M42" s="2">
         <v>0</v>
@@ -2561,21 +3038,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>0</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
       </c>
-      <c r="C43" s="3">
-        <v>1</v>
+      <c r="C43" s="2">
+        <v>0</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
-      <c r="E43" s="2">
-        <v>0</v>
+      <c r="E43" s="3">
+        <v>1</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
@@ -2595,8 +3072,8 @@
       <c r="K43" s="2">
         <v>0</v>
       </c>
-      <c r="L43" s="2">
-        <v>0</v>
+      <c r="L43" s="3">
+        <v>1</v>
       </c>
       <c r="M43" s="2">
         <v>0</v>
@@ -2611,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>0</v>
       </c>
@@ -2624,8 +3101,8 @@
       <c r="D44" s="2">
         <v>0</v>
       </c>
-      <c r="E44" s="2">
-        <v>0</v>
+      <c r="E44" s="3">
+        <v>1</v>
       </c>
       <c r="F44" s="2">
         <v>0</v>
@@ -2645,8 +3122,8 @@
       <c r="K44" s="2">
         <v>0</v>
       </c>
-      <c r="L44" s="2">
-        <v>0</v>
+      <c r="L44" s="3">
+        <v>1</v>
       </c>
       <c r="M44" s="2">
         <v>0</v>
@@ -2661,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>8</v>
       </c>
@@ -2674,8 +3151,8 @@
       <c r="D45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="2">
-        <v>0</v>
+      <c r="E45" s="3">
+        <v>1</v>
       </c>
       <c r="F45" s="2">
         <v>0</v>
@@ -2695,8 +3172,8 @@
       <c r="K45" s="2">
         <v>0</v>
       </c>
-      <c r="L45" s="2">
-        <v>0</v>
+      <c r="L45" s="3">
+        <v>1</v>
       </c>
       <c r="M45" s="2">
         <v>0</v>
@@ -2711,7 +3188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>8</v>
       </c>
@@ -2724,8 +3201,8 @@
       <c r="D46" s="2">
         <v>0</v>
       </c>
-      <c r="E46" s="2">
-        <v>0</v>
+      <c r="E46" s="3">
+        <v>1</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
@@ -2745,8 +3222,8 @@
       <c r="K46" s="2">
         <v>0</v>
       </c>
-      <c r="L46" s="2">
-        <v>0</v>
+      <c r="L46" s="3">
+        <v>1</v>
       </c>
       <c r="M46" s="2">
         <v>0</v>
@@ -2761,7 +3238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>8</v>
       </c>
@@ -2811,7 +3288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>8</v>
       </c>
@@ -2861,7 +3338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>8</v>
       </c>
@@ -2871,8 +3348,8 @@
       <c r="C49" s="1">
         <v>8</v>
       </c>
-      <c r="D49" s="3">
-        <v>1</v>
+      <c r="D49" s="2">
+        <v>0</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
@@ -2911,7 +3388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>8</v>
       </c>
@@ -2961,7 +3438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>8</v>
       </c>
@@ -3011,7 +3488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>8</v>
       </c>
@@ -3061,13 +3538,11 @@
         <v>8</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S53" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="S53" s="6"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>8</v>
       </c>
@@ -3117,7 +3592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>8</v>
       </c>
@@ -3130,8 +3605,8 @@
       <c r="D55" s="2">
         <v>0</v>
       </c>
-      <c r="E55" s="2">
-        <v>0</v>
+      <c r="E55" s="3">
+        <v>1</v>
       </c>
       <c r="F55" s="2">
         <v>0</v>
@@ -3151,8 +3626,8 @@
       <c r="K55" s="2">
         <v>0</v>
       </c>
-      <c r="L55" s="2">
-        <v>0</v>
+      <c r="L55" s="3">
+        <v>1</v>
       </c>
       <c r="M55" s="2">
         <v>0</v>
@@ -3166,11 +3641,9 @@
       <c r="P55" s="1">
         <v>8</v>
       </c>
-      <c r="S55" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S55" s="7"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>8</v>
       </c>
@@ -3183,8 +3656,8 @@
       <c r="D56" s="2">
         <v>0</v>
       </c>
-      <c r="E56" s="2">
-        <v>0</v>
+      <c r="E56" s="3">
+        <v>1</v>
       </c>
       <c r="F56" s="2">
         <v>0</v>
@@ -3204,8 +3677,8 @@
       <c r="K56" s="2">
         <v>0</v>
       </c>
-      <c r="L56" s="2">
-        <v>0</v>
+      <c r="L56" s="3">
+        <v>1</v>
       </c>
       <c r="M56" s="2">
         <v>0</v>
@@ -3223,10 +3696,11 @@
         <v>0</v>
       </c>
       <c r="S56" s="4">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A52:P67, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>8</v>
       </c>
@@ -3239,8 +3713,8 @@
       <c r="D57" s="2">
         <v>0</v>
       </c>
-      <c r="E57" s="2">
-        <v>0</v>
+      <c r="E57" s="3">
+        <v>1</v>
       </c>
       <c r="F57" s="2">
         <v>0</v>
@@ -3260,8 +3734,8 @@
       <c r="K57" s="2">
         <v>0</v>
       </c>
-      <c r="L57" s="2">
-        <v>0</v>
+      <c r="L57" s="3">
+        <v>1</v>
       </c>
       <c r="M57" s="2">
         <v>0</v>
@@ -3279,10 +3753,11 @@
         <v>1</v>
       </c>
       <c r="S57" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A52:P67, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>0</v>
       </c>
@@ -3295,8 +3770,8 @@
       <c r="D58" s="2">
         <v>0</v>
       </c>
-      <c r="E58" s="2">
-        <v>0</v>
+      <c r="E58" s="3">
+        <v>1</v>
       </c>
       <c r="F58" s="2">
         <v>0</v>
@@ -3316,8 +3791,8 @@
       <c r="K58" s="2">
         <v>0</v>
       </c>
-      <c r="L58" s="2">
-        <v>0</v>
+      <c r="L58" s="3">
+        <v>1</v>
       </c>
       <c r="M58" s="2">
         <v>0</v>
@@ -3332,42 +3807,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>0</v>
       </c>
       <c r="B59" s="2">
         <v>0</v>
       </c>
-      <c r="C59" s="3">
-        <v>1</v>
+      <c r="C59" s="2">
+        <v>0</v>
       </c>
       <c r="D59" s="2">
         <v>0</v>
       </c>
-      <c r="E59" s="2">
-        <v>0</v>
-      </c>
-      <c r="F59" s="2">
-        <v>0</v>
-      </c>
-      <c r="G59" s="2">
-        <v>0</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2">
-        <v>0</v>
-      </c>
-      <c r="K59" s="2">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2">
-        <v>0</v>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1</v>
       </c>
       <c r="M59" s="2">
         <v>0</v>
@@ -3382,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>0</v>
       </c>
@@ -3395,8 +3870,8 @@
       <c r="D60" s="2">
         <v>0</v>
       </c>
-      <c r="E60" s="2">
-        <v>0</v>
+      <c r="E60" s="3">
+        <v>1</v>
       </c>
       <c r="F60" s="2">
         <v>0</v>
@@ -3416,8 +3891,8 @@
       <c r="K60" s="2">
         <v>0</v>
       </c>
-      <c r="L60" s="2">
-        <v>0</v>
+      <c r="L60" s="3">
+        <v>1</v>
       </c>
       <c r="M60" s="2">
         <v>0</v>
@@ -3428,11 +3903,11 @@
       <c r="O60" s="2">
         <v>0</v>
       </c>
-      <c r="P60" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="P60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>0</v>
       </c>
@@ -3445,8 +3920,8 @@
       <c r="D61" s="2">
         <v>0</v>
       </c>
-      <c r="E61" s="2">
-        <v>0</v>
+      <c r="E61" s="3">
+        <v>1</v>
       </c>
       <c r="F61" s="2">
         <v>0</v>
@@ -3466,11 +3941,11 @@
       <c r="K61" s="2">
         <v>0</v>
       </c>
-      <c r="L61" s="2">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>1</v>
+      <c r="L61" s="3">
+        <v>1</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0</v>
       </c>
       <c r="N61" s="2">
         <v>0</v>
@@ -3482,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>8</v>
       </c>
@@ -3495,8 +3970,8 @@
       <c r="D62" s="2">
         <v>0</v>
       </c>
-      <c r="E62" s="2">
-        <v>0</v>
+      <c r="E62" s="3">
+        <v>1</v>
       </c>
       <c r="F62" s="2">
         <v>0</v>
@@ -3516,8 +3991,8 @@
       <c r="K62" s="2">
         <v>0</v>
       </c>
-      <c r="L62" s="2">
-        <v>0</v>
+      <c r="L62" s="3">
+        <v>1</v>
       </c>
       <c r="M62" s="2">
         <v>0</v>
@@ -3532,7 +4007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>8</v>
       </c>
@@ -3545,8 +4020,8 @@
       <c r="D63" s="2">
         <v>0</v>
       </c>
-      <c r="E63" s="2">
-        <v>0</v>
+      <c r="E63" s="3">
+        <v>1</v>
       </c>
       <c r="F63" s="2">
         <v>0</v>
@@ -3566,8 +4041,8 @@
       <c r="K63" s="2">
         <v>0</v>
       </c>
-      <c r="L63" s="2">
-        <v>0</v>
+      <c r="L63" s="3">
+        <v>1</v>
       </c>
       <c r="M63" s="2">
         <v>0</v>
@@ -3582,7 +4057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>8</v>
       </c>
@@ -3632,7 +4107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>8</v>
       </c>
@@ -3672,8 +4147,8 @@
       <c r="M65" s="2">
         <v>0</v>
       </c>
-      <c r="N65" s="3">
-        <v>1</v>
+      <c r="N65" s="2">
+        <v>0</v>
       </c>
       <c r="O65" s="1">
         <v>8</v>
@@ -3682,7 +4157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>8</v>
       </c>
@@ -3716,8 +4191,8 @@
       <c r="K66" s="2">
         <v>0</v>
       </c>
-      <c r="L66" s="3">
-        <v>1</v>
+      <c r="L66" s="2">
+        <v>0</v>
       </c>
       <c r="M66" s="2">
         <v>0</v>
@@ -3732,7 +4207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>8</v>
       </c>
@@ -3782,7 +4257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>8</v>
       </c>
@@ -3832,7 +4307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>8</v>
       </c>
@@ -3882,13 +4357,11 @@
         <v>8</v>
       </c>
       <c r="R70" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S70" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="S70" s="6"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>8</v>
       </c>
@@ -3907,8 +4380,8 @@
       <c r="F71" s="2">
         <v>0</v>
       </c>
-      <c r="G71" s="3">
-        <v>1</v>
+      <c r="G71" s="2">
+        <v>0</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
@@ -3938,7 +4411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>8</v>
       </c>
@@ -3951,8 +4424,8 @@
       <c r="D72" s="2">
         <v>0</v>
       </c>
-      <c r="E72" s="2">
-        <v>0</v>
+      <c r="E72" s="3">
+        <v>1</v>
       </c>
       <c r="F72" s="2">
         <v>0</v>
@@ -3972,14 +4445,14 @@
       <c r="K72" s="2">
         <v>0</v>
       </c>
-      <c r="L72" s="2">
-        <v>0</v>
+      <c r="L72" s="3">
+        <v>1</v>
       </c>
       <c r="M72" s="2">
         <v>0</v>
       </c>
-      <c r="N72" s="3">
-        <v>1</v>
+      <c r="N72" s="2">
+        <v>0</v>
       </c>
       <c r="O72" s="1">
         <v>8</v>
@@ -3987,11 +4460,9 @@
       <c r="P72" s="1">
         <v>8</v>
       </c>
-      <c r="S72" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S72" s="7"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>8</v>
       </c>
@@ -4004,8 +4475,8 @@
       <c r="D73" s="2">
         <v>0</v>
       </c>
-      <c r="E73" s="2">
-        <v>0</v>
+      <c r="E73" s="3">
+        <v>1</v>
       </c>
       <c r="F73" s="2">
         <v>0</v>
@@ -4025,8 +4496,8 @@
       <c r="K73" s="2">
         <v>0</v>
       </c>
-      <c r="L73" s="2">
-        <v>0</v>
+      <c r="L73" s="3">
+        <v>1</v>
       </c>
       <c r="M73" s="2">
         <v>0</v>
@@ -4044,15 +4515,16 @@
         <v>0</v>
       </c>
       <c r="S73" s="4">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A69:P84, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>8</v>
       </c>
-      <c r="B74" s="3">
-        <v>1</v>
+      <c r="B74" s="2">
+        <v>0</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -4060,8 +4532,8 @@
       <c r="D74" s="2">
         <v>0</v>
       </c>
-      <c r="E74" s="2">
-        <v>0</v>
+      <c r="E74" s="3">
+        <v>1</v>
       </c>
       <c r="F74" s="2">
         <v>0</v>
@@ -4081,8 +4553,8 @@
       <c r="K74" s="2">
         <v>0</v>
       </c>
-      <c r="L74" s="2">
-        <v>0</v>
+      <c r="L74" s="3">
+        <v>1</v>
       </c>
       <c r="M74" s="2">
         <v>0</v>
@@ -4100,10 +4572,11 @@
         <v>1</v>
       </c>
       <c r="S74" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A69:P84, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>0</v>
       </c>
@@ -4116,8 +4589,8 @@
       <c r="D75" s="2">
         <v>0</v>
       </c>
-      <c r="E75" s="2">
-        <v>0</v>
+      <c r="E75" s="3">
+        <v>1</v>
       </c>
       <c r="F75" s="2">
         <v>0</v>
@@ -4137,8 +4610,8 @@
       <c r="K75" s="2">
         <v>0</v>
       </c>
-      <c r="L75" s="2">
-        <v>0</v>
+      <c r="L75" s="3">
+        <v>1</v>
       </c>
       <c r="M75" s="2">
         <v>0</v>
@@ -4153,9 +4626,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A76" s="3">
-        <v>1</v>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>0</v>
       </c>
       <c r="B76" s="2">
         <v>0</v>
@@ -4166,29 +4639,29 @@
       <c r="D76" s="2">
         <v>0</v>
       </c>
-      <c r="E76" s="2">
-        <v>0</v>
-      </c>
-      <c r="F76" s="2">
-        <v>0</v>
-      </c>
-      <c r="G76" s="2">
-        <v>0</v>
-      </c>
-      <c r="H76" s="2">
-        <v>0</v>
-      </c>
-      <c r="I76" s="2">
-        <v>0</v>
-      </c>
-      <c r="J76" s="2">
-        <v>0</v>
-      </c>
-      <c r="K76" s="2">
-        <v>0</v>
-      </c>
-      <c r="L76" s="2">
-        <v>0</v>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1</v>
+      </c>
+      <c r="K76" s="3">
+        <v>1</v>
+      </c>
+      <c r="L76" s="3">
+        <v>1</v>
       </c>
       <c r="M76" s="2">
         <v>0</v>
@@ -4203,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>0</v>
       </c>
@@ -4216,8 +4689,8 @@
       <c r="D77" s="2">
         <v>0</v>
       </c>
-      <c r="E77" s="2">
-        <v>0</v>
+      <c r="E77" s="3">
+        <v>1</v>
       </c>
       <c r="F77" s="2">
         <v>0</v>
@@ -4237,8 +4710,8 @@
       <c r="K77" s="2">
         <v>0</v>
       </c>
-      <c r="L77" s="2">
-        <v>0</v>
+      <c r="L77" s="3">
+        <v>1</v>
       </c>
       <c r="M77" s="2">
         <v>0</v>
@@ -4253,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>0</v>
       </c>
@@ -4266,8 +4739,8 @@
       <c r="D78" s="2">
         <v>0</v>
       </c>
-      <c r="E78" s="2">
-        <v>0</v>
+      <c r="E78" s="3">
+        <v>1</v>
       </c>
       <c r="F78" s="2">
         <v>0</v>
@@ -4287,8 +4760,8 @@
       <c r="K78" s="2">
         <v>0</v>
       </c>
-      <c r="L78" s="2">
-        <v>0</v>
+      <c r="L78" s="3">
+        <v>1</v>
       </c>
       <c r="M78" s="2">
         <v>0</v>
@@ -4303,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>8</v>
       </c>
@@ -4316,8 +4789,8 @@
       <c r="D79" s="2">
         <v>0</v>
       </c>
-      <c r="E79" s="2">
-        <v>0</v>
+      <c r="E79" s="3">
+        <v>1</v>
       </c>
       <c r="F79" s="2">
         <v>0</v>
@@ -4328,8 +4801,8 @@
       <c r="H79" s="2">
         <v>0</v>
       </c>
-      <c r="I79" s="3">
-        <v>1</v>
+      <c r="I79" s="2">
+        <v>0</v>
       </c>
       <c r="J79" s="2">
         <v>0</v>
@@ -4337,8 +4810,8 @@
       <c r="K79" s="2">
         <v>0</v>
       </c>
-      <c r="L79" s="2">
-        <v>0</v>
+      <c r="L79" s="3">
+        <v>1</v>
       </c>
       <c r="M79" s="2">
         <v>0</v>
@@ -4353,12 +4826,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>8</v>
       </c>
-      <c r="B80" s="3">
-        <v>1</v>
+      <c r="B80" s="2">
+        <v>0</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4366,8 +4839,8 @@
       <c r="D80" s="2">
         <v>0</v>
       </c>
-      <c r="E80" s="2">
-        <v>0</v>
+      <c r="E80" s="3">
+        <v>1</v>
       </c>
       <c r="F80" s="2">
         <v>0</v>
@@ -4387,8 +4860,8 @@
       <c r="K80" s="2">
         <v>0</v>
       </c>
-      <c r="L80" s="2">
-        <v>0</v>
+      <c r="L80" s="3">
+        <v>1</v>
       </c>
       <c r="M80" s="2">
         <v>0</v>
@@ -4403,7 +4876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>8</v>
       </c>
@@ -4453,7 +4926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>8</v>
       </c>
@@ -4503,7 +4976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>8</v>
       </c>
@@ -4553,7 +5026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>8</v>
       </c>
@@ -4569,8 +5042,8 @@
       <c r="E84" s="1">
         <v>8</v>
       </c>
-      <c r="F84" s="3">
-        <v>1</v>
+      <c r="F84" s="2">
+        <v>0</v>
       </c>
       <c r="G84" s="2">
         <v>0</v>
@@ -4603,7 +5076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>8</v>
       </c>
@@ -4628,8 +5101,8 @@
       <c r="H86" s="2">
         <v>0</v>
       </c>
-      <c r="I86" s="3">
-        <v>1</v>
+      <c r="I86" s="2">
+        <v>0</v>
       </c>
       <c r="J86" s="2">
         <v>0</v>
@@ -4653,7 +5126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>8</v>
       </c>
@@ -4703,13 +5176,11 @@
         <v>8</v>
       </c>
       <c r="R87" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S87" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="S87" s="6"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>8</v>
       </c>
@@ -4759,7 +5230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>8</v>
       </c>
@@ -4772,8 +5243,8 @@
       <c r="D89" s="2">
         <v>0</v>
       </c>
-      <c r="E89" s="2">
-        <v>0</v>
+      <c r="E89" s="3">
+        <v>1</v>
       </c>
       <c r="F89" s="2">
         <v>0</v>
@@ -4793,11 +5264,11 @@
       <c r="K89" s="2">
         <v>0</v>
       </c>
-      <c r="L89" s="2">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>1</v>
+      <c r="L89" s="3">
+        <v>1</v>
+      </c>
+      <c r="M89" s="2">
+        <v>0</v>
       </c>
       <c r="N89" s="2">
         <v>0</v>
@@ -4808,11 +5279,9 @@
       <c r="P89" s="1">
         <v>8</v>
       </c>
-      <c r="S89" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S89" s="7"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>8</v>
       </c>
@@ -4825,8 +5294,8 @@
       <c r="D90" s="2">
         <v>0</v>
       </c>
-      <c r="E90" s="2">
-        <v>0</v>
+      <c r="E90" s="3">
+        <v>1</v>
       </c>
       <c r="F90" s="2">
         <v>0</v>
@@ -4846,8 +5315,8 @@
       <c r="K90" s="2">
         <v>0</v>
       </c>
-      <c r="L90" s="2">
-        <v>0</v>
+      <c r="L90" s="3">
+        <v>1</v>
       </c>
       <c r="M90" s="2">
         <v>0</v>
@@ -4865,10 +5334,11 @@
         <v>0</v>
       </c>
       <c r="S90" s="4">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A86:P101, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>8</v>
       </c>
@@ -4881,8 +5351,8 @@
       <c r="D91" s="2">
         <v>0</v>
       </c>
-      <c r="E91" s="2">
-        <v>0</v>
+      <c r="E91" s="3">
+        <v>1</v>
       </c>
       <c r="F91" s="2">
         <v>0</v>
@@ -4902,8 +5372,8 @@
       <c r="K91" s="2">
         <v>0</v>
       </c>
-      <c r="L91" s="2">
-        <v>0</v>
+      <c r="L91" s="3">
+        <v>1</v>
       </c>
       <c r="M91" s="2">
         <v>0</v>
@@ -4921,10 +5391,11 @@
         <v>1</v>
       </c>
       <c r="S91" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A86:P101, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>0</v>
       </c>
@@ -4937,8 +5408,8 @@
       <c r="D92" s="2">
         <v>0</v>
       </c>
-      <c r="E92" s="2">
-        <v>0</v>
+      <c r="E92" s="3">
+        <v>1</v>
       </c>
       <c r="F92" s="2">
         <v>0</v>
@@ -4958,8 +5429,8 @@
       <c r="K92" s="2">
         <v>0</v>
       </c>
-      <c r="L92" s="2">
-        <v>0</v>
+      <c r="L92" s="3">
+        <v>1</v>
       </c>
       <c r="M92" s="2">
         <v>0</v>
@@ -4974,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>0</v>
       </c>
@@ -4987,29 +5458,29 @@
       <c r="D93" s="2">
         <v>0</v>
       </c>
-      <c r="E93" s="2">
-        <v>0</v>
-      </c>
-      <c r="F93" s="2">
-        <v>0</v>
+      <c r="E93" s="3">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1</v>
       </c>
       <c r="G93" s="3">
         <v>1</v>
       </c>
-      <c r="H93" s="2">
-        <v>0</v>
-      </c>
-      <c r="I93" s="2">
-        <v>0</v>
-      </c>
-      <c r="J93" s="2">
-        <v>0</v>
-      </c>
-      <c r="K93" s="2">
-        <v>0</v>
-      </c>
-      <c r="L93" s="2">
-        <v>0</v>
+      <c r="H93" s="3">
+        <v>1</v>
+      </c>
+      <c r="I93" s="3">
+        <v>1</v>
+      </c>
+      <c r="J93" s="3">
+        <v>1</v>
+      </c>
+      <c r="K93" s="3">
+        <v>1</v>
+      </c>
+      <c r="L93" s="3">
+        <v>1</v>
       </c>
       <c r="M93" s="2">
         <v>0</v>
@@ -5017,14 +5488,14 @@
       <c r="N93" s="2">
         <v>0</v>
       </c>
-      <c r="O93" s="3">
-        <v>1</v>
+      <c r="O93" s="2">
+        <v>0</v>
       </c>
       <c r="P93" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>0</v>
       </c>
@@ -5037,8 +5508,8 @@
       <c r="D94" s="2">
         <v>0</v>
       </c>
-      <c r="E94" s="2">
-        <v>0</v>
+      <c r="E94" s="3">
+        <v>1</v>
       </c>
       <c r="F94" s="2">
         <v>0</v>
@@ -5058,8 +5529,8 @@
       <c r="K94" s="2">
         <v>0</v>
       </c>
-      <c r="L94" s="2">
-        <v>0</v>
+      <c r="L94" s="3">
+        <v>1</v>
       </c>
       <c r="M94" s="2">
         <v>0</v>
@@ -5074,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>0</v>
       </c>
@@ -5087,8 +5558,8 @@
       <c r="D95" s="2">
         <v>0</v>
       </c>
-      <c r="E95" s="2">
-        <v>0</v>
+      <c r="E95" s="3">
+        <v>1</v>
       </c>
       <c r="F95" s="2">
         <v>0</v>
@@ -5108,8 +5579,8 @@
       <c r="K95" s="2">
         <v>0</v>
       </c>
-      <c r="L95" s="2">
-        <v>0</v>
+      <c r="L95" s="3">
+        <v>1</v>
       </c>
       <c r="M95" s="2">
         <v>0</v>
@@ -5124,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>8</v>
       </c>
@@ -5137,8 +5608,8 @@
       <c r="D96" s="2">
         <v>0</v>
       </c>
-      <c r="E96" s="2">
-        <v>0</v>
+      <c r="E96" s="3">
+        <v>1</v>
       </c>
       <c r="F96" s="2">
         <v>0</v>
@@ -5158,8 +5629,8 @@
       <c r="K96" s="2">
         <v>0</v>
       </c>
-      <c r="L96" s="2">
-        <v>0</v>
+      <c r="L96" s="3">
+        <v>1</v>
       </c>
       <c r="M96" s="2">
         <v>0</v>
@@ -5174,7 +5645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>8</v>
       </c>
@@ -5187,8 +5658,8 @@
       <c r="D97" s="2">
         <v>0</v>
       </c>
-      <c r="E97" s="2">
-        <v>0</v>
+      <c r="E97" s="3">
+        <v>1</v>
       </c>
       <c r="F97" s="2">
         <v>0</v>
@@ -5208,8 +5679,8 @@
       <c r="K97" s="2">
         <v>0</v>
       </c>
-      <c r="L97" s="2">
-        <v>0</v>
+      <c r="L97" s="3">
+        <v>1</v>
       </c>
       <c r="M97" s="2">
         <v>0</v>
@@ -5224,15 +5695,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>8</v>
       </c>
       <c r="B98" s="1">
         <v>8</v>
       </c>
-      <c r="C98" s="3">
-        <v>1</v>
+      <c r="C98" s="2">
+        <v>0</v>
       </c>
       <c r="D98" s="2">
         <v>0</v>
@@ -5274,7 +5745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>8</v>
       </c>
@@ -5324,7 +5795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>8</v>
       </c>
@@ -5334,8 +5805,8 @@
       <c r="C100" s="1">
         <v>8</v>
       </c>
-      <c r="D100" s="3">
-        <v>1</v>
+      <c r="D100" s="2">
+        <v>0</v>
       </c>
       <c r="E100" s="2">
         <v>0</v>
@@ -5374,7 +5845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>8</v>
       </c>
@@ -5396,8 +5867,8 @@
       <c r="G101" s="2">
         <v>0</v>
       </c>
-      <c r="H101" s="3">
-        <v>1</v>
+      <c r="H101" s="2">
+        <v>0</v>
       </c>
       <c r="I101" s="2">
         <v>0</v>
@@ -5424,7 +5895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>8</v>
       </c>
@@ -5446,8 +5917,8 @@
       <c r="G103" s="2">
         <v>0</v>
       </c>
-      <c r="H103" s="3">
-        <v>1</v>
+      <c r="H103" s="2">
+        <v>0</v>
       </c>
       <c r="I103" s="2">
         <v>0</v>
@@ -5474,7 +5945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>8</v>
       </c>
@@ -5524,13 +5995,11 @@
         <v>8</v>
       </c>
       <c r="R104" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S104" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="S104" s="6"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>8</v>
       </c>
@@ -5552,8 +6021,8 @@
       <c r="G105" s="2">
         <v>0</v>
       </c>
-      <c r="H105" s="3">
-        <v>1</v>
+      <c r="H105" s="2">
+        <v>0</v>
       </c>
       <c r="I105" s="2">
         <v>0</v>
@@ -5580,7 +6049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>8</v>
       </c>
@@ -5593,8 +6062,8 @@
       <c r="D106" s="2">
         <v>0</v>
       </c>
-      <c r="E106" s="2">
-        <v>0</v>
+      <c r="E106" s="3">
+        <v>1</v>
       </c>
       <c r="F106" s="2">
         <v>0</v>
@@ -5614,8 +6083,8 @@
       <c r="K106" s="2">
         <v>0</v>
       </c>
-      <c r="L106" s="2">
-        <v>0</v>
+      <c r="L106" s="3">
+        <v>1</v>
       </c>
       <c r="M106" s="2">
         <v>0</v>
@@ -5629,11 +6098,9 @@
       <c r="P106" s="1">
         <v>8</v>
       </c>
-      <c r="S106" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S106" s="7"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>8</v>
       </c>
@@ -5646,8 +6113,8 @@
       <c r="D107" s="2">
         <v>0</v>
       </c>
-      <c r="E107" s="2">
-        <v>0</v>
+      <c r="E107" s="3">
+        <v>1</v>
       </c>
       <c r="F107" s="2">
         <v>0</v>
@@ -5667,8 +6134,8 @@
       <c r="K107" s="2">
         <v>0</v>
       </c>
-      <c r="L107" s="2">
-        <v>0</v>
+      <c r="L107" s="3">
+        <v>1</v>
       </c>
       <c r="M107" s="2">
         <v>0</v>
@@ -5686,10 +6153,11 @@
         <v>0</v>
       </c>
       <c r="S107" s="4">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A103:P118, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>8</v>
       </c>
@@ -5702,8 +6170,8 @@
       <c r="D108" s="2">
         <v>0</v>
       </c>
-      <c r="E108" s="2">
-        <v>0</v>
+      <c r="E108" s="3">
+        <v>1</v>
       </c>
       <c r="F108" s="2">
         <v>0</v>
@@ -5723,8 +6191,8 @@
       <c r="K108" s="2">
         <v>0</v>
       </c>
-      <c r="L108" s="2">
-        <v>0</v>
+      <c r="L108" s="3">
+        <v>1</v>
       </c>
       <c r="M108" s="2">
         <v>0</v>
@@ -5742,10 +6210,11 @@
         <v>1</v>
       </c>
       <c r="S108" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A103:P118, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>0</v>
       </c>
@@ -5758,8 +6227,8 @@
       <c r="D109" s="2">
         <v>0</v>
       </c>
-      <c r="E109" s="2">
-        <v>0</v>
+      <c r="E109" s="3">
+        <v>1</v>
       </c>
       <c r="F109" s="2">
         <v>0</v>
@@ -5779,8 +6248,8 @@
       <c r="K109" s="2">
         <v>0</v>
       </c>
-      <c r="L109" s="2">
-        <v>0</v>
+      <c r="L109" s="3">
+        <v>1</v>
       </c>
       <c r="M109" s="2">
         <v>0</v>
@@ -5795,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>0</v>
       </c>
@@ -5808,29 +6277,29 @@
       <c r="D110" s="2">
         <v>0</v>
       </c>
-      <c r="E110" s="2">
-        <v>0</v>
-      </c>
-      <c r="F110" s="2">
-        <v>0</v>
-      </c>
-      <c r="G110" s="2">
-        <v>0</v>
-      </c>
-      <c r="H110" s="2">
-        <v>0</v>
-      </c>
-      <c r="I110" s="2">
-        <v>0</v>
-      </c>
-      <c r="J110" s="2">
-        <v>0</v>
-      </c>
-      <c r="K110" s="2">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2">
-        <v>0</v>
+      <c r="E110" s="3">
+        <v>1</v>
+      </c>
+      <c r="F110" s="3">
+        <v>1</v>
+      </c>
+      <c r="G110" s="3">
+        <v>1</v>
+      </c>
+      <c r="H110" s="3">
+        <v>1</v>
+      </c>
+      <c r="I110" s="3">
+        <v>1</v>
+      </c>
+      <c r="J110" s="3">
+        <v>1</v>
+      </c>
+      <c r="K110" s="3">
+        <v>1</v>
+      </c>
+      <c r="L110" s="3">
+        <v>1</v>
       </c>
       <c r="M110" s="2">
         <v>0</v>
@@ -5845,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>0</v>
       </c>
@@ -5858,8 +6327,8 @@
       <c r="D111" s="2">
         <v>0</v>
       </c>
-      <c r="E111" s="2">
-        <v>0</v>
+      <c r="E111" s="3">
+        <v>1</v>
       </c>
       <c r="F111" s="2">
         <v>0</v>
@@ -5879,8 +6348,8 @@
       <c r="K111" s="2">
         <v>0</v>
       </c>
-      <c r="L111" s="2">
-        <v>0</v>
+      <c r="L111" s="3">
+        <v>1</v>
       </c>
       <c r="M111" s="2">
         <v>0</v>
@@ -5895,9 +6364,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A112" s="3">
-        <v>1</v>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>0</v>
       </c>
       <c r="B112" s="2">
         <v>0</v>
@@ -5908,8 +6377,8 @@
       <c r="D112" s="2">
         <v>0</v>
       </c>
-      <c r="E112" s="2">
-        <v>0</v>
+      <c r="E112" s="3">
+        <v>1</v>
       </c>
       <c r="F112" s="2">
         <v>0</v>
@@ -5929,8 +6398,8 @@
       <c r="K112" s="2">
         <v>0</v>
       </c>
-      <c r="L112" s="2">
-        <v>0</v>
+      <c r="L112" s="3">
+        <v>1</v>
       </c>
       <c r="M112" s="2">
         <v>0</v>
@@ -5945,7 +6414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>8</v>
       </c>
@@ -5958,14 +6427,14 @@
       <c r="D113" s="2">
         <v>0</v>
       </c>
-      <c r="E113" s="2">
-        <v>0</v>
+      <c r="E113" s="3">
+        <v>1</v>
       </c>
       <c r="F113" s="2">
         <v>0</v>
       </c>
-      <c r="G113" s="3">
-        <v>1</v>
+      <c r="G113" s="2">
+        <v>0</v>
       </c>
       <c r="H113" s="2">
         <v>0</v>
@@ -5973,14 +6442,14 @@
       <c r="I113" s="2">
         <v>0</v>
       </c>
-      <c r="J113" s="3">
-        <v>1</v>
+      <c r="J113" s="2">
+        <v>0</v>
       </c>
       <c r="K113" s="2">
         <v>0</v>
       </c>
-      <c r="L113" s="2">
-        <v>0</v>
+      <c r="L113" s="3">
+        <v>1</v>
       </c>
       <c r="M113" s="2">
         <v>0</v>
@@ -5995,7 +6464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>8</v>
       </c>
@@ -6008,20 +6477,20 @@
       <c r="D114" s="2">
         <v>0</v>
       </c>
-      <c r="E114" s="2">
-        <v>0</v>
-      </c>
-      <c r="F114" s="3">
-        <v>1</v>
-      </c>
-      <c r="G114" s="3">
-        <v>1</v>
-      </c>
-      <c r="H114" s="3">
-        <v>1</v>
-      </c>
-      <c r="I114" s="3">
-        <v>1</v>
+      <c r="E114" s="3">
+        <v>1</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2">
+        <v>0</v>
+      </c>
+      <c r="I114" s="2">
+        <v>0</v>
       </c>
       <c r="J114" s="2">
         <v>0</v>
@@ -6029,8 +6498,8 @@
       <c r="K114" s="2">
         <v>0</v>
       </c>
-      <c r="L114" s="2">
-        <v>0</v>
+      <c r="L114" s="3">
+        <v>1</v>
       </c>
       <c r="M114" s="2">
         <v>0</v>
@@ -6045,7 +6514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>8</v>
       </c>
@@ -6064,14 +6533,14 @@
       <c r="F115" s="2">
         <v>0</v>
       </c>
-      <c r="G115" s="3">
-        <v>1</v>
-      </c>
-      <c r="H115" s="3">
-        <v>1</v>
-      </c>
-      <c r="I115" s="3">
-        <v>1</v>
+      <c r="G115" s="2">
+        <v>0</v>
+      </c>
+      <c r="H115" s="2">
+        <v>0</v>
+      </c>
+      <c r="I115" s="2">
+        <v>0</v>
       </c>
       <c r="J115" s="2">
         <v>0</v>
@@ -6095,7 +6564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>8</v>
       </c>
@@ -6105,8 +6574,8 @@
       <c r="C116" s="2">
         <v>0</v>
       </c>
-      <c r="D116" s="3">
-        <v>1</v>
+      <c r="D116" s="2">
+        <v>0</v>
       </c>
       <c r="E116" s="2">
         <v>0</v>
@@ -6117,8 +6586,8 @@
       <c r="G116" s="2">
         <v>0</v>
       </c>
-      <c r="H116" s="3">
-        <v>1</v>
+      <c r="H116" s="2">
+        <v>0</v>
       </c>
       <c r="I116" s="2">
         <v>0</v>
@@ -6145,7 +6614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>8</v>
       </c>
@@ -6195,7 +6664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>8</v>
       </c>
@@ -6245,7 +6714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>8</v>
       </c>
@@ -6295,7 +6764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>8</v>
       </c>
@@ -6311,8 +6780,8 @@
       <c r="E121" s="2">
         <v>0</v>
       </c>
-      <c r="F121" s="3">
-        <v>1</v>
+      <c r="F121" s="2">
+        <v>0</v>
       </c>
       <c r="G121" s="2">
         <v>0</v>
@@ -6345,13 +6814,11 @@
         <v>8</v>
       </c>
       <c r="R121" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S121" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="S121" s="6"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>8</v>
       </c>
@@ -6401,7 +6868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>8</v>
       </c>
@@ -6414,8 +6881,8 @@
       <c r="D123" s="2">
         <v>0</v>
       </c>
-      <c r="E123" s="2">
-        <v>0</v>
+      <c r="E123" s="3">
+        <v>1</v>
       </c>
       <c r="F123" s="2">
         <v>0</v>
@@ -6435,8 +6902,8 @@
       <c r="K123" s="2">
         <v>0</v>
       </c>
-      <c r="L123" s="2">
-        <v>0</v>
+      <c r="L123" s="3">
+        <v>1</v>
       </c>
       <c r="M123" s="2">
         <v>0</v>
@@ -6450,11 +6917,9 @@
       <c r="P123" s="1">
         <v>8</v>
       </c>
-      <c r="S123" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S123" s="7"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>8</v>
       </c>
@@ -6467,8 +6932,8 @@
       <c r="D124" s="2">
         <v>0</v>
       </c>
-      <c r="E124" s="2">
-        <v>0</v>
+      <c r="E124" s="3">
+        <v>1</v>
       </c>
       <c r="F124" s="2">
         <v>0</v>
@@ -6488,8 +6953,8 @@
       <c r="K124" s="2">
         <v>0</v>
       </c>
-      <c r="L124" s="2">
-        <v>0</v>
+      <c r="L124" s="3">
+        <v>1</v>
       </c>
       <c r="M124" s="2">
         <v>0</v>
@@ -6507,10 +6972,11 @@
         <v>0</v>
       </c>
       <c r="S124" s="4">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A120:P135, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>8</v>
       </c>
@@ -6523,8 +6989,8 @@
       <c r="D125" s="2">
         <v>0</v>
       </c>
-      <c r="E125" s="2">
-        <v>0</v>
+      <c r="E125" s="3">
+        <v>1</v>
       </c>
       <c r="F125" s="2">
         <v>0</v>
@@ -6544,8 +7010,8 @@
       <c r="K125" s="2">
         <v>0</v>
       </c>
-      <c r="L125" s="2">
-        <v>0</v>
+      <c r="L125" s="3">
+        <v>1</v>
       </c>
       <c r="M125" s="2">
         <v>0</v>
@@ -6563,10 +7029,11 @@
         <v>1</v>
       </c>
       <c r="S125" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A120:P135, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>0</v>
       </c>
@@ -6579,8 +7046,8 @@
       <c r="D126" s="2">
         <v>0</v>
       </c>
-      <c r="E126" s="2">
-        <v>0</v>
+      <c r="E126" s="3">
+        <v>1</v>
       </c>
       <c r="F126" s="2">
         <v>0</v>
@@ -6600,8 +7067,8 @@
       <c r="K126" s="2">
         <v>0</v>
       </c>
-      <c r="L126" s="2">
-        <v>0</v>
+      <c r="L126" s="3">
+        <v>1</v>
       </c>
       <c r="M126" s="2">
         <v>0</v>
@@ -6609,14 +7076,14 @@
       <c r="N126" s="2">
         <v>0</v>
       </c>
-      <c r="O126" s="3">
-        <v>1</v>
+      <c r="O126" s="2">
+        <v>0</v>
       </c>
       <c r="P126" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>0</v>
       </c>
@@ -6629,29 +7096,29 @@
       <c r="D127" s="2">
         <v>0</v>
       </c>
-      <c r="E127" s="2">
-        <v>0</v>
-      </c>
-      <c r="F127" s="2">
-        <v>0</v>
-      </c>
-      <c r="G127" s="2">
-        <v>0</v>
-      </c>
-      <c r="H127" s="2">
-        <v>0</v>
-      </c>
-      <c r="I127" s="2">
-        <v>0</v>
-      </c>
-      <c r="J127" s="2">
-        <v>0</v>
-      </c>
-      <c r="K127" s="2">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2">
-        <v>0</v>
+      <c r="E127" s="3">
+        <v>1</v>
+      </c>
+      <c r="F127" s="3">
+        <v>1</v>
+      </c>
+      <c r="G127" s="3">
+        <v>1</v>
+      </c>
+      <c r="H127" s="3">
+        <v>1</v>
+      </c>
+      <c r="I127" s="3">
+        <v>1</v>
+      </c>
+      <c r="J127" s="3">
+        <v>1</v>
+      </c>
+      <c r="K127" s="3">
+        <v>1</v>
+      </c>
+      <c r="L127" s="3">
+        <v>1</v>
       </c>
       <c r="M127" s="2">
         <v>0</v>
@@ -6666,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>0</v>
       </c>
@@ -6679,8 +7146,8 @@
       <c r="D128" s="2">
         <v>0</v>
       </c>
-      <c r="E128" s="2">
-        <v>0</v>
+      <c r="E128" s="3">
+        <v>1</v>
       </c>
       <c r="F128" s="2">
         <v>0</v>
@@ -6700,8 +7167,8 @@
       <c r="K128" s="2">
         <v>0</v>
       </c>
-      <c r="L128" s="2">
-        <v>0</v>
+      <c r="L128" s="3">
+        <v>1</v>
       </c>
       <c r="M128" s="2">
         <v>0</v>
@@ -6716,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>0</v>
       </c>
@@ -6729,8 +7196,8 @@
       <c r="D129" s="2">
         <v>0</v>
       </c>
-      <c r="E129" s="2">
-        <v>0</v>
+      <c r="E129" s="3">
+        <v>1</v>
       </c>
       <c r="F129" s="2">
         <v>0</v>
@@ -6750,8 +7217,8 @@
       <c r="K129" s="2">
         <v>0</v>
       </c>
-      <c r="L129" s="2">
-        <v>0</v>
+      <c r="L129" s="3">
+        <v>1</v>
       </c>
       <c r="M129" s="2">
         <v>0</v>
@@ -6766,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>8</v>
       </c>
@@ -6779,8 +7246,8 @@
       <c r="D130" s="2">
         <v>0</v>
       </c>
-      <c r="E130" s="2">
-        <v>0</v>
+      <c r="E130" s="3">
+        <v>1</v>
       </c>
       <c r="F130" s="2">
         <v>0</v>
@@ -6800,8 +7267,8 @@
       <c r="K130" s="2">
         <v>0</v>
       </c>
-      <c r="L130" s="2">
-        <v>0</v>
+      <c r="L130" s="3">
+        <v>1</v>
       </c>
       <c r="M130" s="2">
         <v>0</v>
@@ -6816,7 +7283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>8</v>
       </c>
@@ -6829,8 +7296,8 @@
       <c r="D131" s="2">
         <v>0</v>
       </c>
-      <c r="E131" s="2">
-        <v>0</v>
+      <c r="E131" s="3">
+        <v>1</v>
       </c>
       <c r="F131" s="2">
         <v>0</v>
@@ -6850,8 +7317,8 @@
       <c r="K131" s="2">
         <v>0</v>
       </c>
-      <c r="L131" s="2">
-        <v>0</v>
+      <c r="L131" s="3">
+        <v>1</v>
       </c>
       <c r="M131" s="2">
         <v>0</v>
@@ -6866,7 +7333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>8</v>
       </c>
@@ -6916,7 +7383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>8</v>
       </c>
@@ -6966,7 +7433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>8</v>
       </c>
@@ -6976,8 +7443,8 @@
       <c r="C134" s="1">
         <v>8</v>
       </c>
-      <c r="D134" s="3">
-        <v>1</v>
+      <c r="D134" s="2">
+        <v>0</v>
       </c>
       <c r="E134" s="2">
         <v>0</v>
@@ -7016,7 +7483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>8</v>
       </c>
@@ -7066,7 +7533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>8</v>
       </c>
@@ -7116,7 +7583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>8</v>
       </c>
@@ -7138,8 +7605,8 @@
       <c r="G138" s="2">
         <v>0</v>
       </c>
-      <c r="H138" s="3">
-        <v>1</v>
+      <c r="H138" s="2">
+        <v>0</v>
       </c>
       <c r="I138" s="2">
         <v>0</v>
@@ -7166,13 +7633,11 @@
         <v>8</v>
       </c>
       <c r="R138" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S138" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="S138" s="6"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>8</v>
       </c>
@@ -7182,14 +7647,14 @@
       <c r="C139" s="2">
         <v>0</v>
       </c>
-      <c r="D139" s="3">
-        <v>1</v>
+      <c r="D139" s="2">
+        <v>0</v>
       </c>
       <c r="E139" s="2">
         <v>0</v>
       </c>
-      <c r="F139" s="3">
-        <v>1</v>
+      <c r="F139" s="2">
+        <v>0</v>
       </c>
       <c r="G139" s="2">
         <v>0</v>
@@ -7222,7 +7687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>8</v>
       </c>
@@ -7235,8 +7700,8 @@
       <c r="D140" s="2">
         <v>0</v>
       </c>
-      <c r="E140" s="2">
-        <v>0</v>
+      <c r="E140" s="3">
+        <v>1</v>
       </c>
       <c r="F140" s="2">
         <v>0</v>
@@ -7256,8 +7721,8 @@
       <c r="K140" s="2">
         <v>0</v>
       </c>
-      <c r="L140" s="2">
-        <v>0</v>
+      <c r="L140" s="3">
+        <v>1</v>
       </c>
       <c r="M140" s="2">
         <v>0</v>
@@ -7271,11 +7736,9 @@
       <c r="P140" s="1">
         <v>8</v>
       </c>
-      <c r="S140" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S140" s="7"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>8</v>
       </c>
@@ -7288,8 +7751,8 @@
       <c r="D141" s="2">
         <v>0</v>
       </c>
-      <c r="E141" s="2">
-        <v>0</v>
+      <c r="E141" s="3">
+        <v>1</v>
       </c>
       <c r="F141" s="2">
         <v>0</v>
@@ -7309,8 +7772,8 @@
       <c r="K141" s="2">
         <v>0</v>
       </c>
-      <c r="L141" s="2">
-        <v>0</v>
+      <c r="L141" s="3">
+        <v>1</v>
       </c>
       <c r="M141" s="2">
         <v>0</v>
@@ -7328,15 +7791,16 @@
         <v>0</v>
       </c>
       <c r="S141" s="4">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A137:P152, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>8</v>
       </c>
-      <c r="B142" s="3">
-        <v>1</v>
+      <c r="B142" s="2">
+        <v>0</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -7344,8 +7808,8 @@
       <c r="D142" s="2">
         <v>0</v>
       </c>
-      <c r="E142" s="2">
-        <v>0</v>
+      <c r="E142" s="3">
+        <v>1</v>
       </c>
       <c r="F142" s="2">
         <v>0</v>
@@ -7365,8 +7829,8 @@
       <c r="K142" s="2">
         <v>0</v>
       </c>
-      <c r="L142" s="2">
-        <v>0</v>
+      <c r="L142" s="3">
+        <v>1</v>
       </c>
       <c r="M142" s="2">
         <v>0</v>
@@ -7384,10 +7848,11 @@
         <v>1</v>
       </c>
       <c r="S142" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A137:P152, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>0</v>
       </c>
@@ -7400,8 +7865,8 @@
       <c r="D143" s="2">
         <v>0</v>
       </c>
-      <c r="E143" s="2">
-        <v>0</v>
+      <c r="E143" s="3">
+        <v>1</v>
       </c>
       <c r="F143" s="2">
         <v>0</v>
@@ -7421,11 +7886,11 @@
       <c r="K143" s="2">
         <v>0</v>
       </c>
-      <c r="L143" s="2">
-        <v>0</v>
-      </c>
-      <c r="M143" s="3">
-        <v>1</v>
+      <c r="L143" s="3">
+        <v>1</v>
+      </c>
+      <c r="M143" s="2">
+        <v>0</v>
       </c>
       <c r="N143" s="2">
         <v>0</v>
@@ -7437,9 +7902,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A144" s="3">
-        <v>1</v>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>0</v>
       </c>
       <c r="B144" s="2">
         <v>0</v>
@@ -7450,29 +7915,29 @@
       <c r="D144" s="2">
         <v>0</v>
       </c>
-      <c r="E144" s="2">
-        <v>0</v>
+      <c r="E144" s="3">
+        <v>1</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
       </c>
-      <c r="G144" s="2">
-        <v>0</v>
-      </c>
-      <c r="H144" s="2">
-        <v>0</v>
-      </c>
-      <c r="I144" s="2">
-        <v>0</v>
-      </c>
-      <c r="J144" s="2">
-        <v>0</v>
-      </c>
-      <c r="K144" s="2">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2">
-        <v>0</v>
+      <c r="G144" s="3">
+        <v>1</v>
+      </c>
+      <c r="H144" s="3">
+        <v>1</v>
+      </c>
+      <c r="I144" s="3">
+        <v>1</v>
+      </c>
+      <c r="J144" s="3">
+        <v>1</v>
+      </c>
+      <c r="K144" s="3">
+        <v>1</v>
+      </c>
+      <c r="L144" s="3">
+        <v>1</v>
       </c>
       <c r="M144" s="2">
         <v>0</v>
@@ -7487,7 +7952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>0</v>
       </c>
@@ -7500,8 +7965,8 @@
       <c r="D145" s="2">
         <v>0</v>
       </c>
-      <c r="E145" s="2">
-        <v>0</v>
+      <c r="E145" s="3">
+        <v>1</v>
       </c>
       <c r="F145" s="2">
         <v>0</v>
@@ -7521,8 +7986,8 @@
       <c r="K145" s="2">
         <v>0</v>
       </c>
-      <c r="L145" s="2">
-        <v>0</v>
+      <c r="L145" s="3">
+        <v>1</v>
       </c>
       <c r="M145" s="2">
         <v>0</v>
@@ -7537,27 +8002,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A146" s="3">
-        <v>1</v>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>0</v>
       </c>
       <c r="B146" s="2">
         <v>0</v>
       </c>
-      <c r="C146" s="3">
-        <v>1</v>
+      <c r="C146" s="2">
+        <v>0</v>
       </c>
       <c r="D146" s="2">
         <v>0</v>
       </c>
-      <c r="E146" s="2">
-        <v>0</v>
+      <c r="E146" s="3">
+        <v>1</v>
       </c>
       <c r="F146" s="2">
         <v>0</v>
       </c>
-      <c r="G146" s="3">
-        <v>1</v>
+      <c r="G146" s="2">
+        <v>0</v>
       </c>
       <c r="H146" s="2">
         <v>0</v>
@@ -7571,8 +8036,8 @@
       <c r="K146" s="2">
         <v>0</v>
       </c>
-      <c r="L146" s="2">
-        <v>0</v>
+      <c r="L146" s="3">
+        <v>1</v>
       </c>
       <c r="M146" s="2">
         <v>0</v>
@@ -7587,7 +8052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>8</v>
       </c>
@@ -7600,8 +8065,8 @@
       <c r="D147" s="2">
         <v>0</v>
       </c>
-      <c r="E147" s="2">
-        <v>0</v>
+      <c r="E147" s="3">
+        <v>1</v>
       </c>
       <c r="F147" s="2">
         <v>0</v>
@@ -7609,8 +8074,8 @@
       <c r="G147" s="2">
         <v>0</v>
       </c>
-      <c r="H147" s="3">
-        <v>1</v>
+      <c r="H147" s="2">
+        <v>0</v>
       </c>
       <c r="I147" s="2">
         <v>0</v>
@@ -7621,8 +8086,8 @@
       <c r="K147" s="2">
         <v>0</v>
       </c>
-      <c r="L147" s="2">
-        <v>0</v>
+      <c r="L147" s="3">
+        <v>1</v>
       </c>
       <c r="M147" s="2">
         <v>0</v>
@@ -7637,7 +8102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>8</v>
       </c>
@@ -7650,8 +8115,8 @@
       <c r="D148" s="2">
         <v>0</v>
       </c>
-      <c r="E148" s="2">
-        <v>0</v>
+      <c r="E148" s="3">
+        <v>1</v>
       </c>
       <c r="F148" s="2">
         <v>0</v>
@@ -7671,8 +8136,8 @@
       <c r="K148" s="2">
         <v>0</v>
       </c>
-      <c r="L148" s="2">
-        <v>0</v>
+      <c r="L148" s="3">
+        <v>1</v>
       </c>
       <c r="M148" s="2">
         <v>0</v>
@@ -7687,7 +8152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>8</v>
       </c>
@@ -7737,7 +8202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>8</v>
       </c>
@@ -7787,7 +8252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>8</v>
       </c>
@@ -7837,7 +8302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>8</v>
       </c>
@@ -7853,8 +8318,8 @@
       <c r="E152" s="1">
         <v>8</v>
       </c>
-      <c r="F152" s="3">
-        <v>1</v>
+      <c r="F152" s="2">
+        <v>0</v>
       </c>
       <c r="G152" s="2">
         <v>0</v>
@@ -7887,7 +8352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>8</v>
       </c>
@@ -7937,7 +8402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>8</v>
       </c>
@@ -7965,11 +8430,11 @@
       <c r="I155" s="2">
         <v>0</v>
       </c>
-      <c r="J155" s="3">
-        <v>1</v>
-      </c>
-      <c r="K155" s="3">
-        <v>1</v>
+      <c r="J155" s="2">
+        <v>0</v>
+      </c>
+      <c r="K155" s="2">
+        <v>0</v>
       </c>
       <c r="L155" s="2">
         <v>0</v>
@@ -7987,13 +8452,11 @@
         <v>8</v>
       </c>
       <c r="R155" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S155" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="S155" s="6"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>8</v>
       </c>
@@ -8043,7 +8506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>8</v>
       </c>
@@ -8056,8 +8519,8 @@
       <c r="D157" s="2">
         <v>0</v>
       </c>
-      <c r="E157" s="2">
-        <v>0</v>
+      <c r="E157" s="3">
+        <v>1</v>
       </c>
       <c r="F157" s="2">
         <v>0</v>
@@ -8077,8 +8540,8 @@
       <c r="K157" s="2">
         <v>0</v>
       </c>
-      <c r="L157" s="2">
-        <v>0</v>
+      <c r="L157" s="3">
+        <v>1</v>
       </c>
       <c r="M157" s="2">
         <v>0</v>
@@ -8092,11 +8555,9 @@
       <c r="P157" s="1">
         <v>8</v>
       </c>
-      <c r="S157" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S157" s="7"/>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>8</v>
       </c>
@@ -8109,8 +8570,8 @@
       <c r="D158" s="2">
         <v>0</v>
       </c>
-      <c r="E158" s="2">
-        <v>0</v>
+      <c r="E158" s="3">
+        <v>1</v>
       </c>
       <c r="F158" s="2">
         <v>0</v>
@@ -8130,8 +8591,8 @@
       <c r="K158" s="2">
         <v>0</v>
       </c>
-      <c r="L158" s="2">
-        <v>0</v>
+      <c r="L158" s="3">
+        <v>1</v>
       </c>
       <c r="M158" s="2">
         <v>0</v>
@@ -8149,10 +8610,11 @@
         <v>0</v>
       </c>
       <c r="S158" s="4">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A154:P169, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>8</v>
       </c>
@@ -8165,11 +8627,11 @@
       <c r="D159" s="2">
         <v>0</v>
       </c>
-      <c r="E159" s="2">
-        <v>0</v>
-      </c>
-      <c r="F159" s="3">
-        <v>1</v>
+      <c r="E159" s="3">
+        <v>1</v>
+      </c>
+      <c r="F159" s="2">
+        <v>0</v>
       </c>
       <c r="G159" s="2">
         <v>0</v>
@@ -8186,8 +8648,8 @@
       <c r="K159" s="2">
         <v>0</v>
       </c>
-      <c r="L159" s="2">
-        <v>0</v>
+      <c r="L159" s="3">
+        <v>1</v>
       </c>
       <c r="M159" s="2">
         <v>0</v>
@@ -8205,10 +8667,11 @@
         <v>1</v>
       </c>
       <c r="S159" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A154:P169, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>0</v>
       </c>
@@ -8221,8 +8684,8 @@
       <c r="D160" s="2">
         <v>0</v>
       </c>
-      <c r="E160" s="2">
-        <v>0</v>
+      <c r="E160" s="3">
+        <v>1</v>
       </c>
       <c r="F160" s="2">
         <v>0</v>
@@ -8242,8 +8705,8 @@
       <c r="K160" s="2">
         <v>0</v>
       </c>
-      <c r="L160" s="2">
-        <v>0</v>
+      <c r="L160" s="3">
+        <v>1</v>
       </c>
       <c r="M160" s="2">
         <v>0</v>
@@ -8258,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>0</v>
       </c>
@@ -8271,29 +8734,29 @@
       <c r="D161" s="2">
         <v>0</v>
       </c>
-      <c r="E161" s="2">
-        <v>0</v>
-      </c>
-      <c r="F161" s="2">
-        <v>0</v>
-      </c>
-      <c r="G161" s="2">
-        <v>0</v>
-      </c>
-      <c r="H161" s="2">
-        <v>0</v>
-      </c>
-      <c r="I161" s="2">
-        <v>0</v>
-      </c>
-      <c r="J161" s="2">
-        <v>0</v>
-      </c>
-      <c r="K161" s="2">
-        <v>0</v>
-      </c>
-      <c r="L161" s="2">
-        <v>0</v>
+      <c r="E161" s="3">
+        <v>1</v>
+      </c>
+      <c r="F161" s="3">
+        <v>1</v>
+      </c>
+      <c r="G161" s="3">
+        <v>1</v>
+      </c>
+      <c r="H161" s="3">
+        <v>1</v>
+      </c>
+      <c r="I161" s="3">
+        <v>1</v>
+      </c>
+      <c r="J161" s="3">
+        <v>1</v>
+      </c>
+      <c r="K161" s="3">
+        <v>1</v>
+      </c>
+      <c r="L161" s="3">
+        <v>1</v>
       </c>
       <c r="M161" s="2">
         <v>0</v>
@@ -8308,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>0</v>
       </c>
@@ -8321,8 +8784,8 @@
       <c r="D162" s="2">
         <v>0</v>
       </c>
-      <c r="E162" s="2">
-        <v>0</v>
+      <c r="E162" s="3">
+        <v>1</v>
       </c>
       <c r="F162" s="2">
         <v>0</v>
@@ -8342,8 +8805,8 @@
       <c r="K162" s="2">
         <v>0</v>
       </c>
-      <c r="L162" s="2">
-        <v>0</v>
+      <c r="L162" s="3">
+        <v>1</v>
       </c>
       <c r="M162" s="2">
         <v>0</v>
@@ -8358,7 +8821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>0</v>
       </c>
@@ -8371,8 +8834,8 @@
       <c r="D163" s="2">
         <v>0</v>
       </c>
-      <c r="E163" s="2">
-        <v>0</v>
+      <c r="E163" s="3">
+        <v>1</v>
       </c>
       <c r="F163" s="2">
         <v>0</v>
@@ -8392,8 +8855,8 @@
       <c r="K163" s="2">
         <v>0</v>
       </c>
-      <c r="L163" s="2">
-        <v>0</v>
+      <c r="L163" s="3">
+        <v>1</v>
       </c>
       <c r="M163" s="2">
         <v>0</v>
@@ -8408,7 +8871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>8</v>
       </c>
@@ -8421,8 +8884,8 @@
       <c r="D164" s="2">
         <v>0</v>
       </c>
-      <c r="E164" s="2">
-        <v>0</v>
+      <c r="E164" s="3">
+        <v>1</v>
       </c>
       <c r="F164" s="2">
         <v>0</v>
@@ -8442,8 +8905,8 @@
       <c r="K164" s="2">
         <v>0</v>
       </c>
-      <c r="L164" s="2">
-        <v>0</v>
+      <c r="L164" s="3">
+        <v>1</v>
       </c>
       <c r="M164" s="2">
         <v>0</v>
@@ -8458,7 +8921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>8</v>
       </c>
@@ -8492,8 +8955,8 @@
       <c r="K165" s="2">
         <v>0</v>
       </c>
-      <c r="L165" s="2">
-        <v>0</v>
+      <c r="L165" s="3">
+        <v>1</v>
       </c>
       <c r="M165" s="2">
         <v>0</v>
@@ -8508,7 +8971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>8</v>
       </c>
@@ -8558,7 +9021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>8</v>
       </c>
@@ -8608,7 +9071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>8</v>
       </c>
@@ -8658,7 +9121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>8</v>
       </c>
@@ -8708,7 +9171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>8</v>
       </c>
@@ -8727,11 +9190,11 @@
       <c r="F171" s="2">
         <v>0</v>
       </c>
-      <c r="G171" s="3">
-        <v>1</v>
-      </c>
-      <c r="H171" s="3">
-        <v>1</v>
+      <c r="G171" s="2">
+        <v>0</v>
+      </c>
+      <c r="H171" s="2">
+        <v>0</v>
       </c>
       <c r="I171" s="2">
         <v>0</v>
@@ -8758,7 +9221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>8</v>
       </c>
@@ -8792,11 +9255,11 @@
       <c r="K172" s="2">
         <v>0</v>
       </c>
-      <c r="L172" s="3">
-        <v>1</v>
-      </c>
-      <c r="M172" s="3">
-        <v>1</v>
+      <c r="L172" s="2">
+        <v>0</v>
+      </c>
+      <c r="M172" s="2">
+        <v>0</v>
       </c>
       <c r="N172" s="1">
         <v>8</v>
@@ -8808,13 +9271,11 @@
         <v>8</v>
       </c>
       <c r="R172" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S172" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="S172" s="6"/>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>8</v>
       </c>
@@ -8824,8 +9285,8 @@
       <c r="C173" s="2">
         <v>0</v>
       </c>
-      <c r="D173" s="3">
-        <v>1</v>
+      <c r="D173" s="2">
+        <v>0</v>
       </c>
       <c r="E173" s="2">
         <v>0</v>
@@ -8833,8 +9294,8 @@
       <c r="F173" s="2">
         <v>0</v>
       </c>
-      <c r="G173" s="3">
-        <v>1</v>
+      <c r="G173" s="2">
+        <v>0</v>
       </c>
       <c r="H173" s="2">
         <v>0</v>
@@ -8851,8 +9312,8 @@
       <c r="L173" s="2">
         <v>0</v>
       </c>
-      <c r="M173" s="3">
-        <v>1</v>
+      <c r="M173" s="2">
+        <v>0</v>
       </c>
       <c r="N173" s="2">
         <v>0</v>
@@ -8864,21 +9325,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>8</v>
       </c>
       <c r="B174" s="1">
         <v>8</v>
       </c>
-      <c r="C174" s="3">
-        <v>1</v>
+      <c r="C174" s="2">
+        <v>0</v>
       </c>
       <c r="D174" s="2">
         <v>0</v>
       </c>
-      <c r="E174" s="2">
-        <v>0</v>
+      <c r="E174" s="3">
+        <v>1</v>
       </c>
       <c r="F174" s="2">
         <v>0</v>
@@ -8898,8 +9359,8 @@
       <c r="K174" s="2">
         <v>0</v>
       </c>
-      <c r="L174" s="2">
-        <v>0</v>
+      <c r="L174" s="3">
+        <v>1</v>
       </c>
       <c r="M174" s="2">
         <v>0</v>
@@ -8913,11 +9374,9 @@
       <c r="P174" s="1">
         <v>8</v>
       </c>
-      <c r="S174" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S174" s="7"/>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>8</v>
       </c>
@@ -8930,8 +9389,8 @@
       <c r="D175" s="2">
         <v>0</v>
       </c>
-      <c r="E175" s="2">
-        <v>0</v>
+      <c r="E175" s="3">
+        <v>1</v>
       </c>
       <c r="F175" s="2">
         <v>0</v>
@@ -8951,8 +9410,8 @@
       <c r="K175" s="2">
         <v>0</v>
       </c>
-      <c r="L175" s="2">
-        <v>0</v>
+      <c r="L175" s="3">
+        <v>1</v>
       </c>
       <c r="M175" s="2">
         <v>0</v>
@@ -8970,10 +9429,11 @@
         <v>0</v>
       </c>
       <c r="S175" s="4">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A171:P186, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>8</v>
       </c>
@@ -8986,8 +9446,8 @@
       <c r="D176" s="2">
         <v>0</v>
       </c>
-      <c r="E176" s="2">
-        <v>0</v>
+      <c r="E176" s="3">
+        <v>1</v>
       </c>
       <c r="F176" s="2">
         <v>0</v>
@@ -9007,8 +9467,8 @@
       <c r="K176" s="2">
         <v>0</v>
       </c>
-      <c r="L176" s="2">
-        <v>0</v>
+      <c r="L176" s="3">
+        <v>1</v>
       </c>
       <c r="M176" s="2">
         <v>0</v>
@@ -9026,10 +9486,11 @@
         <v>1</v>
       </c>
       <c r="S176" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A171:P186, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>0</v>
       </c>
@@ -9057,14 +9518,14 @@
       <c r="I177" s="2">
         <v>0</v>
       </c>
-      <c r="J177" s="3">
-        <v>1</v>
+      <c r="J177" s="2">
+        <v>0</v>
       </c>
       <c r="K177" s="2">
         <v>0</v>
       </c>
-      <c r="L177" s="2">
-        <v>0</v>
+      <c r="L177" s="3">
+        <v>1</v>
       </c>
       <c r="M177" s="2">
         <v>0</v>
@@ -9079,7 +9540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>0</v>
       </c>
@@ -9092,29 +9553,29 @@
       <c r="D178" s="2">
         <v>0</v>
       </c>
-      <c r="E178" s="2">
-        <v>0</v>
-      </c>
-      <c r="F178" s="2">
-        <v>0</v>
-      </c>
-      <c r="G178" s="2">
-        <v>0</v>
-      </c>
-      <c r="H178" s="2">
-        <v>0</v>
-      </c>
-      <c r="I178" s="2">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2">
-        <v>0</v>
-      </c>
-      <c r="K178" s="2">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2">
-        <v>0</v>
+      <c r="E178" s="3">
+        <v>1</v>
+      </c>
+      <c r="F178" s="3">
+        <v>1</v>
+      </c>
+      <c r="G178" s="3">
+        <v>1</v>
+      </c>
+      <c r="H178" s="3">
+        <v>1</v>
+      </c>
+      <c r="I178" s="3">
+        <v>1</v>
+      </c>
+      <c r="J178" s="3">
+        <v>1</v>
+      </c>
+      <c r="K178" s="3">
+        <v>1</v>
+      </c>
+      <c r="L178" s="3">
+        <v>1</v>
       </c>
       <c r="M178" s="2">
         <v>0</v>
@@ -9129,9 +9590,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A179" s="3">
-        <v>1</v>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>0</v>
       </c>
       <c r="B179" s="2">
         <v>0</v>
@@ -9142,8 +9603,8 @@
       <c r="D179" s="2">
         <v>0</v>
       </c>
-      <c r="E179" s="2">
-        <v>0</v>
+      <c r="E179" s="3">
+        <v>1</v>
       </c>
       <c r="F179" s="2">
         <v>0</v>
@@ -9163,8 +9624,8 @@
       <c r="K179" s="2">
         <v>0</v>
       </c>
-      <c r="L179" s="2">
-        <v>0</v>
+      <c r="L179" s="3">
+        <v>1</v>
       </c>
       <c r="M179" s="2">
         <v>0</v>
@@ -9179,7 +9640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>0</v>
       </c>
@@ -9192,8 +9653,8 @@
       <c r="D180" s="2">
         <v>0</v>
       </c>
-      <c r="E180" s="2">
-        <v>0</v>
+      <c r="E180" s="3">
+        <v>1</v>
       </c>
       <c r="F180" s="2">
         <v>0</v>
@@ -9213,8 +9674,8 @@
       <c r="K180" s="2">
         <v>0</v>
       </c>
-      <c r="L180" s="2">
-        <v>0</v>
+      <c r="L180" s="3">
+        <v>1</v>
       </c>
       <c r="M180" s="2">
         <v>0</v>
@@ -9229,12 +9690,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>8</v>
       </c>
-      <c r="B181" s="3">
-        <v>1</v>
+      <c r="B181" s="2">
+        <v>0</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -9242,8 +9703,8 @@
       <c r="D181" s="2">
         <v>0</v>
       </c>
-      <c r="E181" s="2">
-        <v>0</v>
+      <c r="E181" s="3">
+        <v>1</v>
       </c>
       <c r="F181" s="2">
         <v>0</v>
@@ -9279,7 +9740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>8</v>
       </c>
@@ -9292,8 +9753,8 @@
       <c r="D182" s="2">
         <v>0</v>
       </c>
-      <c r="E182" s="2">
-        <v>0</v>
+      <c r="E182" s="3">
+        <v>1</v>
       </c>
       <c r="F182" s="2">
         <v>0</v>
@@ -9313,8 +9774,8 @@
       <c r="K182" s="2">
         <v>0</v>
       </c>
-      <c r="L182" s="2">
-        <v>0</v>
+      <c r="L182" s="3">
+        <v>1</v>
       </c>
       <c r="M182" s="2">
         <v>0</v>
@@ -9329,7 +9790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>8</v>
       </c>
@@ -9379,15 +9840,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>8</v>
       </c>
       <c r="B184" s="1">
         <v>8</v>
       </c>
-      <c r="C184" s="3">
-        <v>1</v>
+      <c r="C184" s="2">
+        <v>0</v>
       </c>
       <c r="D184" s="2">
         <v>0</v>
@@ -9429,7 +9890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>8</v>
       </c>
@@ -9479,7 +9940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>8</v>
       </c>
@@ -9498,8 +9959,8 @@
       <c r="F186" s="2">
         <v>0</v>
       </c>
-      <c r="G186" s="3">
-        <v>1</v>
+      <c r="G186" s="2">
+        <v>0</v>
       </c>
       <c r="H186" s="2">
         <v>0</v>
@@ -9507,11 +9968,11 @@
       <c r="I186" s="2">
         <v>0</v>
       </c>
-      <c r="J186" s="3">
-        <v>1</v>
-      </c>
-      <c r="K186" s="3">
-        <v>1</v>
+      <c r="J186" s="2">
+        <v>0</v>
+      </c>
+      <c r="K186" s="2">
+        <v>0</v>
       </c>
       <c r="L186" s="1">
         <v>8</v>
@@ -9529,7 +9990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>8</v>
       </c>
@@ -9579,7 +10040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>8</v>
       </c>
@@ -9629,13 +10090,11 @@
         <v>8</v>
       </c>
       <c r="R189" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S189" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="S189" s="6"/>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>8</v>
       </c>
@@ -9685,7 +10144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>8</v>
       </c>
@@ -9698,8 +10157,8 @@
       <c r="D191" s="2">
         <v>0</v>
       </c>
-      <c r="E191" s="2">
-        <v>0</v>
+      <c r="E191" s="3">
+        <v>1</v>
       </c>
       <c r="F191" s="2">
         <v>0</v>
@@ -9719,14 +10178,14 @@
       <c r="K191" s="2">
         <v>0</v>
       </c>
-      <c r="L191" s="2">
-        <v>0</v>
+      <c r="L191" s="3">
+        <v>1</v>
       </c>
       <c r="M191" s="2">
         <v>0</v>
       </c>
-      <c r="N191" s="3">
-        <v>1</v>
+      <c r="N191" s="2">
+        <v>0</v>
       </c>
       <c r="O191" s="1">
         <v>8</v>
@@ -9734,11 +10193,9 @@
       <c r="P191" s="1">
         <v>8</v>
       </c>
-      <c r="S191" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S191" s="7"/>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>8</v>
       </c>
@@ -9751,8 +10208,8 @@
       <c r="D192" s="2">
         <v>0</v>
       </c>
-      <c r="E192" s="2">
-        <v>0</v>
+      <c r="E192" s="3">
+        <v>1</v>
       </c>
       <c r="F192" s="2">
         <v>0</v>
@@ -9772,8 +10229,8 @@
       <c r="K192" s="2">
         <v>0</v>
       </c>
-      <c r="L192" s="2">
-        <v>0</v>
+      <c r="L192" s="3">
+        <v>1</v>
       </c>
       <c r="M192" s="2">
         <v>0</v>
@@ -9791,10 +10248,11 @@
         <v>0</v>
       </c>
       <c r="S192" s="4">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A188:P203, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>8</v>
       </c>
@@ -9807,8 +10265,8 @@
       <c r="D193" s="2">
         <v>0</v>
       </c>
-      <c r="E193" s="2">
-        <v>0</v>
+      <c r="E193" s="3">
+        <v>1</v>
       </c>
       <c r="F193" s="2">
         <v>0</v>
@@ -9822,14 +10280,14 @@
       <c r="I193" s="2">
         <v>0</v>
       </c>
-      <c r="J193" s="3">
-        <v>1</v>
+      <c r="J193" s="2">
+        <v>0</v>
       </c>
       <c r="K193" s="2">
         <v>0</v>
       </c>
-      <c r="L193" s="2">
-        <v>0</v>
+      <c r="L193" s="3">
+        <v>1</v>
       </c>
       <c r="M193" s="2">
         <v>0</v>
@@ -9847,10 +10305,11 @@
         <v>1</v>
       </c>
       <c r="S193" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A188:P203, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>0</v>
       </c>
@@ -9863,8 +10322,8 @@
       <c r="D194" s="2">
         <v>0</v>
       </c>
-      <c r="E194" s="2">
-        <v>0</v>
+      <c r="E194" s="3">
+        <v>1</v>
       </c>
       <c r="F194" s="2">
         <v>0</v>
@@ -9884,8 +10343,8 @@
       <c r="K194" s="2">
         <v>0</v>
       </c>
-      <c r="L194" s="2">
-        <v>0</v>
+      <c r="L194" s="3">
+        <v>1</v>
       </c>
       <c r="M194" s="2">
         <v>0</v>
@@ -9900,7 +10359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>0</v>
       </c>
@@ -9913,29 +10372,29 @@
       <c r="D195" s="2">
         <v>0</v>
       </c>
-      <c r="E195" s="2">
-        <v>0</v>
-      </c>
-      <c r="F195" s="2">
-        <v>0</v>
-      </c>
-      <c r="G195" s="2">
-        <v>0</v>
-      </c>
-      <c r="H195" s="2">
-        <v>0</v>
-      </c>
-      <c r="I195" s="2">
-        <v>0</v>
-      </c>
-      <c r="J195" s="2">
-        <v>0</v>
-      </c>
-      <c r="K195" s="2">
-        <v>0</v>
-      </c>
-      <c r="L195" s="2">
-        <v>0</v>
+      <c r="E195" s="3">
+        <v>1</v>
+      </c>
+      <c r="F195" s="3">
+        <v>1</v>
+      </c>
+      <c r="G195" s="3">
+        <v>1</v>
+      </c>
+      <c r="H195" s="3">
+        <v>1</v>
+      </c>
+      <c r="I195" s="3">
+        <v>1</v>
+      </c>
+      <c r="J195" s="3">
+        <v>1</v>
+      </c>
+      <c r="K195" s="3">
+        <v>1</v>
+      </c>
+      <c r="L195" s="3">
+        <v>1</v>
       </c>
       <c r="M195" s="2">
         <v>0</v>
@@ -9950,7 +10409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>0</v>
       </c>
@@ -9963,8 +10422,8 @@
       <c r="D196" s="2">
         <v>0</v>
       </c>
-      <c r="E196" s="2">
-        <v>0</v>
+      <c r="E196" s="3">
+        <v>1</v>
       </c>
       <c r="F196" s="2">
         <v>0</v>
@@ -9984,8 +10443,8 @@
       <c r="K196" s="2">
         <v>0</v>
       </c>
-      <c r="L196" s="2">
-        <v>0</v>
+      <c r="L196" s="3">
+        <v>1</v>
       </c>
       <c r="M196" s="2">
         <v>0</v>
@@ -10000,33 +10459,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A197" s="3">
-        <v>1</v>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>0</v>
       </c>
       <c r="B197" s="2">
         <v>0</v>
       </c>
-      <c r="C197" s="3">
-        <v>1</v>
+      <c r="C197" s="2">
+        <v>0</v>
       </c>
       <c r="D197" s="2">
         <v>0</v>
       </c>
-      <c r="E197" s="2">
-        <v>0</v>
+      <c r="E197" s="3">
+        <v>1</v>
       </c>
       <c r="F197" s="2">
         <v>0</v>
       </c>
-      <c r="G197" s="3">
-        <v>1</v>
+      <c r="G197" s="2">
+        <v>0</v>
       </c>
       <c r="H197" s="2">
         <v>0</v>
       </c>
-      <c r="I197" s="3">
-        <v>1</v>
+      <c r="I197" s="2">
+        <v>0</v>
       </c>
       <c r="J197" s="2">
         <v>0</v>
@@ -10034,8 +10493,8 @@
       <c r="K197" s="2">
         <v>0</v>
       </c>
-      <c r="L197" s="2">
-        <v>0</v>
+      <c r="L197" s="3">
+        <v>1</v>
       </c>
       <c r="M197" s="2">
         <v>0</v>
@@ -10050,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>8</v>
       </c>
@@ -10063,8 +10522,8 @@
       <c r="D198" s="2">
         <v>0</v>
       </c>
-      <c r="E198" s="2">
-        <v>0</v>
+      <c r="E198" s="3">
+        <v>1</v>
       </c>
       <c r="F198" s="2">
         <v>0</v>
@@ -10084,8 +10543,8 @@
       <c r="K198" s="2">
         <v>0</v>
       </c>
-      <c r="L198" s="2">
-        <v>0</v>
+      <c r="L198" s="3">
+        <v>1</v>
       </c>
       <c r="M198" s="2">
         <v>0</v>
@@ -10100,7 +10559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>8</v>
       </c>
@@ -10113,8 +10572,8 @@
       <c r="D199" s="2">
         <v>0</v>
       </c>
-      <c r="E199" s="2">
-        <v>0</v>
+      <c r="E199" s="3">
+        <v>1</v>
       </c>
       <c r="F199" s="2">
         <v>0</v>
@@ -10131,11 +10590,11 @@
       <c r="J199" s="2">
         <v>0</v>
       </c>
-      <c r="K199" s="3">
-        <v>1</v>
-      </c>
-      <c r="L199" s="2">
-        <v>0</v>
+      <c r="K199" s="2">
+        <v>0</v>
+      </c>
+      <c r="L199" s="3">
+        <v>1</v>
       </c>
       <c r="M199" s="2">
         <v>0</v>
@@ -10150,7 +10609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>8</v>
       </c>
@@ -10200,7 +10659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>8</v>
       </c>
@@ -10210,8 +10669,8 @@
       <c r="C201" s="2">
         <v>0</v>
       </c>
-      <c r="D201" s="3">
-        <v>1</v>
+      <c r="D201" s="2">
+        <v>0</v>
       </c>
       <c r="E201" s="2">
         <v>0</v>
@@ -10231,8 +10690,8 @@
       <c r="J201" s="2">
         <v>0</v>
       </c>
-      <c r="K201" s="3">
-        <v>1</v>
+      <c r="K201" s="2">
+        <v>0</v>
       </c>
       <c r="L201" s="2">
         <v>0</v>
@@ -10250,7 +10709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>8</v>
       </c>
@@ -10300,7 +10759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>8</v>
       </c>
@@ -10322,8 +10781,8 @@
       <c r="G203" s="2">
         <v>0</v>
       </c>
-      <c r="H203" s="3">
-        <v>1</v>
+      <c r="H203" s="2">
+        <v>0</v>
       </c>
       <c r="I203" s="2">
         <v>0</v>
@@ -10350,7 +10809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>8</v>
       </c>
@@ -10369,8 +10828,8 @@
       <c r="F205" s="2">
         <v>0</v>
       </c>
-      <c r="G205" s="3">
-        <v>1</v>
+      <c r="G205" s="2">
+        <v>0</v>
       </c>
       <c r="H205" s="2">
         <v>0</v>
@@ -10400,7 +10859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>8</v>
       </c>
@@ -10450,21 +10909,19 @@
         <v>8</v>
       </c>
       <c r="R206" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S206" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="S206" s="6"/>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>8</v>
       </c>
       <c r="B207" s="1">
         <v>8</v>
       </c>
-      <c r="C207" s="3">
-        <v>1</v>
+      <c r="C207" s="2">
+        <v>0</v>
       </c>
       <c r="D207" s="2">
         <v>0</v>
@@ -10506,7 +10963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>8</v>
       </c>
@@ -10519,8 +10976,8 @@
       <c r="D208" s="2">
         <v>0</v>
       </c>
-      <c r="E208" s="2">
-        <v>0</v>
+      <c r="E208" s="3">
+        <v>1</v>
       </c>
       <c r="F208" s="2">
         <v>0</v>
@@ -10540,8 +10997,8 @@
       <c r="K208" s="2">
         <v>0</v>
       </c>
-      <c r="L208" s="2">
-        <v>0</v>
+      <c r="L208" s="3">
+        <v>1</v>
       </c>
       <c r="M208" s="2">
         <v>0</v>
@@ -10555,11 +11012,9 @@
       <c r="P208" s="1">
         <v>8</v>
       </c>
-      <c r="S208" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S208" s="7"/>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>8</v>
       </c>
@@ -10572,8 +11027,8 @@
       <c r="D209" s="2">
         <v>0</v>
       </c>
-      <c r="E209" s="2">
-        <v>0</v>
+      <c r="E209" s="3">
+        <v>1</v>
       </c>
       <c r="F209" s="2">
         <v>0</v>
@@ -10593,8 +11048,8 @@
       <c r="K209" s="2">
         <v>0</v>
       </c>
-      <c r="L209" s="2">
-        <v>0</v>
+      <c r="L209" s="3">
+        <v>1</v>
       </c>
       <c r="M209" s="2">
         <v>0</v>
@@ -10612,10 +11067,11 @@
         <v>0</v>
       </c>
       <c r="S209" s="4">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A205:P220, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>8</v>
       </c>
@@ -10628,8 +11084,8 @@
       <c r="D210" s="2">
         <v>0</v>
       </c>
-      <c r="E210" s="2">
-        <v>0</v>
+      <c r="E210" s="3">
+        <v>1</v>
       </c>
       <c r="F210" s="2">
         <v>0</v>
@@ -10649,8 +11105,8 @@
       <c r="K210" s="2">
         <v>0</v>
       </c>
-      <c r="L210" s="2">
-        <v>0</v>
+      <c r="L210" s="3">
+        <v>1</v>
       </c>
       <c r="M210" s="2">
         <v>0</v>
@@ -10668,10 +11124,11 @@
         <v>1</v>
       </c>
       <c r="S210" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A205:P220, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>0</v>
       </c>
@@ -10684,8 +11141,8 @@
       <c r="D211" s="2">
         <v>0</v>
       </c>
-      <c r="E211" s="2">
-        <v>0</v>
+      <c r="E211" s="3">
+        <v>1</v>
       </c>
       <c r="F211" s="2">
         <v>0</v>
@@ -10705,8 +11162,8 @@
       <c r="K211" s="2">
         <v>0</v>
       </c>
-      <c r="L211" s="2">
-        <v>0</v>
+      <c r="L211" s="3">
+        <v>1</v>
       </c>
       <c r="M211" s="2">
         <v>0</v>
@@ -10721,7 +11178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>0</v>
       </c>
@@ -10734,29 +11191,29 @@
       <c r="D212" s="2">
         <v>0</v>
       </c>
-      <c r="E212" s="2">
-        <v>0</v>
-      </c>
-      <c r="F212" s="2">
-        <v>0</v>
-      </c>
-      <c r="G212" s="2">
-        <v>0</v>
-      </c>
-      <c r="H212" s="2">
-        <v>0</v>
-      </c>
-      <c r="I212" s="2">
-        <v>0</v>
+      <c r="E212" s="3">
+        <v>1</v>
+      </c>
+      <c r="F212" s="3">
+        <v>1</v>
+      </c>
+      <c r="G212" s="3">
+        <v>1</v>
+      </c>
+      <c r="H212" s="3">
+        <v>1</v>
+      </c>
+      <c r="I212" s="3">
+        <v>1</v>
       </c>
       <c r="J212" s="3">
         <v>1</v>
       </c>
-      <c r="K212" s="2">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2">
-        <v>0</v>
+      <c r="K212" s="3">
+        <v>1</v>
+      </c>
+      <c r="L212" s="3">
+        <v>1</v>
       </c>
       <c r="M212" s="2">
         <v>0</v>
@@ -10771,7 +11228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>0</v>
       </c>
@@ -10784,8 +11241,8 @@
       <c r="D213" s="2">
         <v>0</v>
       </c>
-      <c r="E213" s="2">
-        <v>0</v>
+      <c r="E213" s="3">
+        <v>1</v>
       </c>
       <c r="F213" s="2">
         <v>0</v>
@@ -10805,8 +11262,8 @@
       <c r="K213" s="2">
         <v>0</v>
       </c>
-      <c r="L213" s="2">
-        <v>0</v>
+      <c r="L213" s="3">
+        <v>1</v>
       </c>
       <c r="M213" s="2">
         <v>0</v>
@@ -10821,7 +11278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>0</v>
       </c>
@@ -10834,8 +11291,8 @@
       <c r="D214" s="2">
         <v>0</v>
       </c>
-      <c r="E214" s="2">
-        <v>0</v>
+      <c r="E214" s="3">
+        <v>1</v>
       </c>
       <c r="F214" s="2">
         <v>0</v>
@@ -10855,8 +11312,8 @@
       <c r="K214" s="2">
         <v>0</v>
       </c>
-      <c r="L214" s="2">
-        <v>0</v>
+      <c r="L214" s="3">
+        <v>1</v>
       </c>
       <c r="M214" s="2">
         <v>0</v>
@@ -10871,7 +11328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>8</v>
       </c>
@@ -10884,14 +11341,14 @@
       <c r="D215" s="2">
         <v>0</v>
       </c>
-      <c r="E215" s="2">
-        <v>0</v>
+      <c r="E215" s="3">
+        <v>1</v>
       </c>
       <c r="F215" s="2">
         <v>0</v>
       </c>
-      <c r="G215" s="3">
-        <v>1</v>
+      <c r="G215" s="2">
+        <v>0</v>
       </c>
       <c r="H215" s="2">
         <v>0</v>
@@ -10905,8 +11362,8 @@
       <c r="K215" s="2">
         <v>0</v>
       </c>
-      <c r="L215" s="2">
-        <v>0</v>
+      <c r="L215" s="3">
+        <v>1</v>
       </c>
       <c r="M215" s="2">
         <v>0</v>
@@ -10921,7 +11378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>8</v>
       </c>
@@ -10934,8 +11391,8 @@
       <c r="D216" s="2">
         <v>0</v>
       </c>
-      <c r="E216" s="2">
-        <v>0</v>
+      <c r="E216" s="3">
+        <v>1</v>
       </c>
       <c r="F216" s="2">
         <v>0</v>
@@ -10955,8 +11412,8 @@
       <c r="K216" s="2">
         <v>0</v>
       </c>
-      <c r="L216" s="2">
-        <v>0</v>
+      <c r="L216" s="3">
+        <v>1</v>
       </c>
       <c r="M216" s="2">
         <v>0</v>
@@ -10971,7 +11428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>8</v>
       </c>
@@ -11021,7 +11478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>8</v>
       </c>
@@ -11071,7 +11528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>8</v>
       </c>
@@ -11121,7 +11578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>8</v>
       </c>
@@ -11171,7 +11628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>8</v>
       </c>
@@ -11221,7 +11678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>8</v>
       </c>
@@ -11271,13 +11728,11 @@
         <v>8</v>
       </c>
       <c r="R223" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S223" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="S223" s="6"/>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>8</v>
       </c>
@@ -11287,8 +11742,8 @@
       <c r="C224" s="2">
         <v>0</v>
       </c>
-      <c r="D224" s="3">
-        <v>1</v>
+      <c r="D224" s="2">
+        <v>0</v>
       </c>
       <c r="E224" s="2">
         <v>0</v>
@@ -11327,7 +11782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>8</v>
       </c>
@@ -11340,8 +11795,8 @@
       <c r="D225" s="2">
         <v>0</v>
       </c>
-      <c r="E225" s="2">
-        <v>0</v>
+      <c r="E225" s="3">
+        <v>1</v>
       </c>
       <c r="F225" s="2">
         <v>0</v>
@@ -11361,11 +11816,11 @@
       <c r="K225" s="2">
         <v>0</v>
       </c>
-      <c r="L225" s="2">
-        <v>0</v>
-      </c>
-      <c r="M225" s="3">
-        <v>1</v>
+      <c r="L225" s="3">
+        <v>1</v>
+      </c>
+      <c r="M225" s="2">
+        <v>0</v>
       </c>
       <c r="N225" s="2">
         <v>0</v>
@@ -11376,11 +11831,9 @@
       <c r="P225" s="1">
         <v>8</v>
       </c>
-      <c r="S225" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S225" s="7"/>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>8</v>
       </c>
@@ -11393,8 +11846,8 @@
       <c r="D226" s="2">
         <v>0</v>
       </c>
-      <c r="E226" s="2">
-        <v>0</v>
+      <c r="E226" s="3">
+        <v>1</v>
       </c>
       <c r="F226" s="2">
         <v>0</v>
@@ -11414,8 +11867,8 @@
       <c r="K226" s="2">
         <v>0</v>
       </c>
-      <c r="L226" s="2">
-        <v>0</v>
+      <c r="L226" s="3">
+        <v>1</v>
       </c>
       <c r="M226" s="2">
         <v>0</v>
@@ -11433,10 +11886,11 @@
         <v>0</v>
       </c>
       <c r="S226" s="4">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A222:P237, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>8</v>
       </c>
@@ -11449,8 +11903,8 @@
       <c r="D227" s="2">
         <v>0</v>
       </c>
-      <c r="E227" s="2">
-        <v>0</v>
+      <c r="E227" s="3">
+        <v>1</v>
       </c>
       <c r="F227" s="2">
         <v>0</v>
@@ -11470,8 +11924,8 @@
       <c r="K227" s="2">
         <v>0</v>
       </c>
-      <c r="L227" s="2">
-        <v>0</v>
+      <c r="L227" s="3">
+        <v>1</v>
       </c>
       <c r="M227" s="2">
         <v>0</v>
@@ -11489,10 +11943,11 @@
         <v>1</v>
       </c>
       <c r="S227" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A222:P237, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>0</v>
       </c>
@@ -11505,8 +11960,8 @@
       <c r="D228" s="2">
         <v>0</v>
       </c>
-      <c r="E228" s="2">
-        <v>0</v>
+      <c r="E228" s="3">
+        <v>1</v>
       </c>
       <c r="F228" s="2">
         <v>0</v>
@@ -11526,8 +11981,8 @@
       <c r="K228" s="2">
         <v>0</v>
       </c>
-      <c r="L228" s="2">
-        <v>0</v>
+      <c r="L228" s="3">
+        <v>1</v>
       </c>
       <c r="M228" s="2">
         <v>0</v>
@@ -11542,7 +11997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>0</v>
       </c>
@@ -11555,29 +12010,29 @@
       <c r="D229" s="2">
         <v>0</v>
       </c>
-      <c r="E229" s="2">
-        <v>0</v>
-      </c>
-      <c r="F229" s="2">
-        <v>0</v>
-      </c>
-      <c r="G229" s="2">
-        <v>0</v>
-      </c>
-      <c r="H229" s="2">
-        <v>0</v>
-      </c>
-      <c r="I229" s="2">
-        <v>0</v>
-      </c>
-      <c r="J229" s="2">
-        <v>0</v>
-      </c>
-      <c r="K229" s="2">
-        <v>0</v>
-      </c>
-      <c r="L229" s="2">
-        <v>0</v>
+      <c r="E229" s="3">
+        <v>1</v>
+      </c>
+      <c r="F229" s="3">
+        <v>1</v>
+      </c>
+      <c r="G229" s="3">
+        <v>1</v>
+      </c>
+      <c r="H229" s="3">
+        <v>1</v>
+      </c>
+      <c r="I229" s="3">
+        <v>1</v>
+      </c>
+      <c r="J229" s="3">
+        <v>1</v>
+      </c>
+      <c r="K229" s="3">
+        <v>1</v>
+      </c>
+      <c r="L229" s="3">
+        <v>1</v>
       </c>
       <c r="M229" s="2">
         <v>0</v>
@@ -11588,11 +12043,11 @@
       <c r="O229" s="2">
         <v>0</v>
       </c>
-      <c r="P229" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="P229" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>0</v>
       </c>
@@ -11605,8 +12060,8 @@
       <c r="D230" s="2">
         <v>0</v>
       </c>
-      <c r="E230" s="2">
-        <v>0</v>
+      <c r="E230" s="3">
+        <v>1</v>
       </c>
       <c r="F230" s="2">
         <v>0</v>
@@ -11623,11 +12078,11 @@
       <c r="J230" s="2">
         <v>0</v>
       </c>
-      <c r="K230" s="3">
-        <v>1</v>
-      </c>
-      <c r="L230" s="2">
-        <v>0</v>
+      <c r="K230" s="2">
+        <v>0</v>
+      </c>
+      <c r="L230" s="3">
+        <v>1</v>
       </c>
       <c r="M230" s="2">
         <v>0</v>
@@ -11642,7 +12097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>0</v>
       </c>
@@ -11655,8 +12110,8 @@
       <c r="D231" s="2">
         <v>0</v>
       </c>
-      <c r="E231" s="2">
-        <v>0</v>
+      <c r="E231" s="3">
+        <v>1</v>
       </c>
       <c r="F231" s="2">
         <v>0</v>
@@ -11676,8 +12131,8 @@
       <c r="K231" s="2">
         <v>0</v>
       </c>
-      <c r="L231" s="2">
-        <v>0</v>
+      <c r="L231" s="3">
+        <v>1</v>
       </c>
       <c r="M231" s="2">
         <v>0</v>
@@ -11692,7 +12147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>8</v>
       </c>
@@ -11705,8 +12160,8 @@
       <c r="D232" s="2">
         <v>0</v>
       </c>
-      <c r="E232" s="2">
-        <v>0</v>
+      <c r="E232" s="3">
+        <v>1</v>
       </c>
       <c r="F232" s="2">
         <v>0</v>
@@ -11726,8 +12181,8 @@
       <c r="K232" s="2">
         <v>0</v>
       </c>
-      <c r="L232" s="2">
-        <v>0</v>
+      <c r="L232" s="3">
+        <v>1</v>
       </c>
       <c r="M232" s="2">
         <v>0</v>
@@ -11742,7 +12197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>8</v>
       </c>
@@ -11755,8 +12210,8 @@
       <c r="D233" s="2">
         <v>0</v>
       </c>
-      <c r="E233" s="2">
-        <v>0</v>
+      <c r="E233" s="3">
+        <v>1</v>
       </c>
       <c r="F233" s="2">
         <v>0</v>
@@ -11770,14 +12225,14 @@
       <c r="I233" s="2">
         <v>0</v>
       </c>
-      <c r="J233" s="3">
-        <v>1</v>
+      <c r="J233" s="2">
+        <v>0</v>
       </c>
       <c r="K233" s="2">
         <v>0</v>
       </c>
-      <c r="L233" s="2">
-        <v>0</v>
+      <c r="L233" s="3">
+        <v>1</v>
       </c>
       <c r="M233" s="2">
         <v>0</v>
@@ -11792,7 +12247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>8</v>
       </c>
@@ -11842,7 +12297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>8</v>
       </c>
@@ -11882,8 +12337,8 @@
       <c r="M235" s="2">
         <v>0</v>
       </c>
-      <c r="N235" s="3">
-        <v>1</v>
+      <c r="N235" s="2">
+        <v>0</v>
       </c>
       <c r="O235" s="1">
         <v>8</v>
@@ -11892,7 +12347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>8</v>
       </c>
@@ -11908,8 +12363,8 @@
       <c r="E236" s="2">
         <v>0</v>
       </c>
-      <c r="F236" s="3">
-        <v>1</v>
+      <c r="F236" s="2">
+        <v>0</v>
       </c>
       <c r="G236" s="2">
         <v>0</v>
@@ -11942,7 +12397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>8</v>
       </c>
@@ -11992,7 +12447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>8</v>
       </c>
@@ -12042,7 +12497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>8</v>
       </c>
@@ -12092,13 +12547,11 @@
         <v>8</v>
       </c>
       <c r="R240" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S240" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="S240" s="6"/>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>8</v>
       </c>
@@ -12148,7 +12601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>8</v>
       </c>
@@ -12161,8 +12614,8 @@
       <c r="D242" s="2">
         <v>0</v>
       </c>
-      <c r="E242" s="2">
-        <v>0</v>
+      <c r="E242" s="3">
+        <v>1</v>
       </c>
       <c r="F242" s="2">
         <v>0</v>
@@ -12182,8 +12635,8 @@
       <c r="K242" s="2">
         <v>0</v>
       </c>
-      <c r="L242" s="2">
-        <v>0</v>
+      <c r="L242" s="3">
+        <v>1</v>
       </c>
       <c r="M242" s="2">
         <v>0</v>
@@ -12197,11 +12650,9 @@
       <c r="P242" s="1">
         <v>8</v>
       </c>
-      <c r="S242" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S242" s="7"/>
+    </row>
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>8</v>
       </c>
@@ -12214,8 +12665,8 @@
       <c r="D243" s="2">
         <v>0</v>
       </c>
-      <c r="E243" s="2">
-        <v>0</v>
+      <c r="E243" s="3">
+        <v>1</v>
       </c>
       <c r="F243" s="2">
         <v>0</v>
@@ -12235,8 +12686,8 @@
       <c r="K243" s="2">
         <v>0</v>
       </c>
-      <c r="L243" s="2">
-        <v>0</v>
+      <c r="L243" s="3">
+        <v>1</v>
       </c>
       <c r="M243" s="2">
         <v>0</v>
@@ -12254,10 +12705,11 @@
         <v>0</v>
       </c>
       <c r="S243" s="4">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A239:P254, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>8</v>
       </c>
@@ -12270,8 +12722,8 @@
       <c r="D244" s="2">
         <v>0</v>
       </c>
-      <c r="E244" s="2">
-        <v>0</v>
+      <c r="E244" s="3">
+        <v>1</v>
       </c>
       <c r="F244" s="2">
         <v>0</v>
@@ -12291,8 +12743,8 @@
       <c r="K244" s="2">
         <v>0</v>
       </c>
-      <c r="L244" s="2">
-        <v>0</v>
+      <c r="L244" s="3">
+        <v>1</v>
       </c>
       <c r="M244" s="2">
         <v>0</v>
@@ -12310,10 +12762,11 @@
         <v>1</v>
       </c>
       <c r="S244" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.35">
+        <f>COUNTIF(A239:P254, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>0</v>
       </c>
@@ -12326,8 +12779,8 @@
       <c r="D245" s="2">
         <v>0</v>
       </c>
-      <c r="E245" s="2">
-        <v>0</v>
+      <c r="E245" s="3">
+        <v>1</v>
       </c>
       <c r="F245" s="2">
         <v>0</v>
@@ -12347,8 +12800,8 @@
       <c r="K245" s="2">
         <v>0</v>
       </c>
-      <c r="L245" s="2">
-        <v>0</v>
+      <c r="L245" s="3">
+        <v>1</v>
       </c>
       <c r="M245" s="2">
         <v>0</v>
@@ -12363,7 +12816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>0</v>
       </c>
@@ -12376,29 +12829,29 @@
       <c r="D246" s="2">
         <v>0</v>
       </c>
-      <c r="E246" s="2">
-        <v>0</v>
-      </c>
-      <c r="F246" s="2">
-        <v>0</v>
-      </c>
-      <c r="G246" s="2">
-        <v>0</v>
-      </c>
-      <c r="H246" s="2">
-        <v>0</v>
-      </c>
-      <c r="I246" s="2">
-        <v>0</v>
-      </c>
-      <c r="J246" s="2">
-        <v>0</v>
-      </c>
-      <c r="K246" s="2">
-        <v>0</v>
-      </c>
-      <c r="L246" s="2">
-        <v>0</v>
+      <c r="E246" s="3">
+        <v>1</v>
+      </c>
+      <c r="F246" s="3">
+        <v>1</v>
+      </c>
+      <c r="G246" s="3">
+        <v>1</v>
+      </c>
+      <c r="H246" s="3">
+        <v>1</v>
+      </c>
+      <c r="I246" s="3">
+        <v>1</v>
+      </c>
+      <c r="J246" s="3">
+        <v>1</v>
+      </c>
+      <c r="K246" s="3">
+        <v>1</v>
+      </c>
+      <c r="L246" s="3">
+        <v>1</v>
       </c>
       <c r="M246" s="2">
         <v>0</v>
@@ -12413,7 +12866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>0</v>
       </c>
@@ -12426,8 +12879,8 @@
       <c r="D247" s="2">
         <v>0</v>
       </c>
-      <c r="E247" s="2">
-        <v>0</v>
+      <c r="E247" s="3">
+        <v>1</v>
       </c>
       <c r="F247" s="2">
         <v>0</v>
@@ -12447,8 +12900,8 @@
       <c r="K247" s="2">
         <v>0</v>
       </c>
-      <c r="L247" s="2">
-        <v>0</v>
+      <c r="L247" s="3">
+        <v>1</v>
       </c>
       <c r="M247" s="2">
         <v>0</v>
@@ -12463,7 +12916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>0</v>
       </c>
@@ -12476,8 +12929,8 @@
       <c r="D248" s="2">
         <v>0</v>
       </c>
-      <c r="E248" s="2">
-        <v>0</v>
+      <c r="E248" s="3">
+        <v>1</v>
       </c>
       <c r="F248" s="2">
         <v>0</v>
@@ -12497,8 +12950,8 @@
       <c r="K248" s="2">
         <v>0</v>
       </c>
-      <c r="L248" s="2">
-        <v>0</v>
+      <c r="L248" s="3">
+        <v>1</v>
       </c>
       <c r="M248" s="2">
         <v>0</v>
@@ -12513,7 +12966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>8</v>
       </c>
@@ -12526,8 +12979,8 @@
       <c r="D249" s="2">
         <v>0</v>
       </c>
-      <c r="E249" s="2">
-        <v>0</v>
+      <c r="E249" s="3">
+        <v>1</v>
       </c>
       <c r="F249" s="2">
         <v>0</v>
@@ -12547,8 +13000,8 @@
       <c r="K249" s="2">
         <v>0</v>
       </c>
-      <c r="L249" s="2">
-        <v>0</v>
+      <c r="L249" s="3">
+        <v>1</v>
       </c>
       <c r="M249" s="2">
         <v>0</v>
@@ -12563,7 +13016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>8</v>
       </c>
@@ -12576,8 +13029,8 @@
       <c r="D250" s="2">
         <v>0</v>
       </c>
-      <c r="E250" s="2">
-        <v>0</v>
+      <c r="E250" s="3">
+        <v>1</v>
       </c>
       <c r="F250" s="2">
         <v>0</v>
@@ -12597,8 +13050,8 @@
       <c r="K250" s="2">
         <v>0</v>
       </c>
-      <c r="L250" s="2">
-        <v>0</v>
+      <c r="L250" s="3">
+        <v>1</v>
       </c>
       <c r="M250" s="2">
         <v>0</v>
@@ -12613,7 +13066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>8</v>
       </c>
@@ -12663,7 +13116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>8</v>
       </c>
@@ -12713,7 +13166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>8</v>
       </c>
@@ -12723,8 +13176,8 @@
       <c r="C253" s="1">
         <v>8</v>
       </c>
-      <c r="D253" s="3">
-        <v>1</v>
+      <c r="D253" s="2">
+        <v>0</v>
       </c>
       <c r="E253" s="2">
         <v>0</v>
@@ -12763,7 +13216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>8</v>
       </c>
@@ -12814,6 +13267,426 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:P16">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="77" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="78" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="61" priority="80" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="60" priority="79" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:P33">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="72" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="73" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="cellIs" dxfId="57" priority="75" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="cellIs" dxfId="56" priority="74" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:P50">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="67" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="68" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="cellIs" dxfId="53" priority="70" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="cellIs" dxfId="52" priority="69" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:P67">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="62" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="63" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
+    <cfRule type="cellIs" dxfId="49" priority="65" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="cellIs" dxfId="48" priority="64" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:P84">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="57" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="58" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I79">
+    <cfRule type="cellIs" dxfId="45" priority="60" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="cellIs" dxfId="44" priority="59" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86:P101">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="52" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="53" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I96">
+    <cfRule type="cellIs" dxfId="41" priority="55" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90">
+    <cfRule type="cellIs" dxfId="40" priority="54" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103:P118">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="48" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I113">
+    <cfRule type="cellIs" dxfId="37" priority="50" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H107">
+    <cfRule type="cellIs" dxfId="36" priority="49" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120:P135">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I130">
+    <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H124">
+    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137:P152">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I147">
+    <cfRule type="cellIs" dxfId="29" priority="40" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H141">
+    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:P169">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="33" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I164">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H158">
+    <cfRule type="cellIs" dxfId="24" priority="34" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A171:P186">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I181">
+    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H175">
+    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188:P203">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I198">
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H192">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A205:P220">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I215">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H209">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A222:P237">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I232">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H226">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A239:P254">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I249">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H243">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Report_Template.xlsx
+++ b/Report_Template.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\public\Troy_P\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ait.lab\.spyder-py3\Wafer_Map_Creator\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D439A1AF-33F1-4B07-8A57-E222ED742EE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="3">
   <si>
     <t>0-No_Defect</t>
   </si>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,7 +135,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="72">
     <dxf>
       <font>
         <color theme="0"/>
@@ -622,6 +623,11 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1"/>
       </font>
       <fill>
@@ -639,6 +645,11 @@
           <fgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -754,6 +765,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -789,6 +817,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -964,11 +1009,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S254"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S305"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P247" sqref="P247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13266,8 +13311,2549 @@
         <v>8</v>
       </c>
     </row>
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>8</v>
+      </c>
+      <c r="B256" s="1">
+        <v>8</v>
+      </c>
+      <c r="C256" s="1">
+        <v>8</v>
+      </c>
+      <c r="D256" s="1">
+        <v>8</v>
+      </c>
+      <c r="E256" s="1">
+        <v>8</v>
+      </c>
+      <c r="F256" s="2">
+        <v>0</v>
+      </c>
+      <c r="G256" s="2">
+        <v>0</v>
+      </c>
+      <c r="H256" s="2">
+        <v>0</v>
+      </c>
+      <c r="I256" s="2">
+        <v>0</v>
+      </c>
+      <c r="J256" s="2">
+        <v>0</v>
+      </c>
+      <c r="K256" s="2">
+        <v>0</v>
+      </c>
+      <c r="L256" s="1">
+        <v>8</v>
+      </c>
+      <c r="M256" s="1">
+        <v>8</v>
+      </c>
+      <c r="N256" s="1">
+        <v>8</v>
+      </c>
+      <c r="O256" s="1">
+        <v>8</v>
+      </c>
+      <c r="P256" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>8</v>
+      </c>
+      <c r="B257" s="1">
+        <v>8</v>
+      </c>
+      <c r="C257" s="1">
+        <v>8</v>
+      </c>
+      <c r="D257" s="2">
+        <v>0</v>
+      </c>
+      <c r="E257" s="2">
+        <v>0</v>
+      </c>
+      <c r="F257" s="2">
+        <v>0</v>
+      </c>
+      <c r="G257" s="2">
+        <v>0</v>
+      </c>
+      <c r="H257" s="2">
+        <v>0</v>
+      </c>
+      <c r="I257" s="2">
+        <v>0</v>
+      </c>
+      <c r="J257" s="2">
+        <v>0</v>
+      </c>
+      <c r="K257" s="2">
+        <v>0</v>
+      </c>
+      <c r="L257" s="2">
+        <v>0</v>
+      </c>
+      <c r="M257" s="2">
+        <v>0</v>
+      </c>
+      <c r="N257" s="1">
+        <v>8</v>
+      </c>
+      <c r="O257" s="1">
+        <v>8</v>
+      </c>
+      <c r="P257" s="1">
+        <v>8</v>
+      </c>
+      <c r="R257" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S257" s="6"/>
+    </row>
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>8</v>
+      </c>
+      <c r="B258" s="1">
+        <v>8</v>
+      </c>
+      <c r="C258" s="2">
+        <v>0</v>
+      </c>
+      <c r="D258" s="2">
+        <v>0</v>
+      </c>
+      <c r="E258" s="2">
+        <v>0</v>
+      </c>
+      <c r="F258" s="2">
+        <v>0</v>
+      </c>
+      <c r="G258" s="2">
+        <v>0</v>
+      </c>
+      <c r="H258" s="2">
+        <v>0</v>
+      </c>
+      <c r="I258" s="2">
+        <v>0</v>
+      </c>
+      <c r="J258" s="2">
+        <v>0</v>
+      </c>
+      <c r="K258" s="2">
+        <v>0</v>
+      </c>
+      <c r="L258" s="2">
+        <v>0</v>
+      </c>
+      <c r="M258" s="2">
+        <v>0</v>
+      </c>
+      <c r="N258" s="2">
+        <v>0</v>
+      </c>
+      <c r="O258" s="1">
+        <v>8</v>
+      </c>
+      <c r="P258" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>8</v>
+      </c>
+      <c r="B259" s="1">
+        <v>8</v>
+      </c>
+      <c r="C259" s="2">
+        <v>0</v>
+      </c>
+      <c r="D259" s="2">
+        <v>0</v>
+      </c>
+      <c r="E259" s="3">
+        <v>1</v>
+      </c>
+      <c r="F259" s="2">
+        <v>0</v>
+      </c>
+      <c r="G259" s="2">
+        <v>0</v>
+      </c>
+      <c r="H259" s="2">
+        <v>0</v>
+      </c>
+      <c r="I259" s="2">
+        <v>0</v>
+      </c>
+      <c r="J259" s="2">
+        <v>0</v>
+      </c>
+      <c r="K259" s="2">
+        <v>0</v>
+      </c>
+      <c r="L259" s="3">
+        <v>1</v>
+      </c>
+      <c r="M259" s="2">
+        <v>0</v>
+      </c>
+      <c r="N259" s="2">
+        <v>0</v>
+      </c>
+      <c r="O259" s="1">
+        <v>8</v>
+      </c>
+      <c r="P259" s="1">
+        <v>8</v>
+      </c>
+      <c r="S259" s="7"/>
+    </row>
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>8</v>
+      </c>
+      <c r="B260" s="2">
+        <v>0</v>
+      </c>
+      <c r="C260" s="2">
+        <v>0</v>
+      </c>
+      <c r="D260" s="2">
+        <v>0</v>
+      </c>
+      <c r="E260" s="3">
+        <v>1</v>
+      </c>
+      <c r="F260" s="2">
+        <v>0</v>
+      </c>
+      <c r="G260" s="2">
+        <v>0</v>
+      </c>
+      <c r="H260" s="2">
+        <v>0</v>
+      </c>
+      <c r="I260" s="2">
+        <v>0</v>
+      </c>
+      <c r="J260" s="2">
+        <v>0</v>
+      </c>
+      <c r="K260" s="2">
+        <v>0</v>
+      </c>
+      <c r="L260" s="3">
+        <v>1</v>
+      </c>
+      <c r="M260" s="2">
+        <v>0</v>
+      </c>
+      <c r="N260" s="2">
+        <v>0</v>
+      </c>
+      <c r="O260" s="2">
+        <v>0</v>
+      </c>
+      <c r="P260" s="1">
+        <v>8</v>
+      </c>
+      <c r="R260" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S260" s="4">
+        <f>COUNTIF(A256:P271, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>8</v>
+      </c>
+      <c r="B261" s="2">
+        <v>0</v>
+      </c>
+      <c r="C261" s="2">
+        <v>0</v>
+      </c>
+      <c r="D261" s="2">
+        <v>0</v>
+      </c>
+      <c r="E261" s="3">
+        <v>1</v>
+      </c>
+      <c r="F261" s="2">
+        <v>0</v>
+      </c>
+      <c r="G261" s="2">
+        <v>0</v>
+      </c>
+      <c r="H261" s="2">
+        <v>0</v>
+      </c>
+      <c r="I261" s="2">
+        <v>0</v>
+      </c>
+      <c r="J261" s="2">
+        <v>0</v>
+      </c>
+      <c r="K261" s="2">
+        <v>0</v>
+      </c>
+      <c r="L261" s="3">
+        <v>1</v>
+      </c>
+      <c r="M261" s="2">
+        <v>0</v>
+      </c>
+      <c r="N261" s="2">
+        <v>0</v>
+      </c>
+      <c r="O261" s="2">
+        <v>0</v>
+      </c>
+      <c r="P261" s="1">
+        <v>8</v>
+      </c>
+      <c r="R261" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S261" s="5">
+        <f>COUNTIF(A256:P271, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A262" s="2">
+        <v>0</v>
+      </c>
+      <c r="B262" s="2">
+        <v>0</v>
+      </c>
+      <c r="C262" s="2">
+        <v>0</v>
+      </c>
+      <c r="D262" s="2">
+        <v>0</v>
+      </c>
+      <c r="E262" s="3">
+        <v>1</v>
+      </c>
+      <c r="F262" s="2">
+        <v>0</v>
+      </c>
+      <c r="G262" s="2">
+        <v>0</v>
+      </c>
+      <c r="H262" s="2">
+        <v>0</v>
+      </c>
+      <c r="I262" s="2">
+        <v>0</v>
+      </c>
+      <c r="J262" s="2">
+        <v>0</v>
+      </c>
+      <c r="K262" s="2">
+        <v>0</v>
+      </c>
+      <c r="L262" s="3">
+        <v>1</v>
+      </c>
+      <c r="M262" s="2">
+        <v>0</v>
+      </c>
+      <c r="N262" s="2">
+        <v>0</v>
+      </c>
+      <c r="O262" s="2">
+        <v>0</v>
+      </c>
+      <c r="P262" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A263" s="2">
+        <v>0</v>
+      </c>
+      <c r="B263" s="2">
+        <v>0</v>
+      </c>
+      <c r="C263" s="2">
+        <v>0</v>
+      </c>
+      <c r="D263" s="2">
+        <v>0</v>
+      </c>
+      <c r="E263" s="3">
+        <v>1</v>
+      </c>
+      <c r="F263" s="3">
+        <v>1</v>
+      </c>
+      <c r="G263" s="3">
+        <v>1</v>
+      </c>
+      <c r="H263" s="3">
+        <v>1</v>
+      </c>
+      <c r="I263" s="3">
+        <v>1</v>
+      </c>
+      <c r="J263" s="3">
+        <v>1</v>
+      </c>
+      <c r="K263" s="3">
+        <v>1</v>
+      </c>
+      <c r="L263" s="3">
+        <v>1</v>
+      </c>
+      <c r="M263" s="2">
+        <v>0</v>
+      </c>
+      <c r="N263" s="2">
+        <v>0</v>
+      </c>
+      <c r="O263" s="2">
+        <v>0</v>
+      </c>
+      <c r="P263" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A264" s="2">
+        <v>0</v>
+      </c>
+      <c r="B264" s="2">
+        <v>0</v>
+      </c>
+      <c r="C264" s="2">
+        <v>0</v>
+      </c>
+      <c r="D264" s="2">
+        <v>0</v>
+      </c>
+      <c r="E264" s="3">
+        <v>1</v>
+      </c>
+      <c r="F264" s="2">
+        <v>0</v>
+      </c>
+      <c r="G264" s="2">
+        <v>0</v>
+      </c>
+      <c r="H264" s="2">
+        <v>0</v>
+      </c>
+      <c r="I264" s="2">
+        <v>0</v>
+      </c>
+      <c r="J264" s="2">
+        <v>0</v>
+      </c>
+      <c r="K264" s="2">
+        <v>0</v>
+      </c>
+      <c r="L264" s="3">
+        <v>1</v>
+      </c>
+      <c r="M264" s="2">
+        <v>0</v>
+      </c>
+      <c r="N264" s="2">
+        <v>0</v>
+      </c>
+      <c r="O264" s="2">
+        <v>0</v>
+      </c>
+      <c r="P264" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A265" s="2">
+        <v>0</v>
+      </c>
+      <c r="B265" s="2">
+        <v>0</v>
+      </c>
+      <c r="C265" s="2">
+        <v>0</v>
+      </c>
+      <c r="D265" s="2">
+        <v>0</v>
+      </c>
+      <c r="E265" s="3">
+        <v>1</v>
+      </c>
+      <c r="F265" s="2">
+        <v>0</v>
+      </c>
+      <c r="G265" s="2">
+        <v>0</v>
+      </c>
+      <c r="H265" s="2">
+        <v>0</v>
+      </c>
+      <c r="I265" s="2">
+        <v>0</v>
+      </c>
+      <c r="J265" s="2">
+        <v>0</v>
+      </c>
+      <c r="K265" s="2">
+        <v>0</v>
+      </c>
+      <c r="L265" s="3">
+        <v>1</v>
+      </c>
+      <c r="M265" s="2">
+        <v>0</v>
+      </c>
+      <c r="N265" s="2">
+        <v>0</v>
+      </c>
+      <c r="O265" s="2">
+        <v>0</v>
+      </c>
+      <c r="P265" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>8</v>
+      </c>
+      <c r="B266" s="2">
+        <v>0</v>
+      </c>
+      <c r="C266" s="2">
+        <v>0</v>
+      </c>
+      <c r="D266" s="2">
+        <v>0</v>
+      </c>
+      <c r="E266" s="3">
+        <v>1</v>
+      </c>
+      <c r="F266" s="2">
+        <v>0</v>
+      </c>
+      <c r="G266" s="2">
+        <v>0</v>
+      </c>
+      <c r="H266" s="2">
+        <v>0</v>
+      </c>
+      <c r="I266" s="2">
+        <v>0</v>
+      </c>
+      <c r="J266" s="2">
+        <v>0</v>
+      </c>
+      <c r="K266" s="2">
+        <v>0</v>
+      </c>
+      <c r="L266" s="3">
+        <v>1</v>
+      </c>
+      <c r="M266" s="2">
+        <v>0</v>
+      </c>
+      <c r="N266" s="2">
+        <v>0</v>
+      </c>
+      <c r="O266" s="2">
+        <v>0</v>
+      </c>
+      <c r="P266" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>8</v>
+      </c>
+      <c r="B267" s="2">
+        <v>0</v>
+      </c>
+      <c r="C267" s="2">
+        <v>0</v>
+      </c>
+      <c r="D267" s="2">
+        <v>0</v>
+      </c>
+      <c r="E267" s="3">
+        <v>1</v>
+      </c>
+      <c r="F267" s="2">
+        <v>0</v>
+      </c>
+      <c r="G267" s="2">
+        <v>0</v>
+      </c>
+      <c r="H267" s="2">
+        <v>0</v>
+      </c>
+      <c r="I267" s="2">
+        <v>0</v>
+      </c>
+      <c r="J267" s="2">
+        <v>0</v>
+      </c>
+      <c r="K267" s="2">
+        <v>0</v>
+      </c>
+      <c r="L267" s="3">
+        <v>1</v>
+      </c>
+      <c r="M267" s="2">
+        <v>0</v>
+      </c>
+      <c r="N267" s="2">
+        <v>0</v>
+      </c>
+      <c r="O267" s="2">
+        <v>0</v>
+      </c>
+      <c r="P267" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>8</v>
+      </c>
+      <c r="B268" s="1">
+        <v>8</v>
+      </c>
+      <c r="C268" s="2">
+        <v>0</v>
+      </c>
+      <c r="D268" s="2">
+        <v>0</v>
+      </c>
+      <c r="E268" s="2">
+        <v>0</v>
+      </c>
+      <c r="F268" s="2">
+        <v>0</v>
+      </c>
+      <c r="G268" s="2">
+        <v>0</v>
+      </c>
+      <c r="H268" s="2">
+        <v>0</v>
+      </c>
+      <c r="I268" s="2">
+        <v>0</v>
+      </c>
+      <c r="J268" s="2">
+        <v>0</v>
+      </c>
+      <c r="K268" s="2">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2">
+        <v>0</v>
+      </c>
+      <c r="M268" s="2">
+        <v>0</v>
+      </c>
+      <c r="N268" s="2">
+        <v>0</v>
+      </c>
+      <c r="O268" s="1">
+        <v>8</v>
+      </c>
+      <c r="P268" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>8</v>
+      </c>
+      <c r="B269" s="1">
+        <v>8</v>
+      </c>
+      <c r="C269" s="2">
+        <v>0</v>
+      </c>
+      <c r="D269" s="2">
+        <v>0</v>
+      </c>
+      <c r="E269" s="2">
+        <v>0</v>
+      </c>
+      <c r="F269" s="2">
+        <v>0</v>
+      </c>
+      <c r="G269" s="2">
+        <v>0</v>
+      </c>
+      <c r="H269" s="2">
+        <v>0</v>
+      </c>
+      <c r="I269" s="2">
+        <v>0</v>
+      </c>
+      <c r="J269" s="2">
+        <v>0</v>
+      </c>
+      <c r="K269" s="2">
+        <v>0</v>
+      </c>
+      <c r="L269" s="2">
+        <v>0</v>
+      </c>
+      <c r="M269" s="2">
+        <v>0</v>
+      </c>
+      <c r="N269" s="2">
+        <v>0</v>
+      </c>
+      <c r="O269" s="1">
+        <v>8</v>
+      </c>
+      <c r="P269" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>8</v>
+      </c>
+      <c r="B270" s="1">
+        <v>8</v>
+      </c>
+      <c r="C270" s="1">
+        <v>8</v>
+      </c>
+      <c r="D270" s="2">
+        <v>0</v>
+      </c>
+      <c r="E270" s="2">
+        <v>0</v>
+      </c>
+      <c r="F270" s="2">
+        <v>0</v>
+      </c>
+      <c r="G270" s="2">
+        <v>0</v>
+      </c>
+      <c r="H270" s="2">
+        <v>0</v>
+      </c>
+      <c r="I270" s="2">
+        <v>0</v>
+      </c>
+      <c r="J270" s="2">
+        <v>0</v>
+      </c>
+      <c r="K270" s="2">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2">
+        <v>0</v>
+      </c>
+      <c r="M270" s="2">
+        <v>0</v>
+      </c>
+      <c r="N270" s="1">
+        <v>8</v>
+      </c>
+      <c r="O270" s="1">
+        <v>8</v>
+      </c>
+      <c r="P270" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>8</v>
+      </c>
+      <c r="B271" s="1">
+        <v>8</v>
+      </c>
+      <c r="C271" s="1">
+        <v>8</v>
+      </c>
+      <c r="D271" s="1">
+        <v>8</v>
+      </c>
+      <c r="E271" s="1">
+        <v>8</v>
+      </c>
+      <c r="F271" s="2">
+        <v>0</v>
+      </c>
+      <c r="G271" s="2">
+        <v>0</v>
+      </c>
+      <c r="H271" s="2">
+        <v>0</v>
+      </c>
+      <c r="I271" s="2">
+        <v>0</v>
+      </c>
+      <c r="J271" s="2">
+        <v>0</v>
+      </c>
+      <c r="K271" s="2">
+        <v>0</v>
+      </c>
+      <c r="L271" s="1">
+        <v>8</v>
+      </c>
+      <c r="M271" s="1">
+        <v>8</v>
+      </c>
+      <c r="N271" s="1">
+        <v>8</v>
+      </c>
+      <c r="O271" s="1">
+        <v>8</v>
+      </c>
+      <c r="P271" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>8</v>
+      </c>
+      <c r="B273" s="1">
+        <v>8</v>
+      </c>
+      <c r="C273" s="1">
+        <v>8</v>
+      </c>
+      <c r="D273" s="1">
+        <v>8</v>
+      </c>
+      <c r="E273" s="1">
+        <v>8</v>
+      </c>
+      <c r="F273" s="2">
+        <v>0</v>
+      </c>
+      <c r="G273" s="2">
+        <v>0</v>
+      </c>
+      <c r="H273" s="2">
+        <v>0</v>
+      </c>
+      <c r="I273" s="2">
+        <v>0</v>
+      </c>
+      <c r="J273" s="2">
+        <v>0</v>
+      </c>
+      <c r="K273" s="2">
+        <v>0</v>
+      </c>
+      <c r="L273" s="1">
+        <v>8</v>
+      </c>
+      <c r="M273" s="1">
+        <v>8</v>
+      </c>
+      <c r="N273" s="1">
+        <v>8</v>
+      </c>
+      <c r="O273" s="1">
+        <v>8</v>
+      </c>
+      <c r="P273" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>8</v>
+      </c>
+      <c r="B274" s="1">
+        <v>8</v>
+      </c>
+      <c r="C274" s="1">
+        <v>8</v>
+      </c>
+      <c r="D274" s="2">
+        <v>0</v>
+      </c>
+      <c r="E274" s="2">
+        <v>0</v>
+      </c>
+      <c r="F274" s="2">
+        <v>0</v>
+      </c>
+      <c r="G274" s="2">
+        <v>0</v>
+      </c>
+      <c r="H274" s="2">
+        <v>0</v>
+      </c>
+      <c r="I274" s="2">
+        <v>0</v>
+      </c>
+      <c r="J274" s="2">
+        <v>0</v>
+      </c>
+      <c r="K274" s="2">
+        <v>0</v>
+      </c>
+      <c r="L274" s="2">
+        <v>0</v>
+      </c>
+      <c r="M274" s="2">
+        <v>0</v>
+      </c>
+      <c r="N274" s="1">
+        <v>8</v>
+      </c>
+      <c r="O274" s="1">
+        <v>8</v>
+      </c>
+      <c r="P274" s="1">
+        <v>8</v>
+      </c>
+      <c r="R274" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S274" s="6"/>
+    </row>
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>8</v>
+      </c>
+      <c r="B275" s="1">
+        <v>8</v>
+      </c>
+      <c r="C275" s="2">
+        <v>0</v>
+      </c>
+      <c r="D275" s="2">
+        <v>0</v>
+      </c>
+      <c r="E275" s="2">
+        <v>0</v>
+      </c>
+      <c r="F275" s="2">
+        <v>0</v>
+      </c>
+      <c r="G275" s="2">
+        <v>0</v>
+      </c>
+      <c r="H275" s="2">
+        <v>0</v>
+      </c>
+      <c r="I275" s="2">
+        <v>0</v>
+      </c>
+      <c r="J275" s="2">
+        <v>0</v>
+      </c>
+      <c r="K275" s="2">
+        <v>0</v>
+      </c>
+      <c r="L275" s="2">
+        <v>0</v>
+      </c>
+      <c r="M275" s="2">
+        <v>0</v>
+      </c>
+      <c r="N275" s="2">
+        <v>0</v>
+      </c>
+      <c r="O275" s="1">
+        <v>8</v>
+      </c>
+      <c r="P275" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>8</v>
+      </c>
+      <c r="B276" s="1">
+        <v>8</v>
+      </c>
+      <c r="C276" s="2">
+        <v>0</v>
+      </c>
+      <c r="D276" s="2">
+        <v>0</v>
+      </c>
+      <c r="E276" s="3">
+        <v>1</v>
+      </c>
+      <c r="F276" s="2">
+        <v>0</v>
+      </c>
+      <c r="G276" s="2">
+        <v>0</v>
+      </c>
+      <c r="H276" s="2">
+        <v>0</v>
+      </c>
+      <c r="I276" s="2">
+        <v>0</v>
+      </c>
+      <c r="J276" s="2">
+        <v>0</v>
+      </c>
+      <c r="K276" s="2">
+        <v>0</v>
+      </c>
+      <c r="L276" s="3">
+        <v>1</v>
+      </c>
+      <c r="M276" s="2">
+        <v>0</v>
+      </c>
+      <c r="N276" s="2">
+        <v>0</v>
+      </c>
+      <c r="O276" s="1">
+        <v>8</v>
+      </c>
+      <c r="P276" s="1">
+        <v>8</v>
+      </c>
+      <c r="S276" s="7"/>
+    </row>
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>8</v>
+      </c>
+      <c r="B277" s="2">
+        <v>0</v>
+      </c>
+      <c r="C277" s="2">
+        <v>0</v>
+      </c>
+      <c r="D277" s="2">
+        <v>0</v>
+      </c>
+      <c r="E277" s="3">
+        <v>1</v>
+      </c>
+      <c r="F277" s="2">
+        <v>0</v>
+      </c>
+      <c r="G277" s="2">
+        <v>0</v>
+      </c>
+      <c r="H277" s="2">
+        <v>0</v>
+      </c>
+      <c r="I277" s="2">
+        <v>0</v>
+      </c>
+      <c r="J277" s="2">
+        <v>0</v>
+      </c>
+      <c r="K277" s="2">
+        <v>0</v>
+      </c>
+      <c r="L277" s="3">
+        <v>1</v>
+      </c>
+      <c r="M277" s="2">
+        <v>0</v>
+      </c>
+      <c r="N277" s="2">
+        <v>0</v>
+      </c>
+      <c r="O277" s="2">
+        <v>0</v>
+      </c>
+      <c r="P277" s="1">
+        <v>8</v>
+      </c>
+      <c r="R277" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S277" s="4">
+        <f>COUNTIF(A273:P288, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>8</v>
+      </c>
+      <c r="B278" s="2">
+        <v>0</v>
+      </c>
+      <c r="C278" s="2">
+        <v>0</v>
+      </c>
+      <c r="D278" s="2">
+        <v>0</v>
+      </c>
+      <c r="E278" s="3">
+        <v>1</v>
+      </c>
+      <c r="F278" s="2">
+        <v>0</v>
+      </c>
+      <c r="G278" s="2">
+        <v>0</v>
+      </c>
+      <c r="H278" s="2">
+        <v>0</v>
+      </c>
+      <c r="I278" s="2">
+        <v>0</v>
+      </c>
+      <c r="J278" s="2">
+        <v>0</v>
+      </c>
+      <c r="K278" s="2">
+        <v>0</v>
+      </c>
+      <c r="L278" s="3">
+        <v>1</v>
+      </c>
+      <c r="M278" s="2">
+        <v>0</v>
+      </c>
+      <c r="N278" s="2">
+        <v>0</v>
+      </c>
+      <c r="O278" s="2">
+        <v>0</v>
+      </c>
+      <c r="P278" s="1">
+        <v>8</v>
+      </c>
+      <c r="R278" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S278" s="5">
+        <f>COUNTIF(A273:P288, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A279" s="2">
+        <v>0</v>
+      </c>
+      <c r="B279" s="2">
+        <v>0</v>
+      </c>
+      <c r="C279" s="2">
+        <v>0</v>
+      </c>
+      <c r="D279" s="2">
+        <v>0</v>
+      </c>
+      <c r="E279" s="3">
+        <v>1</v>
+      </c>
+      <c r="F279" s="2">
+        <v>0</v>
+      </c>
+      <c r="G279" s="2">
+        <v>0</v>
+      </c>
+      <c r="H279" s="2">
+        <v>0</v>
+      </c>
+      <c r="I279" s="2">
+        <v>0</v>
+      </c>
+      <c r="J279" s="2">
+        <v>0</v>
+      </c>
+      <c r="K279" s="2">
+        <v>0</v>
+      </c>
+      <c r="L279" s="3">
+        <v>1</v>
+      </c>
+      <c r="M279" s="2">
+        <v>0</v>
+      </c>
+      <c r="N279" s="2">
+        <v>0</v>
+      </c>
+      <c r="O279" s="2">
+        <v>0</v>
+      </c>
+      <c r="P279" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A280" s="2">
+        <v>0</v>
+      </c>
+      <c r="B280" s="2">
+        <v>0</v>
+      </c>
+      <c r="C280" s="2">
+        <v>0</v>
+      </c>
+      <c r="D280" s="2">
+        <v>0</v>
+      </c>
+      <c r="E280" s="3">
+        <v>1</v>
+      </c>
+      <c r="F280" s="3">
+        <v>1</v>
+      </c>
+      <c r="G280" s="3">
+        <v>1</v>
+      </c>
+      <c r="H280" s="3">
+        <v>1</v>
+      </c>
+      <c r="I280" s="3">
+        <v>1</v>
+      </c>
+      <c r="J280" s="3">
+        <v>1</v>
+      </c>
+      <c r="K280" s="3">
+        <v>1</v>
+      </c>
+      <c r="L280" s="3">
+        <v>1</v>
+      </c>
+      <c r="M280" s="2">
+        <v>0</v>
+      </c>
+      <c r="N280" s="2">
+        <v>0</v>
+      </c>
+      <c r="O280" s="2">
+        <v>0</v>
+      </c>
+      <c r="P280" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A281" s="2">
+        <v>0</v>
+      </c>
+      <c r="B281" s="2">
+        <v>0</v>
+      </c>
+      <c r="C281" s="2">
+        <v>0</v>
+      </c>
+      <c r="D281" s="2">
+        <v>0</v>
+      </c>
+      <c r="E281" s="3">
+        <v>1</v>
+      </c>
+      <c r="F281" s="2">
+        <v>0</v>
+      </c>
+      <c r="G281" s="2">
+        <v>0</v>
+      </c>
+      <c r="H281" s="2">
+        <v>0</v>
+      </c>
+      <c r="I281" s="2">
+        <v>0</v>
+      </c>
+      <c r="J281" s="2">
+        <v>0</v>
+      </c>
+      <c r="K281" s="2">
+        <v>0</v>
+      </c>
+      <c r="L281" s="3">
+        <v>1</v>
+      </c>
+      <c r="M281" s="2">
+        <v>0</v>
+      </c>
+      <c r="N281" s="2">
+        <v>0</v>
+      </c>
+      <c r="O281" s="2">
+        <v>0</v>
+      </c>
+      <c r="P281" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A282" s="2">
+        <v>0</v>
+      </c>
+      <c r="B282" s="2">
+        <v>0</v>
+      </c>
+      <c r="C282" s="2">
+        <v>0</v>
+      </c>
+      <c r="D282" s="2">
+        <v>0</v>
+      </c>
+      <c r="E282" s="3">
+        <v>1</v>
+      </c>
+      <c r="F282" s="2">
+        <v>0</v>
+      </c>
+      <c r="G282" s="2">
+        <v>0</v>
+      </c>
+      <c r="H282" s="2">
+        <v>0</v>
+      </c>
+      <c r="I282" s="2">
+        <v>0</v>
+      </c>
+      <c r="J282" s="2">
+        <v>0</v>
+      </c>
+      <c r="K282" s="2">
+        <v>0</v>
+      </c>
+      <c r="L282" s="3">
+        <v>1</v>
+      </c>
+      <c r="M282" s="2">
+        <v>0</v>
+      </c>
+      <c r="N282" s="2">
+        <v>0</v>
+      </c>
+      <c r="O282" s="2">
+        <v>0</v>
+      </c>
+      <c r="P282" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>8</v>
+      </c>
+      <c r="B283" s="2">
+        <v>0</v>
+      </c>
+      <c r="C283" s="2">
+        <v>0</v>
+      </c>
+      <c r="D283" s="2">
+        <v>0</v>
+      </c>
+      <c r="E283" s="3">
+        <v>1</v>
+      </c>
+      <c r="F283" s="2">
+        <v>0</v>
+      </c>
+      <c r="G283" s="2">
+        <v>0</v>
+      </c>
+      <c r="H283" s="2">
+        <v>0</v>
+      </c>
+      <c r="I283" s="2">
+        <v>0</v>
+      </c>
+      <c r="J283" s="2">
+        <v>0</v>
+      </c>
+      <c r="K283" s="2">
+        <v>0</v>
+      </c>
+      <c r="L283" s="3">
+        <v>1</v>
+      </c>
+      <c r="M283" s="2">
+        <v>0</v>
+      </c>
+      <c r="N283" s="2">
+        <v>0</v>
+      </c>
+      <c r="O283" s="2">
+        <v>0</v>
+      </c>
+      <c r="P283" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>8</v>
+      </c>
+      <c r="B284" s="2">
+        <v>0</v>
+      </c>
+      <c r="C284" s="2">
+        <v>0</v>
+      </c>
+      <c r="D284" s="2">
+        <v>0</v>
+      </c>
+      <c r="E284" s="3">
+        <v>1</v>
+      </c>
+      <c r="F284" s="2">
+        <v>0</v>
+      </c>
+      <c r="G284" s="2">
+        <v>0</v>
+      </c>
+      <c r="H284" s="2">
+        <v>0</v>
+      </c>
+      <c r="I284" s="2">
+        <v>0</v>
+      </c>
+      <c r="J284" s="2">
+        <v>0</v>
+      </c>
+      <c r="K284" s="2">
+        <v>0</v>
+      </c>
+      <c r="L284" s="3">
+        <v>1</v>
+      </c>
+      <c r="M284" s="2">
+        <v>0</v>
+      </c>
+      <c r="N284" s="2">
+        <v>0</v>
+      </c>
+      <c r="O284" s="2">
+        <v>0</v>
+      </c>
+      <c r="P284" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>8</v>
+      </c>
+      <c r="B285" s="1">
+        <v>8</v>
+      </c>
+      <c r="C285" s="2">
+        <v>0</v>
+      </c>
+      <c r="D285" s="2">
+        <v>0</v>
+      </c>
+      <c r="E285" s="2">
+        <v>0</v>
+      </c>
+      <c r="F285" s="2">
+        <v>0</v>
+      </c>
+      <c r="G285" s="2">
+        <v>0</v>
+      </c>
+      <c r="H285" s="2">
+        <v>0</v>
+      </c>
+      <c r="I285" s="2">
+        <v>0</v>
+      </c>
+      <c r="J285" s="2">
+        <v>0</v>
+      </c>
+      <c r="K285" s="2">
+        <v>0</v>
+      </c>
+      <c r="L285" s="2">
+        <v>0</v>
+      </c>
+      <c r="M285" s="2">
+        <v>0</v>
+      </c>
+      <c r="N285" s="2">
+        <v>0</v>
+      </c>
+      <c r="O285" s="1">
+        <v>8</v>
+      </c>
+      <c r="P285" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>8</v>
+      </c>
+      <c r="B286" s="1">
+        <v>8</v>
+      </c>
+      <c r="C286" s="2">
+        <v>0</v>
+      </c>
+      <c r="D286" s="2">
+        <v>0</v>
+      </c>
+      <c r="E286" s="2">
+        <v>0</v>
+      </c>
+      <c r="F286" s="2">
+        <v>0</v>
+      </c>
+      <c r="G286" s="2">
+        <v>0</v>
+      </c>
+      <c r="H286" s="2">
+        <v>0</v>
+      </c>
+      <c r="I286" s="2">
+        <v>0</v>
+      </c>
+      <c r="J286" s="2">
+        <v>0</v>
+      </c>
+      <c r="K286" s="2">
+        <v>0</v>
+      </c>
+      <c r="L286" s="2">
+        <v>0</v>
+      </c>
+      <c r="M286" s="2">
+        <v>0</v>
+      </c>
+      <c r="N286" s="2">
+        <v>0</v>
+      </c>
+      <c r="O286" s="1">
+        <v>8</v>
+      </c>
+      <c r="P286" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>8</v>
+      </c>
+      <c r="B287" s="1">
+        <v>8</v>
+      </c>
+      <c r="C287" s="1">
+        <v>8</v>
+      </c>
+      <c r="D287" s="2">
+        <v>0</v>
+      </c>
+      <c r="E287" s="2">
+        <v>0</v>
+      </c>
+      <c r="F287" s="2">
+        <v>0</v>
+      </c>
+      <c r="G287" s="2">
+        <v>0</v>
+      </c>
+      <c r="H287" s="2">
+        <v>0</v>
+      </c>
+      <c r="I287" s="2">
+        <v>0</v>
+      </c>
+      <c r="J287" s="2">
+        <v>0</v>
+      </c>
+      <c r="K287" s="2">
+        <v>0</v>
+      </c>
+      <c r="L287" s="2">
+        <v>0</v>
+      </c>
+      <c r="M287" s="2">
+        <v>0</v>
+      </c>
+      <c r="N287" s="1">
+        <v>8</v>
+      </c>
+      <c r="O287" s="1">
+        <v>8</v>
+      </c>
+      <c r="P287" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>8</v>
+      </c>
+      <c r="B288" s="1">
+        <v>8</v>
+      </c>
+      <c r="C288" s="1">
+        <v>8</v>
+      </c>
+      <c r="D288" s="1">
+        <v>8</v>
+      </c>
+      <c r="E288" s="1">
+        <v>8</v>
+      </c>
+      <c r="F288" s="2">
+        <v>0</v>
+      </c>
+      <c r="G288" s="2">
+        <v>0</v>
+      </c>
+      <c r="H288" s="2">
+        <v>0</v>
+      </c>
+      <c r="I288" s="2">
+        <v>0</v>
+      </c>
+      <c r="J288" s="2">
+        <v>0</v>
+      </c>
+      <c r="K288" s="2">
+        <v>0</v>
+      </c>
+      <c r="L288" s="1">
+        <v>8</v>
+      </c>
+      <c r="M288" s="1">
+        <v>8</v>
+      </c>
+      <c r="N288" s="1">
+        <v>8</v>
+      </c>
+      <c r="O288" s="1">
+        <v>8</v>
+      </c>
+      <c r="P288" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>8</v>
+      </c>
+      <c r="B290" s="1">
+        <v>8</v>
+      </c>
+      <c r="C290" s="1">
+        <v>8</v>
+      </c>
+      <c r="D290" s="1">
+        <v>8</v>
+      </c>
+      <c r="E290" s="1">
+        <v>8</v>
+      </c>
+      <c r="F290" s="2">
+        <v>0</v>
+      </c>
+      <c r="G290" s="2">
+        <v>0</v>
+      </c>
+      <c r="H290" s="2">
+        <v>0</v>
+      </c>
+      <c r="I290" s="2">
+        <v>0</v>
+      </c>
+      <c r="J290" s="2">
+        <v>0</v>
+      </c>
+      <c r="K290" s="2">
+        <v>0</v>
+      </c>
+      <c r="L290" s="1">
+        <v>8</v>
+      </c>
+      <c r="M290" s="1">
+        <v>8</v>
+      </c>
+      <c r="N290" s="1">
+        <v>8</v>
+      </c>
+      <c r="O290" s="1">
+        <v>8</v>
+      </c>
+      <c r="P290" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>8</v>
+      </c>
+      <c r="B291" s="1">
+        <v>8</v>
+      </c>
+      <c r="C291" s="1">
+        <v>8</v>
+      </c>
+      <c r="D291" s="2">
+        <v>0</v>
+      </c>
+      <c r="E291" s="2">
+        <v>0</v>
+      </c>
+      <c r="F291" s="2">
+        <v>0</v>
+      </c>
+      <c r="G291" s="2">
+        <v>0</v>
+      </c>
+      <c r="H291" s="2">
+        <v>0</v>
+      </c>
+      <c r="I291" s="2">
+        <v>0</v>
+      </c>
+      <c r="J291" s="2">
+        <v>0</v>
+      </c>
+      <c r="K291" s="2">
+        <v>0</v>
+      </c>
+      <c r="L291" s="2">
+        <v>0</v>
+      </c>
+      <c r="M291" s="2">
+        <v>0</v>
+      </c>
+      <c r="N291" s="1">
+        <v>8</v>
+      </c>
+      <c r="O291" s="1">
+        <v>8</v>
+      </c>
+      <c r="P291" s="1">
+        <v>8</v>
+      </c>
+      <c r="R291" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S291" s="6"/>
+    </row>
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>8</v>
+      </c>
+      <c r="B292" s="1">
+        <v>8</v>
+      </c>
+      <c r="C292" s="2">
+        <v>0</v>
+      </c>
+      <c r="D292" s="2">
+        <v>0</v>
+      </c>
+      <c r="E292" s="2">
+        <v>0</v>
+      </c>
+      <c r="F292" s="2">
+        <v>0</v>
+      </c>
+      <c r="G292" s="2">
+        <v>0</v>
+      </c>
+      <c r="H292" s="2">
+        <v>0</v>
+      </c>
+      <c r="I292" s="2">
+        <v>0</v>
+      </c>
+      <c r="J292" s="2">
+        <v>0</v>
+      </c>
+      <c r="K292" s="2">
+        <v>0</v>
+      </c>
+      <c r="L292" s="2">
+        <v>0</v>
+      </c>
+      <c r="M292" s="2">
+        <v>0</v>
+      </c>
+      <c r="N292" s="2">
+        <v>0</v>
+      </c>
+      <c r="O292" s="1">
+        <v>8</v>
+      </c>
+      <c r="P292" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>8</v>
+      </c>
+      <c r="B293" s="1">
+        <v>8</v>
+      </c>
+      <c r="C293" s="2">
+        <v>0</v>
+      </c>
+      <c r="D293" s="2">
+        <v>0</v>
+      </c>
+      <c r="E293" s="3">
+        <v>1</v>
+      </c>
+      <c r="F293" s="2">
+        <v>0</v>
+      </c>
+      <c r="G293" s="2">
+        <v>0</v>
+      </c>
+      <c r="H293" s="2">
+        <v>0</v>
+      </c>
+      <c r="I293" s="2">
+        <v>0</v>
+      </c>
+      <c r="J293" s="2">
+        <v>0</v>
+      </c>
+      <c r="K293" s="2">
+        <v>0</v>
+      </c>
+      <c r="L293" s="3">
+        <v>1</v>
+      </c>
+      <c r="M293" s="2">
+        <v>0</v>
+      </c>
+      <c r="N293" s="2">
+        <v>0</v>
+      </c>
+      <c r="O293" s="1">
+        <v>8</v>
+      </c>
+      <c r="P293" s="1">
+        <v>8</v>
+      </c>
+      <c r="S293" s="7"/>
+    </row>
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>8</v>
+      </c>
+      <c r="B294" s="2">
+        <v>0</v>
+      </c>
+      <c r="C294" s="2">
+        <v>0</v>
+      </c>
+      <c r="D294" s="2">
+        <v>0</v>
+      </c>
+      <c r="E294" s="3">
+        <v>1</v>
+      </c>
+      <c r="F294" s="2">
+        <v>0</v>
+      </c>
+      <c r="G294" s="2">
+        <v>0</v>
+      </c>
+      <c r="H294" s="2">
+        <v>0</v>
+      </c>
+      <c r="I294" s="2">
+        <v>0</v>
+      </c>
+      <c r="J294" s="2">
+        <v>0</v>
+      </c>
+      <c r="K294" s="2">
+        <v>0</v>
+      </c>
+      <c r="L294" s="3">
+        <v>1</v>
+      </c>
+      <c r="M294" s="2">
+        <v>0</v>
+      </c>
+      <c r="N294" s="2">
+        <v>0</v>
+      </c>
+      <c r="O294" s="2">
+        <v>0</v>
+      </c>
+      <c r="P294" s="1">
+        <v>8</v>
+      </c>
+      <c r="R294" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S294" s="4">
+        <f>COUNTIF(A290:P305, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>8</v>
+      </c>
+      <c r="B295" s="2">
+        <v>0</v>
+      </c>
+      <c r="C295" s="2">
+        <v>0</v>
+      </c>
+      <c r="D295" s="2">
+        <v>0</v>
+      </c>
+      <c r="E295" s="3">
+        <v>1</v>
+      </c>
+      <c r="F295" s="2">
+        <v>0</v>
+      </c>
+      <c r="G295" s="2">
+        <v>0</v>
+      </c>
+      <c r="H295" s="2">
+        <v>0</v>
+      </c>
+      <c r="I295" s="2">
+        <v>0</v>
+      </c>
+      <c r="J295" s="2">
+        <v>0</v>
+      </c>
+      <c r="K295" s="2">
+        <v>0</v>
+      </c>
+      <c r="L295" s="3">
+        <v>1</v>
+      </c>
+      <c r="M295" s="2">
+        <v>0</v>
+      </c>
+      <c r="N295" s="2">
+        <v>0</v>
+      </c>
+      <c r="O295" s="2">
+        <v>0</v>
+      </c>
+      <c r="P295" s="1">
+        <v>8</v>
+      </c>
+      <c r="R295" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S295" s="5">
+        <f>COUNTIF(A290:P305, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A296" s="2">
+        <v>0</v>
+      </c>
+      <c r="B296" s="2">
+        <v>0</v>
+      </c>
+      <c r="C296" s="2">
+        <v>0</v>
+      </c>
+      <c r="D296" s="2">
+        <v>0</v>
+      </c>
+      <c r="E296" s="3">
+        <v>1</v>
+      </c>
+      <c r="F296" s="2">
+        <v>0</v>
+      </c>
+      <c r="G296" s="2">
+        <v>0</v>
+      </c>
+      <c r="H296" s="2">
+        <v>0</v>
+      </c>
+      <c r="I296" s="2">
+        <v>0</v>
+      </c>
+      <c r="J296" s="2">
+        <v>0</v>
+      </c>
+      <c r="K296" s="2">
+        <v>0</v>
+      </c>
+      <c r="L296" s="3">
+        <v>1</v>
+      </c>
+      <c r="M296" s="2">
+        <v>0</v>
+      </c>
+      <c r="N296" s="2">
+        <v>0</v>
+      </c>
+      <c r="O296" s="2">
+        <v>0</v>
+      </c>
+      <c r="P296" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A297" s="2">
+        <v>0</v>
+      </c>
+      <c r="B297" s="2">
+        <v>0</v>
+      </c>
+      <c r="C297" s="2">
+        <v>0</v>
+      </c>
+      <c r="D297" s="2">
+        <v>0</v>
+      </c>
+      <c r="E297" s="3">
+        <v>1</v>
+      </c>
+      <c r="F297" s="3">
+        <v>1</v>
+      </c>
+      <c r="G297" s="3">
+        <v>1</v>
+      </c>
+      <c r="H297" s="3">
+        <v>1</v>
+      </c>
+      <c r="I297" s="3">
+        <v>1</v>
+      </c>
+      <c r="J297" s="3">
+        <v>1</v>
+      </c>
+      <c r="K297" s="3">
+        <v>1</v>
+      </c>
+      <c r="L297" s="3">
+        <v>1</v>
+      </c>
+      <c r="M297" s="2">
+        <v>0</v>
+      </c>
+      <c r="N297" s="2">
+        <v>0</v>
+      </c>
+      <c r="O297" s="2">
+        <v>0</v>
+      </c>
+      <c r="P297" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A298" s="2">
+        <v>0</v>
+      </c>
+      <c r="B298" s="2">
+        <v>0</v>
+      </c>
+      <c r="C298" s="2">
+        <v>0</v>
+      </c>
+      <c r="D298" s="2">
+        <v>0</v>
+      </c>
+      <c r="E298" s="3">
+        <v>1</v>
+      </c>
+      <c r="F298" s="2">
+        <v>0</v>
+      </c>
+      <c r="G298" s="2">
+        <v>0</v>
+      </c>
+      <c r="H298" s="2">
+        <v>0</v>
+      </c>
+      <c r="I298" s="2">
+        <v>0</v>
+      </c>
+      <c r="J298" s="2">
+        <v>0</v>
+      </c>
+      <c r="K298" s="2">
+        <v>0</v>
+      </c>
+      <c r="L298" s="3">
+        <v>1</v>
+      </c>
+      <c r="M298" s="2">
+        <v>0</v>
+      </c>
+      <c r="N298" s="2">
+        <v>0</v>
+      </c>
+      <c r="O298" s="2">
+        <v>0</v>
+      </c>
+      <c r="P298" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A299" s="2">
+        <v>0</v>
+      </c>
+      <c r="B299" s="2">
+        <v>0</v>
+      </c>
+      <c r="C299" s="2">
+        <v>0</v>
+      </c>
+      <c r="D299" s="2">
+        <v>0</v>
+      </c>
+      <c r="E299" s="3">
+        <v>1</v>
+      </c>
+      <c r="F299" s="2">
+        <v>0</v>
+      </c>
+      <c r="G299" s="2">
+        <v>0</v>
+      </c>
+      <c r="H299" s="2">
+        <v>0</v>
+      </c>
+      <c r="I299" s="2">
+        <v>0</v>
+      </c>
+      <c r="J299" s="2">
+        <v>0</v>
+      </c>
+      <c r="K299" s="2">
+        <v>0</v>
+      </c>
+      <c r="L299" s="3">
+        <v>1</v>
+      </c>
+      <c r="M299" s="2">
+        <v>0</v>
+      </c>
+      <c r="N299" s="2">
+        <v>0</v>
+      </c>
+      <c r="O299" s="2">
+        <v>0</v>
+      </c>
+      <c r="P299" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>8</v>
+      </c>
+      <c r="B300" s="2">
+        <v>0</v>
+      </c>
+      <c r="C300" s="2">
+        <v>0</v>
+      </c>
+      <c r="D300" s="2">
+        <v>0</v>
+      </c>
+      <c r="E300" s="3">
+        <v>1</v>
+      </c>
+      <c r="F300" s="2">
+        <v>0</v>
+      </c>
+      <c r="G300" s="2">
+        <v>0</v>
+      </c>
+      <c r="H300" s="2">
+        <v>0</v>
+      </c>
+      <c r="I300" s="2">
+        <v>0</v>
+      </c>
+      <c r="J300" s="2">
+        <v>0</v>
+      </c>
+      <c r="K300" s="2">
+        <v>0</v>
+      </c>
+      <c r="L300" s="3">
+        <v>1</v>
+      </c>
+      <c r="M300" s="2">
+        <v>0</v>
+      </c>
+      <c r="N300" s="2">
+        <v>0</v>
+      </c>
+      <c r="O300" s="2">
+        <v>0</v>
+      </c>
+      <c r="P300" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>8</v>
+      </c>
+      <c r="B301" s="2">
+        <v>0</v>
+      </c>
+      <c r="C301" s="2">
+        <v>0</v>
+      </c>
+      <c r="D301" s="2">
+        <v>0</v>
+      </c>
+      <c r="E301" s="3">
+        <v>1</v>
+      </c>
+      <c r="F301" s="2">
+        <v>0</v>
+      </c>
+      <c r="G301" s="2">
+        <v>0</v>
+      </c>
+      <c r="H301" s="2">
+        <v>0</v>
+      </c>
+      <c r="I301" s="2">
+        <v>0</v>
+      </c>
+      <c r="J301" s="2">
+        <v>0</v>
+      </c>
+      <c r="K301" s="2">
+        <v>0</v>
+      </c>
+      <c r="L301" s="3">
+        <v>1</v>
+      </c>
+      <c r="M301" s="2">
+        <v>0</v>
+      </c>
+      <c r="N301" s="2">
+        <v>0</v>
+      </c>
+      <c r="O301" s="2">
+        <v>0</v>
+      </c>
+      <c r="P301" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>8</v>
+      </c>
+      <c r="B302" s="1">
+        <v>8</v>
+      </c>
+      <c r="C302" s="2">
+        <v>0</v>
+      </c>
+      <c r="D302" s="2">
+        <v>0</v>
+      </c>
+      <c r="E302" s="2">
+        <v>0</v>
+      </c>
+      <c r="F302" s="2">
+        <v>0</v>
+      </c>
+      <c r="G302" s="2">
+        <v>0</v>
+      </c>
+      <c r="H302" s="2">
+        <v>0</v>
+      </c>
+      <c r="I302" s="2">
+        <v>0</v>
+      </c>
+      <c r="J302" s="2">
+        <v>0</v>
+      </c>
+      <c r="K302" s="2">
+        <v>0</v>
+      </c>
+      <c r="L302" s="2">
+        <v>0</v>
+      </c>
+      <c r="M302" s="2">
+        <v>0</v>
+      </c>
+      <c r="N302" s="2">
+        <v>0</v>
+      </c>
+      <c r="O302" s="1">
+        <v>8</v>
+      </c>
+      <c r="P302" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>8</v>
+      </c>
+      <c r="B303" s="1">
+        <v>8</v>
+      </c>
+      <c r="C303" s="2">
+        <v>0</v>
+      </c>
+      <c r="D303" s="2">
+        <v>0</v>
+      </c>
+      <c r="E303" s="2">
+        <v>0</v>
+      </c>
+      <c r="F303" s="2">
+        <v>0</v>
+      </c>
+      <c r="G303" s="2">
+        <v>0</v>
+      </c>
+      <c r="H303" s="2">
+        <v>0</v>
+      </c>
+      <c r="I303" s="2">
+        <v>0</v>
+      </c>
+      <c r="J303" s="2">
+        <v>0</v>
+      </c>
+      <c r="K303" s="2">
+        <v>0</v>
+      </c>
+      <c r="L303" s="2">
+        <v>0</v>
+      </c>
+      <c r="M303" s="2">
+        <v>0</v>
+      </c>
+      <c r="N303" s="2">
+        <v>0</v>
+      </c>
+      <c r="O303" s="1">
+        <v>8</v>
+      </c>
+      <c r="P303" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>8</v>
+      </c>
+      <c r="B304" s="1">
+        <v>8</v>
+      </c>
+      <c r="C304" s="1">
+        <v>8</v>
+      </c>
+      <c r="D304" s="2">
+        <v>0</v>
+      </c>
+      <c r="E304" s="2">
+        <v>0</v>
+      </c>
+      <c r="F304" s="2">
+        <v>0</v>
+      </c>
+      <c r="G304" s="2">
+        <v>0</v>
+      </c>
+      <c r="H304" s="2">
+        <v>0</v>
+      </c>
+      <c r="I304" s="2">
+        <v>0</v>
+      </c>
+      <c r="J304" s="2">
+        <v>0</v>
+      </c>
+      <c r="K304" s="2">
+        <v>0</v>
+      </c>
+      <c r="L304" s="2">
+        <v>0</v>
+      </c>
+      <c r="M304" s="2">
+        <v>0</v>
+      </c>
+      <c r="N304" s="1">
+        <v>8</v>
+      </c>
+      <c r="O304" s="1">
+        <v>8</v>
+      </c>
+      <c r="P304" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>8</v>
+      </c>
+      <c r="B305" s="1">
+        <v>8</v>
+      </c>
+      <c r="C305" s="1">
+        <v>8</v>
+      </c>
+      <c r="D305" s="1">
+        <v>8</v>
+      </c>
+      <c r="E305" s="1">
+        <v>8</v>
+      </c>
+      <c r="F305" s="2">
+        <v>0</v>
+      </c>
+      <c r="G305" s="2">
+        <v>0</v>
+      </c>
+      <c r="H305" s="2">
+        <v>0</v>
+      </c>
+      <c r="I305" s="2">
+        <v>0</v>
+      </c>
+      <c r="J305" s="2">
+        <v>0</v>
+      </c>
+      <c r="K305" s="2">
+        <v>0</v>
+      </c>
+      <c r="L305" s="1">
+        <v>8</v>
+      </c>
+      <c r="M305" s="1">
+        <v>8</v>
+      </c>
+      <c r="N305" s="1">
+        <v>8</v>
+      </c>
+      <c r="O305" s="1">
+        <v>8</v>
+      </c>
+      <c r="P305" s="1">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:P16">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="92" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="93" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="69" priority="95" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="68" priority="94" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:P33">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="87" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="88" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="cellIs" dxfId="65" priority="90" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="cellIs" dxfId="64" priority="89" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:P50">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="82" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="83" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="cellIs" dxfId="61" priority="85" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="cellIs" dxfId="60" priority="84" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:P67">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -13278,24 +15864,24 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="78" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="61" priority="80" operator="equal">
+  <conditionalFormatting sqref="I62">
+    <cfRule type="cellIs" dxfId="57" priority="80" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="60" priority="79" operator="equal">
+  <conditionalFormatting sqref="H56">
+    <cfRule type="cellIs" dxfId="56" priority="79" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:P33">
+  <conditionalFormatting sqref="A69:P84">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -13306,24 +15892,24 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="72" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" dxfId="57" priority="75" operator="equal">
+  <conditionalFormatting sqref="I79">
+    <cfRule type="cellIs" dxfId="53" priority="75" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="56" priority="74" operator="equal">
+  <conditionalFormatting sqref="H73">
+    <cfRule type="cellIs" dxfId="52" priority="74" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:P50">
+  <conditionalFormatting sqref="A86:P101">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -13334,24 +15920,24 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="67" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="68" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="cellIs" dxfId="53" priority="70" operator="equal">
+  <conditionalFormatting sqref="I96">
+    <cfRule type="cellIs" dxfId="49" priority="70" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="52" priority="69" operator="equal">
+  <conditionalFormatting sqref="H90">
+    <cfRule type="cellIs" dxfId="48" priority="69" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:P67">
+  <conditionalFormatting sqref="A103:P118">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -13362,24 +15948,24 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="63" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
-    <cfRule type="cellIs" dxfId="49" priority="65" operator="equal">
+  <conditionalFormatting sqref="I113">
+    <cfRule type="cellIs" dxfId="45" priority="65" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="48" priority="64" operator="equal">
+  <conditionalFormatting sqref="H107">
+    <cfRule type="cellIs" dxfId="44" priority="64" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:P84">
+  <conditionalFormatting sqref="A120:P135">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -13390,24 +15976,24 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="45" priority="60" operator="equal">
+  <conditionalFormatting sqref="I130">
+    <cfRule type="cellIs" dxfId="41" priority="60" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="44" priority="59" operator="equal">
+  <conditionalFormatting sqref="H124">
+    <cfRule type="cellIs" dxfId="40" priority="59" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A86:P101">
+  <conditionalFormatting sqref="A137:P152">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -13418,24 +16004,24 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I96">
-    <cfRule type="cellIs" dxfId="41" priority="55" operator="equal">
+  <conditionalFormatting sqref="I147">
+    <cfRule type="cellIs" dxfId="37" priority="55" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="40" priority="54" operator="equal">
+  <conditionalFormatting sqref="H141">
+    <cfRule type="cellIs" dxfId="36" priority="54" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103:P118">
+  <conditionalFormatting sqref="A154:P169">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -13446,24 +16032,24 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I113">
-    <cfRule type="cellIs" dxfId="37" priority="50" operator="equal">
+  <conditionalFormatting sqref="I164">
+    <cfRule type="cellIs" dxfId="33" priority="50" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H107">
-    <cfRule type="cellIs" dxfId="36" priority="49" operator="equal">
+  <conditionalFormatting sqref="H158">
+    <cfRule type="cellIs" dxfId="32" priority="49" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A120:P135">
+  <conditionalFormatting sqref="A171:P186">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -13474,24 +16060,24 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
+  <conditionalFormatting sqref="I181">
+    <cfRule type="cellIs" dxfId="29" priority="45" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H124">
-    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
+  <conditionalFormatting sqref="H175">
+    <cfRule type="cellIs" dxfId="28" priority="44" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A137:P152">
+  <conditionalFormatting sqref="A188:P203">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -13502,24 +16088,24 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I147">
-    <cfRule type="cellIs" dxfId="29" priority="40" operator="equal">
+  <conditionalFormatting sqref="I198">
+    <cfRule type="cellIs" dxfId="25" priority="40" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H141">
-    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
+  <conditionalFormatting sqref="H192">
+    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A154:P169">
+  <conditionalFormatting sqref="A205:P220">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -13530,52 +16116,24 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I164">
-    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
+  <conditionalFormatting sqref="I215">
+    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H158">
-    <cfRule type="cellIs" dxfId="24" priority="34" operator="equal">
+  <conditionalFormatting sqref="H209">
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A171:P186">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="8"/>
-        <color rgb="FF00FF00"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I181">
-    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H175">
-    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188:P203">
+  <conditionalFormatting sqref="A222:P237">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -13593,17 +16151,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I198">
+  <conditionalFormatting sqref="I232">
     <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H192">
+  <conditionalFormatting sqref="H226">
     <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A205:P220">
+  <conditionalFormatting sqref="A239:P254">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -13621,17 +16179,45 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I215">
+  <conditionalFormatting sqref="I249">
     <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H209">
+  <conditionalFormatting sqref="H243">
     <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A222:P237">
+  <conditionalFormatting sqref="A256:P271">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I266">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H260">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A273:P288">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -13649,17 +16235,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I232">
+  <conditionalFormatting sqref="I283">
     <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H226">
+  <conditionalFormatting sqref="H277">
     <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A239:P254">
+  <conditionalFormatting sqref="A290:P305">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -13677,12 +16263,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I249">
+  <conditionalFormatting sqref="I300">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H243">
+  <conditionalFormatting sqref="H294">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>8</formula>
     </cfRule>

--- a/Report_Template.xlsx
+++ b/Report_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ait.lab\.spyder-py3\Wafer_Map_Creator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D439A1AF-33F1-4B07-8A57-E222ED742EE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A18BDF-4EB8-466A-B5DD-A4F4FDBE0286}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="3">
   <si>
     <t>0-No_Defect</t>
   </si>
@@ -135,7 +135,157 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="92">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1010,23 +1160,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S305"/>
+  <dimension ref="A1:S390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P247" sqref="P247"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="11" width="2.7109375" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" customWidth="1"/>
-    <col min="13" max="17" width="2.7109375" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" customWidth="1"/>
+    <col min="1" max="11" width="2.7265625" customWidth="1"/>
+    <col min="12" max="12" width="2.81640625" customWidth="1"/>
+    <col min="13" max="17" width="2.7265625" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" customWidth="1"/>
+    <col min="19" max="19" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>8</v>
       </c>
@@ -1076,7 +1224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>8</v>
       </c>
@@ -1130,7 +1278,7 @@
       </c>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>8</v>
       </c>
@@ -1180,7 +1328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>8</v>
       </c>
@@ -1231,7 +1379,7 @@
       </c>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -1288,7 +1436,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -1345,7 +1493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -1395,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -1445,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -1495,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -1545,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1595,7 +1743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1645,7 +1793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -1695,7 +1843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -1745,7 +1893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -1795,7 +1943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -1845,7 +1993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>8</v>
       </c>
@@ -1895,7 +2043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>8</v>
       </c>
@@ -1949,7 +2097,7 @@
       </c>
       <c r="S19" s="6"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>8</v>
       </c>
@@ -1999,7 +2147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>8</v>
       </c>
@@ -2050,7 +2198,7 @@
       </c>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -2107,7 +2255,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>8</v>
       </c>
@@ -2164,7 +2312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -2214,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -2264,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -2314,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -2364,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>8</v>
       </c>
@@ -2414,7 +2562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -2464,7 +2612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -2514,7 +2662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>8</v>
       </c>
@@ -2564,7 +2712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -2614,7 +2762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>8</v>
       </c>
@@ -2664,7 +2812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -2714,7 +2862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>8</v>
       </c>
@@ -2768,7 +2916,7 @@
       </c>
       <c r="S36" s="6"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>8</v>
       </c>
@@ -2818,7 +2966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>8</v>
       </c>
@@ -2869,7 +3017,7 @@
       </c>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>8</v>
       </c>
@@ -2926,7 +3074,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>8</v>
       </c>
@@ -2983,7 +3131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>0</v>
       </c>
@@ -3033,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>0</v>
       </c>
@@ -3083,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>0</v>
       </c>
@@ -3133,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>0</v>
       </c>
@@ -3183,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>8</v>
       </c>
@@ -3233,7 +3381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>8</v>
       </c>
@@ -3283,7 +3431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>8</v>
       </c>
@@ -3333,7 +3481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>8</v>
       </c>
@@ -3383,7 +3531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>8</v>
       </c>
@@ -3433,7 +3581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>8</v>
       </c>
@@ -3483,7 +3631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>8</v>
       </c>
@@ -3533,7 +3681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>8</v>
       </c>
@@ -3587,7 +3735,7 @@
       </c>
       <c r="S53" s="6"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>8</v>
       </c>
@@ -3637,7 +3785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>8</v>
       </c>
@@ -3688,7 +3836,7 @@
       </c>
       <c r="S55" s="7"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>8</v>
       </c>
@@ -3745,7 +3893,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>8</v>
       </c>
@@ -3802,7 +3950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>0</v>
       </c>
@@ -3852,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>0</v>
       </c>
@@ -3902,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>0</v>
       </c>
@@ -3952,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>0</v>
       </c>
@@ -4002,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>8</v>
       </c>
@@ -4052,7 +4200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>8</v>
       </c>
@@ -4102,7 +4250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>8</v>
       </c>
@@ -4152,7 +4300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>8</v>
       </c>
@@ -4202,7 +4350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>8</v>
       </c>
@@ -4252,7 +4400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>8</v>
       </c>
@@ -4302,7 +4450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>8</v>
       </c>
@@ -4352,7 +4500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>8</v>
       </c>
@@ -4406,7 +4554,7 @@
       </c>
       <c r="S70" s="6"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>8</v>
       </c>
@@ -4456,7 +4604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>8</v>
       </c>
@@ -4507,7 +4655,7 @@
       </c>
       <c r="S72" s="7"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>8</v>
       </c>
@@ -4564,7 +4712,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>8</v>
       </c>
@@ -4621,7 +4769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>0</v>
       </c>
@@ -4671,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>0</v>
       </c>
@@ -4721,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>0</v>
       </c>
@@ -4771,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>0</v>
       </c>
@@ -4821,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>8</v>
       </c>
@@ -4871,7 +5019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>8</v>
       </c>
@@ -4921,7 +5069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>8</v>
       </c>
@@ -4971,7 +5119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>8</v>
       </c>
@@ -5021,7 +5169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>8</v>
       </c>
@@ -5071,7 +5219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>8</v>
       </c>
@@ -5121,7 +5269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>8</v>
       </c>
@@ -5171,7 +5319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>8</v>
       </c>
@@ -5225,7 +5373,7 @@
       </c>
       <c r="S87" s="6"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>8</v>
       </c>
@@ -5275,7 +5423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>8</v>
       </c>
@@ -5326,7 +5474,7 @@
       </c>
       <c r="S89" s="7"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>8</v>
       </c>
@@ -5383,7 +5531,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>8</v>
       </c>
@@ -5440,7 +5588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>0</v>
       </c>
@@ -5490,7 +5638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>0</v>
       </c>
@@ -5540,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>0</v>
       </c>
@@ -5590,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>0</v>
       </c>
@@ -5640,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>8</v>
       </c>
@@ -5690,7 +5838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>8</v>
       </c>
@@ -5740,7 +5888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>8</v>
       </c>
@@ -5790,7 +5938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>8</v>
       </c>
@@ -5840,7 +5988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>8</v>
       </c>
@@ -5890,7 +6038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>8</v>
       </c>
@@ -5940,7 +6088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>8</v>
       </c>
@@ -5990,7 +6138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>8</v>
       </c>
@@ -6044,7 +6192,7 @@
       </c>
       <c r="S104" s="6"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>8</v>
       </c>
@@ -6094,7 +6242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>8</v>
       </c>
@@ -6145,7 +6293,7 @@
       </c>
       <c r="S106" s="7"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>8</v>
       </c>
@@ -6202,7 +6350,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>8</v>
       </c>
@@ -6259,7 +6407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>0</v>
       </c>
@@ -6309,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>0</v>
       </c>
@@ -6359,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>0</v>
       </c>
@@ -6409,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>0</v>
       </c>
@@ -6459,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>8</v>
       </c>
@@ -6509,7 +6657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>8</v>
       </c>
@@ -6559,7 +6707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>8</v>
       </c>
@@ -6609,7 +6757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>8</v>
       </c>
@@ -6659,7 +6807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>8</v>
       </c>
@@ -6709,7 +6857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>8</v>
       </c>
@@ -6759,7 +6907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>8</v>
       </c>
@@ -6809,7 +6957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>8</v>
       </c>
@@ -6863,7 +7011,7 @@
       </c>
       <c r="S121" s="6"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>8</v>
       </c>
@@ -6913,7 +7061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>8</v>
       </c>
@@ -6964,7 +7112,7 @@
       </c>
       <c r="S123" s="7"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>8</v>
       </c>
@@ -7021,7 +7169,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>8</v>
       </c>
@@ -7078,7 +7226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>0</v>
       </c>
@@ -7128,7 +7276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>0</v>
       </c>
@@ -7178,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>0</v>
       </c>
@@ -7228,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>0</v>
       </c>
@@ -7278,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>8</v>
       </c>
@@ -7328,7 +7476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>8</v>
       </c>
@@ -7378,7 +7526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>8</v>
       </c>
@@ -7428,7 +7576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>8</v>
       </c>
@@ -7478,7 +7626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>8</v>
       </c>
@@ -7528,7 +7676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>8</v>
       </c>
@@ -7578,7 +7726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>8</v>
       </c>
@@ -7628,7 +7776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>8</v>
       </c>
@@ -7682,7 +7830,7 @@
       </c>
       <c r="S138" s="6"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>8</v>
       </c>
@@ -7732,7 +7880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>8</v>
       </c>
@@ -7783,7 +7931,7 @@
       </c>
       <c r="S140" s="7"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>8</v>
       </c>
@@ -7840,7 +7988,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>8</v>
       </c>
@@ -7897,7 +8045,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>0</v>
       </c>
@@ -7947,7 +8095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>0</v>
       </c>
@@ -7997,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>0</v>
       </c>
@@ -8047,7 +8195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>0</v>
       </c>
@@ -8097,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>8</v>
       </c>
@@ -8147,7 +8295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>8</v>
       </c>
@@ -8197,7 +8345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>8</v>
       </c>
@@ -8247,7 +8395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>8</v>
       </c>
@@ -8297,7 +8445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>8</v>
       </c>
@@ -8347,7 +8495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>8</v>
       </c>
@@ -8397,7 +8545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>8</v>
       </c>
@@ -8447,7 +8595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>8</v>
       </c>
@@ -8501,7 +8649,7 @@
       </c>
       <c r="S155" s="6"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>8</v>
       </c>
@@ -8551,7 +8699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>8</v>
       </c>
@@ -8602,7 +8750,7 @@
       </c>
       <c r="S157" s="7"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>8</v>
       </c>
@@ -8659,7 +8807,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>8</v>
       </c>
@@ -8716,7 +8864,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>0</v>
       </c>
@@ -8766,7 +8914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>0</v>
       </c>
@@ -8816,7 +8964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>0</v>
       </c>
@@ -8866,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>0</v>
       </c>
@@ -8916,7 +9064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>8</v>
       </c>
@@ -8966,7 +9114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>8</v>
       </c>
@@ -9016,7 +9164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>8</v>
       </c>
@@ -9066,7 +9214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>8</v>
       </c>
@@ -9116,7 +9264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>8</v>
       </c>
@@ -9166,7 +9314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>8</v>
       </c>
@@ -9216,7 +9364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>8</v>
       </c>
@@ -9266,7 +9414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>8</v>
       </c>
@@ -9320,7 +9468,7 @@
       </c>
       <c r="S172" s="6"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>8</v>
       </c>
@@ -9370,7 +9518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>8</v>
       </c>
@@ -9421,7 +9569,7 @@
       </c>
       <c r="S174" s="7"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>8</v>
       </c>
@@ -9478,7 +9626,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>8</v>
       </c>
@@ -9535,7 +9683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>0</v>
       </c>
@@ -9585,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>0</v>
       </c>
@@ -9635,7 +9783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>0</v>
       </c>
@@ -9685,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>0</v>
       </c>
@@ -9735,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>8</v>
       </c>
@@ -9785,7 +9933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>8</v>
       </c>
@@ -9835,7 +9983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>8</v>
       </c>
@@ -9885,7 +10033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>8</v>
       </c>
@@ -9935,7 +10083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>8</v>
       </c>
@@ -9985,7 +10133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>8</v>
       </c>
@@ -10035,7 +10183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>8</v>
       </c>
@@ -10085,7 +10233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>8</v>
       </c>
@@ -10139,7 +10287,7 @@
       </c>
       <c r="S189" s="6"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>8</v>
       </c>
@@ -10189,7 +10337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>8</v>
       </c>
@@ -10240,7 +10388,7 @@
       </c>
       <c r="S191" s="7"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>8</v>
       </c>
@@ -10297,7 +10445,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>8</v>
       </c>
@@ -10354,7 +10502,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>0</v>
       </c>
@@ -10404,7 +10552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>0</v>
       </c>
@@ -10454,7 +10602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>0</v>
       </c>
@@ -10504,7 +10652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>0</v>
       </c>
@@ -10554,7 +10702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>8</v>
       </c>
@@ -10604,7 +10752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>8</v>
       </c>
@@ -10654,7 +10802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>8</v>
       </c>
@@ -10704,7 +10852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>8</v>
       </c>
@@ -10754,7 +10902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>8</v>
       </c>
@@ -10804,7 +10952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>8</v>
       </c>
@@ -10854,7 +11002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>8</v>
       </c>
@@ -10904,7 +11052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>8</v>
       </c>
@@ -10958,7 +11106,7 @@
       </c>
       <c r="S206" s="6"/>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>8</v>
       </c>
@@ -11008,7 +11156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>8</v>
       </c>
@@ -11059,7 +11207,7 @@
       </c>
       <c r="S208" s="7"/>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>8</v>
       </c>
@@ -11116,7 +11264,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>8</v>
       </c>
@@ -11173,7 +11321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>0</v>
       </c>
@@ -11223,7 +11371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>0</v>
       </c>
@@ -11273,7 +11421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>0</v>
       </c>
@@ -11323,7 +11471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>0</v>
       </c>
@@ -11373,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>8</v>
       </c>
@@ -11423,7 +11571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>8</v>
       </c>
@@ -11473,7 +11621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>8</v>
       </c>
@@ -11523,7 +11671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>8</v>
       </c>
@@ -11573,7 +11721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>8</v>
       </c>
@@ -11623,7 +11771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>8</v>
       </c>
@@ -11673,7 +11821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>8</v>
       </c>
@@ -11723,7 +11871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>8</v>
       </c>
@@ -11777,7 +11925,7 @@
       </c>
       <c r="S223" s="6"/>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>8</v>
       </c>
@@ -11827,7 +11975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>8</v>
       </c>
@@ -11878,7 +12026,7 @@
       </c>
       <c r="S225" s="7"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>8</v>
       </c>
@@ -11935,7 +12083,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>8</v>
       </c>
@@ -11992,7 +12140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>0</v>
       </c>
@@ -12042,7 +12190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>0</v>
       </c>
@@ -12092,7 +12240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>0</v>
       </c>
@@ -12142,7 +12290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>0</v>
       </c>
@@ -12192,7 +12340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>8</v>
       </c>
@@ -12242,7 +12390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>8</v>
       </c>
@@ -12292,7 +12440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>8</v>
       </c>
@@ -12342,7 +12490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>8</v>
       </c>
@@ -12392,7 +12540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>8</v>
       </c>
@@ -12442,7 +12590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>8</v>
       </c>
@@ -12492,7 +12640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>8</v>
       </c>
@@ -12542,7 +12690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>8</v>
       </c>
@@ -12596,7 +12744,7 @@
       </c>
       <c r="S240" s="6"/>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>8</v>
       </c>
@@ -12646,7 +12794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>8</v>
       </c>
@@ -12697,7 +12845,7 @@
       </c>
       <c r="S242" s="7"/>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>8</v>
       </c>
@@ -12754,7 +12902,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>8</v>
       </c>
@@ -12811,7 +12959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>0</v>
       </c>
@@ -12861,7 +13009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>0</v>
       </c>
@@ -12911,7 +13059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>0</v>
       </c>
@@ -12961,7 +13109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>0</v>
       </c>
@@ -13011,7 +13159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>8</v>
       </c>
@@ -13061,7 +13209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>8</v>
       </c>
@@ -13111,7 +13259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>8</v>
       </c>
@@ -13161,7 +13309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>8</v>
       </c>
@@ -13211,7 +13359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>8</v>
       </c>
@@ -13261,7 +13409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>8</v>
       </c>
@@ -13311,7 +13459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>8</v>
       </c>
@@ -13361,7 +13509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>8</v>
       </c>
@@ -13415,7 +13563,7 @@
       </c>
       <c r="S257" s="6"/>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>8</v>
       </c>
@@ -13465,7 +13613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>8</v>
       </c>
@@ -13516,7 +13664,7 @@
       </c>
       <c r="S259" s="7"/>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>8</v>
       </c>
@@ -13573,7 +13721,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>8</v>
       </c>
@@ -13630,7 +13778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>0</v>
       </c>
@@ -13680,7 +13828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>0</v>
       </c>
@@ -13730,7 +13878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>0</v>
       </c>
@@ -13780,7 +13928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>0</v>
       </c>
@@ -13830,7 +13978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>8</v>
       </c>
@@ -13880,7 +14028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>8</v>
       </c>
@@ -13930,7 +14078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>8</v>
       </c>
@@ -13980,7 +14128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>8</v>
       </c>
@@ -14030,7 +14178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>8</v>
       </c>
@@ -14080,7 +14228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>8</v>
       </c>
@@ -14130,7 +14278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>8</v>
       </c>
@@ -14180,7 +14328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>8</v>
       </c>
@@ -14234,7 +14382,7 @@
       </c>
       <c r="S274" s="6"/>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>8</v>
       </c>
@@ -14284,7 +14432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>8</v>
       </c>
@@ -14335,7 +14483,7 @@
       </c>
       <c r="S276" s="7"/>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>8</v>
       </c>
@@ -14392,7 +14540,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>8</v>
       </c>
@@ -14449,7 +14597,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>0</v>
       </c>
@@ -14499,7 +14647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>0</v>
       </c>
@@ -14549,7 +14697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>0</v>
       </c>
@@ -14599,7 +14747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>0</v>
       </c>
@@ -14649,7 +14797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>8</v>
       </c>
@@ -14699,7 +14847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>8</v>
       </c>
@@ -14749,7 +14897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>8</v>
       </c>
@@ -14799,7 +14947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>8</v>
       </c>
@@ -14849,7 +14997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>8</v>
       </c>
@@ -14899,7 +15047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>8</v>
       </c>
@@ -14949,7 +15097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>8</v>
       </c>
@@ -14999,7 +15147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>8</v>
       </c>
@@ -15053,7 +15201,7 @@
       </c>
       <c r="S291" s="6"/>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>8</v>
       </c>
@@ -15103,7 +15251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>8</v>
       </c>
@@ -15154,7 +15302,7 @@
       </c>
       <c r="S293" s="7"/>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>8</v>
       </c>
@@ -15211,7 +15359,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>8</v>
       </c>
@@ -15268,7 +15416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>0</v>
       </c>
@@ -15318,7 +15466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>0</v>
       </c>
@@ -15368,7 +15516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>0</v>
       </c>
@@ -15418,7 +15566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>0</v>
       </c>
@@ -15468,7 +15616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>8</v>
       </c>
@@ -15518,7 +15666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>8</v>
       </c>
@@ -15568,7 +15716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>8</v>
       </c>
@@ -15618,7 +15766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>8</v>
       </c>
@@ -15668,7 +15816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>8</v>
       </c>
@@ -15718,7 +15866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>8</v>
       </c>
@@ -15765,11 +15913,4246 @@
         <v>8</v>
       </c>
       <c r="P305" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A307" s="1">
+        <v>8</v>
+      </c>
+      <c r="B307" s="1">
+        <v>8</v>
+      </c>
+      <c r="C307" s="1">
+        <v>8</v>
+      </c>
+      <c r="D307" s="1">
+        <v>8</v>
+      </c>
+      <c r="E307" s="1">
+        <v>8</v>
+      </c>
+      <c r="F307" s="2">
+        <v>0</v>
+      </c>
+      <c r="G307" s="2">
+        <v>0</v>
+      </c>
+      <c r="H307" s="2">
+        <v>0</v>
+      </c>
+      <c r="I307" s="2">
+        <v>0</v>
+      </c>
+      <c r="J307" s="2">
+        <v>0</v>
+      </c>
+      <c r="K307" s="2">
+        <v>0</v>
+      </c>
+      <c r="L307" s="1">
+        <v>8</v>
+      </c>
+      <c r="M307" s="1">
+        <v>8</v>
+      </c>
+      <c r="N307" s="1">
+        <v>8</v>
+      </c>
+      <c r="O307" s="1">
+        <v>8</v>
+      </c>
+      <c r="P307" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A308" s="1">
+        <v>8</v>
+      </c>
+      <c r="B308" s="1">
+        <v>8</v>
+      </c>
+      <c r="C308" s="1">
+        <v>8</v>
+      </c>
+      <c r="D308" s="2">
+        <v>0</v>
+      </c>
+      <c r="E308" s="2">
+        <v>0</v>
+      </c>
+      <c r="F308" s="2">
+        <v>0</v>
+      </c>
+      <c r="G308" s="2">
+        <v>0</v>
+      </c>
+      <c r="H308" s="2">
+        <v>0</v>
+      </c>
+      <c r="I308" s="2">
+        <v>0</v>
+      </c>
+      <c r="J308" s="2">
+        <v>0</v>
+      </c>
+      <c r="K308" s="2">
+        <v>0</v>
+      </c>
+      <c r="L308" s="2">
+        <v>0</v>
+      </c>
+      <c r="M308" s="2">
+        <v>0</v>
+      </c>
+      <c r="N308" s="1">
+        <v>8</v>
+      </c>
+      <c r="O308" s="1">
+        <v>8</v>
+      </c>
+      <c r="P308" s="1">
+        <v>8</v>
+      </c>
+      <c r="R308" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S308" s="6"/>
+    </row>
+    <row r="309" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A309" s="1">
+        <v>8</v>
+      </c>
+      <c r="B309" s="1">
+        <v>8</v>
+      </c>
+      <c r="C309" s="2">
+        <v>0</v>
+      </c>
+      <c r="D309" s="2">
+        <v>0</v>
+      </c>
+      <c r="E309" s="2">
+        <v>0</v>
+      </c>
+      <c r="F309" s="2">
+        <v>0</v>
+      </c>
+      <c r="G309" s="2">
+        <v>0</v>
+      </c>
+      <c r="H309" s="2">
+        <v>0</v>
+      </c>
+      <c r="I309" s="2">
+        <v>0</v>
+      </c>
+      <c r="J309" s="2">
+        <v>0</v>
+      </c>
+      <c r="K309" s="2">
+        <v>0</v>
+      </c>
+      <c r="L309" s="2">
+        <v>0</v>
+      </c>
+      <c r="M309" s="2">
+        <v>0</v>
+      </c>
+      <c r="N309" s="2">
+        <v>0</v>
+      </c>
+      <c r="O309" s="1">
+        <v>8</v>
+      </c>
+      <c r="P309" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
+        <v>8</v>
+      </c>
+      <c r="B310" s="1">
+        <v>8</v>
+      </c>
+      <c r="C310" s="2">
+        <v>0</v>
+      </c>
+      <c r="D310" s="2">
+        <v>0</v>
+      </c>
+      <c r="E310" s="3">
+        <v>1</v>
+      </c>
+      <c r="F310" s="2">
+        <v>0</v>
+      </c>
+      <c r="G310" s="2">
+        <v>0</v>
+      </c>
+      <c r="H310" s="2">
+        <v>0</v>
+      </c>
+      <c r="I310" s="2">
+        <v>0</v>
+      </c>
+      <c r="J310" s="2">
+        <v>0</v>
+      </c>
+      <c r="K310" s="2">
+        <v>0</v>
+      </c>
+      <c r="L310" s="3">
+        <v>1</v>
+      </c>
+      <c r="M310" s="2">
+        <v>0</v>
+      </c>
+      <c r="N310" s="2">
+        <v>0</v>
+      </c>
+      <c r="O310" s="1">
+        <v>8</v>
+      </c>
+      <c r="P310" s="1">
+        <v>8</v>
+      </c>
+      <c r="S310" s="7"/>
+    </row>
+    <row r="311" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A311" s="1">
+        <v>8</v>
+      </c>
+      <c r="B311" s="2">
+        <v>0</v>
+      </c>
+      <c r="C311" s="2">
+        <v>0</v>
+      </c>
+      <c r="D311" s="2">
+        <v>0</v>
+      </c>
+      <c r="E311" s="3">
+        <v>1</v>
+      </c>
+      <c r="F311" s="2">
+        <v>0</v>
+      </c>
+      <c r="G311" s="2">
+        <v>0</v>
+      </c>
+      <c r="H311" s="2">
+        <v>0</v>
+      </c>
+      <c r="I311" s="2">
+        <v>0</v>
+      </c>
+      <c r="J311" s="2">
+        <v>0</v>
+      </c>
+      <c r="K311" s="2">
+        <v>0</v>
+      </c>
+      <c r="L311" s="3">
+        <v>1</v>
+      </c>
+      <c r="M311" s="2">
+        <v>0</v>
+      </c>
+      <c r="N311" s="2">
+        <v>0</v>
+      </c>
+      <c r="O311" s="2">
+        <v>0</v>
+      </c>
+      <c r="P311" s="1">
+        <v>8</v>
+      </c>
+      <c r="R311" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S311" s="4">
+        <f>COUNTIF(A307:P322, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="312" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A312" s="1">
+        <v>8</v>
+      </c>
+      <c r="B312" s="2">
+        <v>0</v>
+      </c>
+      <c r="C312" s="2">
+        <v>0</v>
+      </c>
+      <c r="D312" s="2">
+        <v>0</v>
+      </c>
+      <c r="E312" s="3">
+        <v>1</v>
+      </c>
+      <c r="F312" s="2">
+        <v>0</v>
+      </c>
+      <c r="G312" s="2">
+        <v>0</v>
+      </c>
+      <c r="H312" s="2">
+        <v>0</v>
+      </c>
+      <c r="I312" s="2">
+        <v>0</v>
+      </c>
+      <c r="J312" s="2">
+        <v>0</v>
+      </c>
+      <c r="K312" s="2">
+        <v>0</v>
+      </c>
+      <c r="L312" s="3">
+        <v>1</v>
+      </c>
+      <c r="M312" s="2">
+        <v>0</v>
+      </c>
+      <c r="N312" s="2">
+        <v>0</v>
+      </c>
+      <c r="O312" s="2">
+        <v>0</v>
+      </c>
+      <c r="P312" s="1">
+        <v>8</v>
+      </c>
+      <c r="R312" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S312" s="5">
+        <f>COUNTIF(A307:P322, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="313" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A313" s="2">
+        <v>0</v>
+      </c>
+      <c r="B313" s="2">
+        <v>0</v>
+      </c>
+      <c r="C313" s="2">
+        <v>0</v>
+      </c>
+      <c r="D313" s="2">
+        <v>0</v>
+      </c>
+      <c r="E313" s="3">
+        <v>1</v>
+      </c>
+      <c r="F313" s="2">
+        <v>0</v>
+      </c>
+      <c r="G313" s="2">
+        <v>0</v>
+      </c>
+      <c r="H313" s="2">
+        <v>0</v>
+      </c>
+      <c r="I313" s="2">
+        <v>0</v>
+      </c>
+      <c r="J313" s="2">
+        <v>0</v>
+      </c>
+      <c r="K313" s="2">
+        <v>0</v>
+      </c>
+      <c r="L313" s="3">
+        <v>1</v>
+      </c>
+      <c r="M313" s="2">
+        <v>0</v>
+      </c>
+      <c r="N313" s="2">
+        <v>0</v>
+      </c>
+      <c r="O313" s="2">
+        <v>0</v>
+      </c>
+      <c r="P313" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A314" s="2">
+        <v>0</v>
+      </c>
+      <c r="B314" s="2">
+        <v>0</v>
+      </c>
+      <c r="C314" s="2">
+        <v>0</v>
+      </c>
+      <c r="D314" s="2">
+        <v>0</v>
+      </c>
+      <c r="E314" s="3">
+        <v>1</v>
+      </c>
+      <c r="F314" s="3">
+        <v>1</v>
+      </c>
+      <c r="G314" s="3">
+        <v>1</v>
+      </c>
+      <c r="H314" s="3">
+        <v>1</v>
+      </c>
+      <c r="I314" s="3">
+        <v>1</v>
+      </c>
+      <c r="J314" s="3">
+        <v>1</v>
+      </c>
+      <c r="K314" s="3">
+        <v>1</v>
+      </c>
+      <c r="L314" s="3">
+        <v>1</v>
+      </c>
+      <c r="M314" s="2">
+        <v>0</v>
+      </c>
+      <c r="N314" s="2">
+        <v>0</v>
+      </c>
+      <c r="O314" s="2">
+        <v>0</v>
+      </c>
+      <c r="P314" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A315" s="2">
+        <v>0</v>
+      </c>
+      <c r="B315" s="2">
+        <v>0</v>
+      </c>
+      <c r="C315" s="2">
+        <v>0</v>
+      </c>
+      <c r="D315" s="2">
+        <v>0</v>
+      </c>
+      <c r="E315" s="3">
+        <v>1</v>
+      </c>
+      <c r="F315" s="2">
+        <v>0</v>
+      </c>
+      <c r="G315" s="2">
+        <v>0</v>
+      </c>
+      <c r="H315" s="2">
+        <v>0</v>
+      </c>
+      <c r="I315" s="2">
+        <v>0</v>
+      </c>
+      <c r="J315" s="2">
+        <v>0</v>
+      </c>
+      <c r="K315" s="2">
+        <v>0</v>
+      </c>
+      <c r="L315" s="3">
+        <v>1</v>
+      </c>
+      <c r="M315" s="2">
+        <v>0</v>
+      </c>
+      <c r="N315" s="2">
+        <v>0</v>
+      </c>
+      <c r="O315" s="2">
+        <v>0</v>
+      </c>
+      <c r="P315" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A316" s="2">
+        <v>0</v>
+      </c>
+      <c r="B316" s="2">
+        <v>0</v>
+      </c>
+      <c r="C316" s="2">
+        <v>0</v>
+      </c>
+      <c r="D316" s="2">
+        <v>0</v>
+      </c>
+      <c r="E316" s="3">
+        <v>1</v>
+      </c>
+      <c r="F316" s="2">
+        <v>0</v>
+      </c>
+      <c r="G316" s="2">
+        <v>0</v>
+      </c>
+      <c r="H316" s="2">
+        <v>0</v>
+      </c>
+      <c r="I316" s="2">
+        <v>0</v>
+      </c>
+      <c r="J316" s="2">
+        <v>0</v>
+      </c>
+      <c r="K316" s="2">
+        <v>0</v>
+      </c>
+      <c r="L316" s="3">
+        <v>1</v>
+      </c>
+      <c r="M316" s="2">
+        <v>0</v>
+      </c>
+      <c r="N316" s="2">
+        <v>0</v>
+      </c>
+      <c r="O316" s="2">
+        <v>0</v>
+      </c>
+      <c r="P316" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A317" s="1">
+        <v>8</v>
+      </c>
+      <c r="B317" s="2">
+        <v>0</v>
+      </c>
+      <c r="C317" s="2">
+        <v>0</v>
+      </c>
+      <c r="D317" s="2">
+        <v>0</v>
+      </c>
+      <c r="E317" s="3">
+        <v>1</v>
+      </c>
+      <c r="F317" s="2">
+        <v>0</v>
+      </c>
+      <c r="G317" s="2">
+        <v>0</v>
+      </c>
+      <c r="H317" s="2">
+        <v>0</v>
+      </c>
+      <c r="I317" s="2">
+        <v>0</v>
+      </c>
+      <c r="J317" s="2">
+        <v>0</v>
+      </c>
+      <c r="K317" s="2">
+        <v>0</v>
+      </c>
+      <c r="L317" s="3">
+        <v>1</v>
+      </c>
+      <c r="M317" s="2">
+        <v>0</v>
+      </c>
+      <c r="N317" s="2">
+        <v>0</v>
+      </c>
+      <c r="O317" s="2">
+        <v>0</v>
+      </c>
+      <c r="P317" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A318" s="1">
+        <v>8</v>
+      </c>
+      <c r="B318" s="2">
+        <v>0</v>
+      </c>
+      <c r="C318" s="2">
+        <v>0</v>
+      </c>
+      <c r="D318" s="2">
+        <v>0</v>
+      </c>
+      <c r="E318" s="3">
+        <v>1</v>
+      </c>
+      <c r="F318" s="2">
+        <v>0</v>
+      </c>
+      <c r="G318" s="2">
+        <v>0</v>
+      </c>
+      <c r="H318" s="2">
+        <v>0</v>
+      </c>
+      <c r="I318" s="2">
+        <v>0</v>
+      </c>
+      <c r="J318" s="2">
+        <v>0</v>
+      </c>
+      <c r="K318" s="2">
+        <v>0</v>
+      </c>
+      <c r="L318" s="3">
+        <v>1</v>
+      </c>
+      <c r="M318" s="2">
+        <v>0</v>
+      </c>
+      <c r="N318" s="2">
+        <v>0</v>
+      </c>
+      <c r="O318" s="2">
+        <v>0</v>
+      </c>
+      <c r="P318" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A319" s="1">
+        <v>8</v>
+      </c>
+      <c r="B319" s="1">
+        <v>8</v>
+      </c>
+      <c r="C319" s="2">
+        <v>0</v>
+      </c>
+      <c r="D319" s="2">
+        <v>0</v>
+      </c>
+      <c r="E319" s="2">
+        <v>0</v>
+      </c>
+      <c r="F319" s="2">
+        <v>0</v>
+      </c>
+      <c r="G319" s="2">
+        <v>0</v>
+      </c>
+      <c r="H319" s="2">
+        <v>0</v>
+      </c>
+      <c r="I319" s="2">
+        <v>0</v>
+      </c>
+      <c r="J319" s="2">
+        <v>0</v>
+      </c>
+      <c r="K319" s="2">
+        <v>0</v>
+      </c>
+      <c r="L319" s="2">
+        <v>0</v>
+      </c>
+      <c r="M319" s="2">
+        <v>0</v>
+      </c>
+      <c r="N319" s="2">
+        <v>0</v>
+      </c>
+      <c r="O319" s="1">
+        <v>8</v>
+      </c>
+      <c r="P319" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
+        <v>8</v>
+      </c>
+      <c r="B320" s="1">
+        <v>8</v>
+      </c>
+      <c r="C320" s="2">
+        <v>0</v>
+      </c>
+      <c r="D320" s="2">
+        <v>0</v>
+      </c>
+      <c r="E320" s="2">
+        <v>0</v>
+      </c>
+      <c r="F320" s="2">
+        <v>0</v>
+      </c>
+      <c r="G320" s="2">
+        <v>0</v>
+      </c>
+      <c r="H320" s="2">
+        <v>0</v>
+      </c>
+      <c r="I320" s="2">
+        <v>0</v>
+      </c>
+      <c r="J320" s="2">
+        <v>0</v>
+      </c>
+      <c r="K320" s="2">
+        <v>0</v>
+      </c>
+      <c r="L320" s="2">
+        <v>0</v>
+      </c>
+      <c r="M320" s="2">
+        <v>0</v>
+      </c>
+      <c r="N320" s="2">
+        <v>0</v>
+      </c>
+      <c r="O320" s="1">
+        <v>8</v>
+      </c>
+      <c r="P320" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A321" s="1">
+        <v>8</v>
+      </c>
+      <c r="B321" s="1">
+        <v>8</v>
+      </c>
+      <c r="C321" s="1">
+        <v>8</v>
+      </c>
+      <c r="D321" s="2">
+        <v>0</v>
+      </c>
+      <c r="E321" s="2">
+        <v>0</v>
+      </c>
+      <c r="F321" s="2">
+        <v>0</v>
+      </c>
+      <c r="G321" s="2">
+        <v>0</v>
+      </c>
+      <c r="H321" s="2">
+        <v>0</v>
+      </c>
+      <c r="I321" s="2">
+        <v>0</v>
+      </c>
+      <c r="J321" s="2">
+        <v>0</v>
+      </c>
+      <c r="K321" s="2">
+        <v>0</v>
+      </c>
+      <c r="L321" s="2">
+        <v>0</v>
+      </c>
+      <c r="M321" s="2">
+        <v>0</v>
+      </c>
+      <c r="N321" s="1">
+        <v>8</v>
+      </c>
+      <c r="O321" s="1">
+        <v>8</v>
+      </c>
+      <c r="P321" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A322" s="1">
+        <v>8</v>
+      </c>
+      <c r="B322" s="1">
+        <v>8</v>
+      </c>
+      <c r="C322" s="1">
+        <v>8</v>
+      </c>
+      <c r="D322" s="1">
+        <v>8</v>
+      </c>
+      <c r="E322" s="1">
+        <v>8</v>
+      </c>
+      <c r="F322" s="2">
+        <v>0</v>
+      </c>
+      <c r="G322" s="2">
+        <v>0</v>
+      </c>
+      <c r="H322" s="2">
+        <v>0</v>
+      </c>
+      <c r="I322" s="2">
+        <v>0</v>
+      </c>
+      <c r="J322" s="2">
+        <v>0</v>
+      </c>
+      <c r="K322" s="2">
+        <v>0</v>
+      </c>
+      <c r="L322" s="1">
+        <v>8</v>
+      </c>
+      <c r="M322" s="1">
+        <v>8</v>
+      </c>
+      <c r="N322" s="1">
+        <v>8</v>
+      </c>
+      <c r="O322" s="1">
+        <v>8</v>
+      </c>
+      <c r="P322" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A324" s="1">
+        <v>8</v>
+      </c>
+      <c r="B324" s="1">
+        <v>8</v>
+      </c>
+      <c r="C324" s="1">
+        <v>8</v>
+      </c>
+      <c r="D324" s="1">
+        <v>8</v>
+      </c>
+      <c r="E324" s="1">
+        <v>8</v>
+      </c>
+      <c r="F324" s="2">
+        <v>0</v>
+      </c>
+      <c r="G324" s="2">
+        <v>0</v>
+      </c>
+      <c r="H324" s="2">
+        <v>0</v>
+      </c>
+      <c r="I324" s="2">
+        <v>0</v>
+      </c>
+      <c r="J324" s="2">
+        <v>0</v>
+      </c>
+      <c r="K324" s="2">
+        <v>0</v>
+      </c>
+      <c r="L324" s="1">
+        <v>8</v>
+      </c>
+      <c r="M324" s="1">
+        <v>8</v>
+      </c>
+      <c r="N324" s="1">
+        <v>8</v>
+      </c>
+      <c r="O324" s="1">
+        <v>8</v>
+      </c>
+      <c r="P324" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A325" s="1">
+        <v>8</v>
+      </c>
+      <c r="B325" s="1">
+        <v>8</v>
+      </c>
+      <c r="C325" s="1">
+        <v>8</v>
+      </c>
+      <c r="D325" s="2">
+        <v>0</v>
+      </c>
+      <c r="E325" s="2">
+        <v>0</v>
+      </c>
+      <c r="F325" s="2">
+        <v>0</v>
+      </c>
+      <c r="G325" s="2">
+        <v>0</v>
+      </c>
+      <c r="H325" s="2">
+        <v>0</v>
+      </c>
+      <c r="I325" s="2">
+        <v>0</v>
+      </c>
+      <c r="J325" s="2">
+        <v>0</v>
+      </c>
+      <c r="K325" s="2">
+        <v>0</v>
+      </c>
+      <c r="L325" s="2">
+        <v>0</v>
+      </c>
+      <c r="M325" s="2">
+        <v>0</v>
+      </c>
+      <c r="N325" s="1">
+        <v>8</v>
+      </c>
+      <c r="O325" s="1">
+        <v>8</v>
+      </c>
+      <c r="P325" s="1">
+        <v>8</v>
+      </c>
+      <c r="R325" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S325" s="6"/>
+    </row>
+    <row r="326" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A326" s="1">
+        <v>8</v>
+      </c>
+      <c r="B326" s="1">
+        <v>8</v>
+      </c>
+      <c r="C326" s="2">
+        <v>0</v>
+      </c>
+      <c r="D326" s="2">
+        <v>0</v>
+      </c>
+      <c r="E326" s="2">
+        <v>0</v>
+      </c>
+      <c r="F326" s="2">
+        <v>0</v>
+      </c>
+      <c r="G326" s="2">
+        <v>0</v>
+      </c>
+      <c r="H326" s="2">
+        <v>0</v>
+      </c>
+      <c r="I326" s="2">
+        <v>0</v>
+      </c>
+      <c r="J326" s="2">
+        <v>0</v>
+      </c>
+      <c r="K326" s="2">
+        <v>0</v>
+      </c>
+      <c r="L326" s="2">
+        <v>0</v>
+      </c>
+      <c r="M326" s="2">
+        <v>0</v>
+      </c>
+      <c r="N326" s="2">
+        <v>0</v>
+      </c>
+      <c r="O326" s="1">
+        <v>8</v>
+      </c>
+      <c r="P326" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A327" s="1">
+        <v>8</v>
+      </c>
+      <c r="B327" s="1">
+        <v>8</v>
+      </c>
+      <c r="C327" s="2">
+        <v>0</v>
+      </c>
+      <c r="D327" s="2">
+        <v>0</v>
+      </c>
+      <c r="E327" s="3">
+        <v>1</v>
+      </c>
+      <c r="F327" s="2">
+        <v>0</v>
+      </c>
+      <c r="G327" s="2">
+        <v>0</v>
+      </c>
+      <c r="H327" s="2">
+        <v>0</v>
+      </c>
+      <c r="I327" s="2">
+        <v>0</v>
+      </c>
+      <c r="J327" s="2">
+        <v>0</v>
+      </c>
+      <c r="K327" s="2">
+        <v>0</v>
+      </c>
+      <c r="L327" s="3">
+        <v>1</v>
+      </c>
+      <c r="M327" s="2">
+        <v>0</v>
+      </c>
+      <c r="N327" s="2">
+        <v>0</v>
+      </c>
+      <c r="O327" s="1">
+        <v>8</v>
+      </c>
+      <c r="P327" s="1">
+        <v>8</v>
+      </c>
+      <c r="S327" s="7"/>
+    </row>
+    <row r="328" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A328" s="1">
+        <v>8</v>
+      </c>
+      <c r="B328" s="2">
+        <v>0</v>
+      </c>
+      <c r="C328" s="2">
+        <v>0</v>
+      </c>
+      <c r="D328" s="2">
+        <v>0</v>
+      </c>
+      <c r="E328" s="3">
+        <v>1</v>
+      </c>
+      <c r="F328" s="2">
+        <v>0</v>
+      </c>
+      <c r="G328" s="2">
+        <v>0</v>
+      </c>
+      <c r="H328" s="2">
+        <v>0</v>
+      </c>
+      <c r="I328" s="2">
+        <v>0</v>
+      </c>
+      <c r="J328" s="2">
+        <v>0</v>
+      </c>
+      <c r="K328" s="2">
+        <v>0</v>
+      </c>
+      <c r="L328" s="3">
+        <v>1</v>
+      </c>
+      <c r="M328" s="2">
+        <v>0</v>
+      </c>
+      <c r="N328" s="2">
+        <v>0</v>
+      </c>
+      <c r="O328" s="2">
+        <v>0</v>
+      </c>
+      <c r="P328" s="1">
+        <v>8</v>
+      </c>
+      <c r="R328" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S328" s="4">
+        <f>COUNTIF(A324:P339, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A329" s="1">
+        <v>8</v>
+      </c>
+      <c r="B329" s="2">
+        <v>0</v>
+      </c>
+      <c r="C329" s="2">
+        <v>0</v>
+      </c>
+      <c r="D329" s="2">
+        <v>0</v>
+      </c>
+      <c r="E329" s="3">
+        <v>1</v>
+      </c>
+      <c r="F329" s="2">
+        <v>0</v>
+      </c>
+      <c r="G329" s="2">
+        <v>0</v>
+      </c>
+      <c r="H329" s="2">
+        <v>0</v>
+      </c>
+      <c r="I329" s="2">
+        <v>0</v>
+      </c>
+      <c r="J329" s="2">
+        <v>0</v>
+      </c>
+      <c r="K329" s="2">
+        <v>0</v>
+      </c>
+      <c r="L329" s="3">
+        <v>1</v>
+      </c>
+      <c r="M329" s="2">
+        <v>0</v>
+      </c>
+      <c r="N329" s="2">
+        <v>0</v>
+      </c>
+      <c r="O329" s="2">
+        <v>0</v>
+      </c>
+      <c r="P329" s="1">
+        <v>8</v>
+      </c>
+      <c r="R329" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S329" s="5">
+        <f>COUNTIF(A324:P339, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A330" s="2">
+        <v>0</v>
+      </c>
+      <c r="B330" s="2">
+        <v>0</v>
+      </c>
+      <c r="C330" s="2">
+        <v>0</v>
+      </c>
+      <c r="D330" s="2">
+        <v>0</v>
+      </c>
+      <c r="E330" s="3">
+        <v>1</v>
+      </c>
+      <c r="F330" s="2">
+        <v>0</v>
+      </c>
+      <c r="G330" s="2">
+        <v>0</v>
+      </c>
+      <c r="H330" s="2">
+        <v>0</v>
+      </c>
+      <c r="I330" s="2">
+        <v>0</v>
+      </c>
+      <c r="J330" s="2">
+        <v>0</v>
+      </c>
+      <c r="K330" s="2">
+        <v>0</v>
+      </c>
+      <c r="L330" s="3">
+        <v>1</v>
+      </c>
+      <c r="M330" s="2">
+        <v>0</v>
+      </c>
+      <c r="N330" s="2">
+        <v>0</v>
+      </c>
+      <c r="O330" s="2">
+        <v>0</v>
+      </c>
+      <c r="P330" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A331" s="2">
+        <v>0</v>
+      </c>
+      <c r="B331" s="2">
+        <v>0</v>
+      </c>
+      <c r="C331" s="2">
+        <v>0</v>
+      </c>
+      <c r="D331" s="2">
+        <v>0</v>
+      </c>
+      <c r="E331" s="3">
+        <v>1</v>
+      </c>
+      <c r="F331" s="3">
+        <v>1</v>
+      </c>
+      <c r="G331" s="3">
+        <v>1</v>
+      </c>
+      <c r="H331" s="3">
+        <v>1</v>
+      </c>
+      <c r="I331" s="3">
+        <v>1</v>
+      </c>
+      <c r="J331" s="3">
+        <v>1</v>
+      </c>
+      <c r="K331" s="3">
+        <v>1</v>
+      </c>
+      <c r="L331" s="3">
+        <v>1</v>
+      </c>
+      <c r="M331" s="2">
+        <v>0</v>
+      </c>
+      <c r="N331" s="2">
+        <v>0</v>
+      </c>
+      <c r="O331" s="2">
+        <v>0</v>
+      </c>
+      <c r="P331" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A332" s="2">
+        <v>0</v>
+      </c>
+      <c r="B332" s="2">
+        <v>0</v>
+      </c>
+      <c r="C332" s="2">
+        <v>0</v>
+      </c>
+      <c r="D332" s="2">
+        <v>0</v>
+      </c>
+      <c r="E332" s="3">
+        <v>1</v>
+      </c>
+      <c r="F332" s="2">
+        <v>0</v>
+      </c>
+      <c r="G332" s="2">
+        <v>0</v>
+      </c>
+      <c r="H332" s="2">
+        <v>0</v>
+      </c>
+      <c r="I332" s="2">
+        <v>0</v>
+      </c>
+      <c r="J332" s="2">
+        <v>0</v>
+      </c>
+      <c r="K332" s="2">
+        <v>0</v>
+      </c>
+      <c r="L332" s="3">
+        <v>1</v>
+      </c>
+      <c r="M332" s="2">
+        <v>0</v>
+      </c>
+      <c r="N332" s="2">
+        <v>0</v>
+      </c>
+      <c r="O332" s="2">
+        <v>0</v>
+      </c>
+      <c r="P332" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A333" s="2">
+        <v>0</v>
+      </c>
+      <c r="B333" s="2">
+        <v>0</v>
+      </c>
+      <c r="C333" s="2">
+        <v>0</v>
+      </c>
+      <c r="D333" s="2">
+        <v>0</v>
+      </c>
+      <c r="E333" s="3">
+        <v>1</v>
+      </c>
+      <c r="F333" s="2">
+        <v>0</v>
+      </c>
+      <c r="G333" s="2">
+        <v>0</v>
+      </c>
+      <c r="H333" s="2">
+        <v>0</v>
+      </c>
+      <c r="I333" s="2">
+        <v>0</v>
+      </c>
+      <c r="J333" s="2">
+        <v>0</v>
+      </c>
+      <c r="K333" s="2">
+        <v>0</v>
+      </c>
+      <c r="L333" s="3">
+        <v>1</v>
+      </c>
+      <c r="M333" s="2">
+        <v>0</v>
+      </c>
+      <c r="N333" s="2">
+        <v>0</v>
+      </c>
+      <c r="O333" s="2">
+        <v>0</v>
+      </c>
+      <c r="P333" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A334" s="1">
+        <v>8</v>
+      </c>
+      <c r="B334" s="2">
+        <v>0</v>
+      </c>
+      <c r="C334" s="2">
+        <v>0</v>
+      </c>
+      <c r="D334" s="2">
+        <v>0</v>
+      </c>
+      <c r="E334" s="3">
+        <v>1</v>
+      </c>
+      <c r="F334" s="2">
+        <v>0</v>
+      </c>
+      <c r="G334" s="2">
+        <v>0</v>
+      </c>
+      <c r="H334" s="2">
+        <v>0</v>
+      </c>
+      <c r="I334" s="2">
+        <v>0</v>
+      </c>
+      <c r="J334" s="2">
+        <v>0</v>
+      </c>
+      <c r="K334" s="2">
+        <v>0</v>
+      </c>
+      <c r="L334" s="3">
+        <v>1</v>
+      </c>
+      <c r="M334" s="2">
+        <v>0</v>
+      </c>
+      <c r="N334" s="2">
+        <v>0</v>
+      </c>
+      <c r="O334" s="2">
+        <v>0</v>
+      </c>
+      <c r="P334" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A335" s="1">
+        <v>8</v>
+      </c>
+      <c r="B335" s="2">
+        <v>0</v>
+      </c>
+      <c r="C335" s="2">
+        <v>0</v>
+      </c>
+      <c r="D335" s="2">
+        <v>0</v>
+      </c>
+      <c r="E335" s="3">
+        <v>1</v>
+      </c>
+      <c r="F335" s="2">
+        <v>0</v>
+      </c>
+      <c r="G335" s="2">
+        <v>0</v>
+      </c>
+      <c r="H335" s="2">
+        <v>0</v>
+      </c>
+      <c r="I335" s="2">
+        <v>0</v>
+      </c>
+      <c r="J335" s="2">
+        <v>0</v>
+      </c>
+      <c r="K335" s="2">
+        <v>0</v>
+      </c>
+      <c r="L335" s="3">
+        <v>1</v>
+      </c>
+      <c r="M335" s="2">
+        <v>0</v>
+      </c>
+      <c r="N335" s="2">
+        <v>0</v>
+      </c>
+      <c r="O335" s="2">
+        <v>0</v>
+      </c>
+      <c r="P335" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="336" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A336" s="1">
+        <v>8</v>
+      </c>
+      <c r="B336" s="1">
+        <v>8</v>
+      </c>
+      <c r="C336" s="2">
+        <v>0</v>
+      </c>
+      <c r="D336" s="2">
+        <v>0</v>
+      </c>
+      <c r="E336" s="2">
+        <v>0</v>
+      </c>
+      <c r="F336" s="2">
+        <v>0</v>
+      </c>
+      <c r="G336" s="2">
+        <v>0</v>
+      </c>
+      <c r="H336" s="2">
+        <v>0</v>
+      </c>
+      <c r="I336" s="2">
+        <v>0</v>
+      </c>
+      <c r="J336" s="2">
+        <v>0</v>
+      </c>
+      <c r="K336" s="2">
+        <v>0</v>
+      </c>
+      <c r="L336" s="2">
+        <v>0</v>
+      </c>
+      <c r="M336" s="2">
+        <v>0</v>
+      </c>
+      <c r="N336" s="2">
+        <v>0</v>
+      </c>
+      <c r="O336" s="1">
+        <v>8</v>
+      </c>
+      <c r="P336" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="337" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A337" s="1">
+        <v>8</v>
+      </c>
+      <c r="B337" s="1">
+        <v>8</v>
+      </c>
+      <c r="C337" s="2">
+        <v>0</v>
+      </c>
+      <c r="D337" s="2">
+        <v>0</v>
+      </c>
+      <c r="E337" s="2">
+        <v>0</v>
+      </c>
+      <c r="F337" s="2">
+        <v>0</v>
+      </c>
+      <c r="G337" s="2">
+        <v>0</v>
+      </c>
+      <c r="H337" s="2">
+        <v>0</v>
+      </c>
+      <c r="I337" s="2">
+        <v>0</v>
+      </c>
+      <c r="J337" s="2">
+        <v>0</v>
+      </c>
+      <c r="K337" s="2">
+        <v>0</v>
+      </c>
+      <c r="L337" s="2">
+        <v>0</v>
+      </c>
+      <c r="M337" s="2">
+        <v>0</v>
+      </c>
+      <c r="N337" s="2">
+        <v>0</v>
+      </c>
+      <c r="O337" s="1">
+        <v>8</v>
+      </c>
+      <c r="P337" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="338" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A338" s="1">
+        <v>8</v>
+      </c>
+      <c r="B338" s="1">
+        <v>8</v>
+      </c>
+      <c r="C338" s="1">
+        <v>8</v>
+      </c>
+      <c r="D338" s="2">
+        <v>0</v>
+      </c>
+      <c r="E338" s="2">
+        <v>0</v>
+      </c>
+      <c r="F338" s="2">
+        <v>0</v>
+      </c>
+      <c r="G338" s="2">
+        <v>0</v>
+      </c>
+      <c r="H338" s="2">
+        <v>0</v>
+      </c>
+      <c r="I338" s="2">
+        <v>0</v>
+      </c>
+      <c r="J338" s="2">
+        <v>0</v>
+      </c>
+      <c r="K338" s="2">
+        <v>0</v>
+      </c>
+      <c r="L338" s="2">
+        <v>0</v>
+      </c>
+      <c r="M338" s="2">
+        <v>0</v>
+      </c>
+      <c r="N338" s="1">
+        <v>8</v>
+      </c>
+      <c r="O338" s="1">
+        <v>8</v>
+      </c>
+      <c r="P338" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A339" s="1">
+        <v>8</v>
+      </c>
+      <c r="B339" s="1">
+        <v>8</v>
+      </c>
+      <c r="C339" s="1">
+        <v>8</v>
+      </c>
+      <c r="D339" s="1">
+        <v>8</v>
+      </c>
+      <c r="E339" s="1">
+        <v>8</v>
+      </c>
+      <c r="F339" s="2">
+        <v>0</v>
+      </c>
+      <c r="G339" s="2">
+        <v>0</v>
+      </c>
+      <c r="H339" s="2">
+        <v>0</v>
+      </c>
+      <c r="I339" s="2">
+        <v>0</v>
+      </c>
+      <c r="J339" s="2">
+        <v>0</v>
+      </c>
+      <c r="K339" s="2">
+        <v>0</v>
+      </c>
+      <c r="L339" s="1">
+        <v>8</v>
+      </c>
+      <c r="M339" s="1">
+        <v>8</v>
+      </c>
+      <c r="N339" s="1">
+        <v>8</v>
+      </c>
+      <c r="O339" s="1">
+        <v>8</v>
+      </c>
+      <c r="P339" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A341" s="1">
+        <v>8</v>
+      </c>
+      <c r="B341" s="1">
+        <v>8</v>
+      </c>
+      <c r="C341" s="1">
+        <v>8</v>
+      </c>
+      <c r="D341" s="1">
+        <v>8</v>
+      </c>
+      <c r="E341" s="1">
+        <v>8</v>
+      </c>
+      <c r="F341" s="2">
+        <v>0</v>
+      </c>
+      <c r="G341" s="2">
+        <v>0</v>
+      </c>
+      <c r="H341" s="2">
+        <v>0</v>
+      </c>
+      <c r="I341" s="2">
+        <v>0</v>
+      </c>
+      <c r="J341" s="2">
+        <v>0</v>
+      </c>
+      <c r="K341" s="2">
+        <v>0</v>
+      </c>
+      <c r="L341" s="1">
+        <v>8</v>
+      </c>
+      <c r="M341" s="1">
+        <v>8</v>
+      </c>
+      <c r="N341" s="1">
+        <v>8</v>
+      </c>
+      <c r="O341" s="1">
+        <v>8</v>
+      </c>
+      <c r="P341" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A342" s="1">
+        <v>8</v>
+      </c>
+      <c r="B342" s="1">
+        <v>8</v>
+      </c>
+      <c r="C342" s="1">
+        <v>8</v>
+      </c>
+      <c r="D342" s="2">
+        <v>0</v>
+      </c>
+      <c r="E342" s="2">
+        <v>0</v>
+      </c>
+      <c r="F342" s="2">
+        <v>0</v>
+      </c>
+      <c r="G342" s="2">
+        <v>0</v>
+      </c>
+      <c r="H342" s="2">
+        <v>0</v>
+      </c>
+      <c r="I342" s="2">
+        <v>0</v>
+      </c>
+      <c r="J342" s="2">
+        <v>0</v>
+      </c>
+      <c r="K342" s="2">
+        <v>0</v>
+      </c>
+      <c r="L342" s="2">
+        <v>0</v>
+      </c>
+      <c r="M342" s="2">
+        <v>0</v>
+      </c>
+      <c r="N342" s="1">
+        <v>8</v>
+      </c>
+      <c r="O342" s="1">
+        <v>8</v>
+      </c>
+      <c r="P342" s="1">
+        <v>8</v>
+      </c>
+      <c r="R342" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S342" s="6"/>
+    </row>
+    <row r="343" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A343" s="1">
+        <v>8</v>
+      </c>
+      <c r="B343" s="1">
+        <v>8</v>
+      </c>
+      <c r="C343" s="2">
+        <v>0</v>
+      </c>
+      <c r="D343" s="2">
+        <v>0</v>
+      </c>
+      <c r="E343" s="2">
+        <v>0</v>
+      </c>
+      <c r="F343" s="2">
+        <v>0</v>
+      </c>
+      <c r="G343" s="2">
+        <v>0</v>
+      </c>
+      <c r="H343" s="2">
+        <v>0</v>
+      </c>
+      <c r="I343" s="2">
+        <v>0</v>
+      </c>
+      <c r="J343" s="2">
+        <v>0</v>
+      </c>
+      <c r="K343" s="2">
+        <v>0</v>
+      </c>
+      <c r="L343" s="2">
+        <v>0</v>
+      </c>
+      <c r="M343" s="2">
+        <v>0</v>
+      </c>
+      <c r="N343" s="2">
+        <v>0</v>
+      </c>
+      <c r="O343" s="1">
+        <v>8</v>
+      </c>
+      <c r="P343" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A344" s="1">
+        <v>8</v>
+      </c>
+      <c r="B344" s="1">
+        <v>8</v>
+      </c>
+      <c r="C344" s="2">
+        <v>0</v>
+      </c>
+      <c r="D344" s="2">
+        <v>0</v>
+      </c>
+      <c r="E344" s="3">
+        <v>1</v>
+      </c>
+      <c r="F344" s="2">
+        <v>0</v>
+      </c>
+      <c r="G344" s="2">
+        <v>0</v>
+      </c>
+      <c r="H344" s="2">
+        <v>0</v>
+      </c>
+      <c r="I344" s="2">
+        <v>0</v>
+      </c>
+      <c r="J344" s="2">
+        <v>0</v>
+      </c>
+      <c r="K344" s="2">
+        <v>0</v>
+      </c>
+      <c r="L344" s="3">
+        <v>1</v>
+      </c>
+      <c r="M344" s="2">
+        <v>0</v>
+      </c>
+      <c r="N344" s="2">
+        <v>0</v>
+      </c>
+      <c r="O344" s="1">
+        <v>8</v>
+      </c>
+      <c r="P344" s="1">
+        <v>8</v>
+      </c>
+      <c r="S344" s="7"/>
+    </row>
+    <row r="345" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A345" s="1">
+        <v>8</v>
+      </c>
+      <c r="B345" s="2">
+        <v>0</v>
+      </c>
+      <c r="C345" s="2">
+        <v>0</v>
+      </c>
+      <c r="D345" s="2">
+        <v>0</v>
+      </c>
+      <c r="E345" s="3">
+        <v>1</v>
+      </c>
+      <c r="F345" s="2">
+        <v>0</v>
+      </c>
+      <c r="G345" s="2">
+        <v>0</v>
+      </c>
+      <c r="H345" s="2">
+        <v>0</v>
+      </c>
+      <c r="I345" s="2">
+        <v>0</v>
+      </c>
+      <c r="J345" s="2">
+        <v>0</v>
+      </c>
+      <c r="K345" s="2">
+        <v>0</v>
+      </c>
+      <c r="L345" s="3">
+        <v>1</v>
+      </c>
+      <c r="M345" s="2">
+        <v>0</v>
+      </c>
+      <c r="N345" s="2">
+        <v>0</v>
+      </c>
+      <c r="O345" s="2">
+        <v>0</v>
+      </c>
+      <c r="P345" s="1">
+        <v>8</v>
+      </c>
+      <c r="R345" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S345" s="4">
+        <f>COUNTIF(A341:P356, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="346" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A346" s="1">
+        <v>8</v>
+      </c>
+      <c r="B346" s="2">
+        <v>0</v>
+      </c>
+      <c r="C346" s="2">
+        <v>0</v>
+      </c>
+      <c r="D346" s="2">
+        <v>0</v>
+      </c>
+      <c r="E346" s="3">
+        <v>1</v>
+      </c>
+      <c r="F346" s="2">
+        <v>0</v>
+      </c>
+      <c r="G346" s="2">
+        <v>0</v>
+      </c>
+      <c r="H346" s="2">
+        <v>0</v>
+      </c>
+      <c r="I346" s="2">
+        <v>0</v>
+      </c>
+      <c r="J346" s="2">
+        <v>0</v>
+      </c>
+      <c r="K346" s="2">
+        <v>0</v>
+      </c>
+      <c r="L346" s="3">
+        <v>1</v>
+      </c>
+      <c r="M346" s="2">
+        <v>0</v>
+      </c>
+      <c r="N346" s="2">
+        <v>0</v>
+      </c>
+      <c r="O346" s="2">
+        <v>0</v>
+      </c>
+      <c r="P346" s="1">
+        <v>8</v>
+      </c>
+      <c r="R346" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S346" s="5">
+        <f>COUNTIF(A341:P356, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="347" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A347" s="2">
+        <v>0</v>
+      </c>
+      <c r="B347" s="2">
+        <v>0</v>
+      </c>
+      <c r="C347" s="2">
+        <v>0</v>
+      </c>
+      <c r="D347" s="2">
+        <v>0</v>
+      </c>
+      <c r="E347" s="3">
+        <v>1</v>
+      </c>
+      <c r="F347" s="2">
+        <v>0</v>
+      </c>
+      <c r="G347" s="2">
+        <v>0</v>
+      </c>
+      <c r="H347" s="2">
+        <v>0</v>
+      </c>
+      <c r="I347" s="2">
+        <v>0</v>
+      </c>
+      <c r="J347" s="2">
+        <v>0</v>
+      </c>
+      <c r="K347" s="2">
+        <v>0</v>
+      </c>
+      <c r="L347" s="3">
+        <v>1</v>
+      </c>
+      <c r="M347" s="2">
+        <v>0</v>
+      </c>
+      <c r="N347" s="2">
+        <v>0</v>
+      </c>
+      <c r="O347" s="2">
+        <v>0</v>
+      </c>
+      <c r="P347" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A348" s="2">
+        <v>0</v>
+      </c>
+      <c r="B348" s="2">
+        <v>0</v>
+      </c>
+      <c r="C348" s="2">
+        <v>0</v>
+      </c>
+      <c r="D348" s="2">
+        <v>0</v>
+      </c>
+      <c r="E348" s="3">
+        <v>1</v>
+      </c>
+      <c r="F348" s="3">
+        <v>1</v>
+      </c>
+      <c r="G348" s="3">
+        <v>1</v>
+      </c>
+      <c r="H348" s="3">
+        <v>1</v>
+      </c>
+      <c r="I348" s="3">
+        <v>1</v>
+      </c>
+      <c r="J348" s="3">
+        <v>1</v>
+      </c>
+      <c r="K348" s="3">
+        <v>1</v>
+      </c>
+      <c r="L348" s="3">
+        <v>1</v>
+      </c>
+      <c r="M348" s="2">
+        <v>0</v>
+      </c>
+      <c r="N348" s="2">
+        <v>0</v>
+      </c>
+      <c r="O348" s="2">
+        <v>0</v>
+      </c>
+      <c r="P348" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A349" s="2">
+        <v>0</v>
+      </c>
+      <c r="B349" s="2">
+        <v>0</v>
+      </c>
+      <c r="C349" s="2">
+        <v>0</v>
+      </c>
+      <c r="D349" s="2">
+        <v>0</v>
+      </c>
+      <c r="E349" s="3">
+        <v>1</v>
+      </c>
+      <c r="F349" s="2">
+        <v>0</v>
+      </c>
+      <c r="G349" s="2">
+        <v>0</v>
+      </c>
+      <c r="H349" s="2">
+        <v>0</v>
+      </c>
+      <c r="I349" s="2">
+        <v>0</v>
+      </c>
+      <c r="J349" s="2">
+        <v>0</v>
+      </c>
+      <c r="K349" s="2">
+        <v>0</v>
+      </c>
+      <c r="L349" s="3">
+        <v>1</v>
+      </c>
+      <c r="M349" s="2">
+        <v>0</v>
+      </c>
+      <c r="N349" s="2">
+        <v>0</v>
+      </c>
+      <c r="O349" s="2">
+        <v>0</v>
+      </c>
+      <c r="P349" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A350" s="2">
+        <v>0</v>
+      </c>
+      <c r="B350" s="2">
+        <v>0</v>
+      </c>
+      <c r="C350" s="2">
+        <v>0</v>
+      </c>
+      <c r="D350" s="2">
+        <v>0</v>
+      </c>
+      <c r="E350" s="3">
+        <v>1</v>
+      </c>
+      <c r="F350" s="2">
+        <v>0</v>
+      </c>
+      <c r="G350" s="2">
+        <v>0</v>
+      </c>
+      <c r="H350" s="2">
+        <v>0</v>
+      </c>
+      <c r="I350" s="2">
+        <v>0</v>
+      </c>
+      <c r="J350" s="2">
+        <v>0</v>
+      </c>
+      <c r="K350" s="2">
+        <v>0</v>
+      </c>
+      <c r="L350" s="3">
+        <v>1</v>
+      </c>
+      <c r="M350" s="2">
+        <v>0</v>
+      </c>
+      <c r="N350" s="2">
+        <v>0</v>
+      </c>
+      <c r="O350" s="2">
+        <v>0</v>
+      </c>
+      <c r="P350" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A351" s="1">
+        <v>8</v>
+      </c>
+      <c r="B351" s="2">
+        <v>0</v>
+      </c>
+      <c r="C351" s="2">
+        <v>0</v>
+      </c>
+      <c r="D351" s="2">
+        <v>0</v>
+      </c>
+      <c r="E351" s="3">
+        <v>1</v>
+      </c>
+      <c r="F351" s="2">
+        <v>0</v>
+      </c>
+      <c r="G351" s="2">
+        <v>0</v>
+      </c>
+      <c r="H351" s="2">
+        <v>0</v>
+      </c>
+      <c r="I351" s="2">
+        <v>0</v>
+      </c>
+      <c r="J351" s="2">
+        <v>0</v>
+      </c>
+      <c r="K351" s="2">
+        <v>0</v>
+      </c>
+      <c r="L351" s="3">
+        <v>1</v>
+      </c>
+      <c r="M351" s="2">
+        <v>0</v>
+      </c>
+      <c r="N351" s="2">
+        <v>0</v>
+      </c>
+      <c r="O351" s="2">
+        <v>0</v>
+      </c>
+      <c r="P351" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A352" s="1">
+        <v>8</v>
+      </c>
+      <c r="B352" s="2">
+        <v>0</v>
+      </c>
+      <c r="C352" s="2">
+        <v>0</v>
+      </c>
+      <c r="D352" s="2">
+        <v>0</v>
+      </c>
+      <c r="E352" s="3">
+        <v>1</v>
+      </c>
+      <c r="F352" s="2">
+        <v>0</v>
+      </c>
+      <c r="G352" s="2">
+        <v>0</v>
+      </c>
+      <c r="H352" s="2">
+        <v>0</v>
+      </c>
+      <c r="I352" s="2">
+        <v>0</v>
+      </c>
+      <c r="J352" s="2">
+        <v>0</v>
+      </c>
+      <c r="K352" s="2">
+        <v>0</v>
+      </c>
+      <c r="L352" s="3">
+        <v>1</v>
+      </c>
+      <c r="M352" s="2">
+        <v>0</v>
+      </c>
+      <c r="N352" s="2">
+        <v>0</v>
+      </c>
+      <c r="O352" s="2">
+        <v>0</v>
+      </c>
+      <c r="P352" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A353" s="1">
+        <v>8</v>
+      </c>
+      <c r="B353" s="1">
+        <v>8</v>
+      </c>
+      <c r="C353" s="2">
+        <v>0</v>
+      </c>
+      <c r="D353" s="2">
+        <v>0</v>
+      </c>
+      <c r="E353" s="2">
+        <v>0</v>
+      </c>
+      <c r="F353" s="2">
+        <v>0</v>
+      </c>
+      <c r="G353" s="2">
+        <v>0</v>
+      </c>
+      <c r="H353" s="2">
+        <v>0</v>
+      </c>
+      <c r="I353" s="2">
+        <v>0</v>
+      </c>
+      <c r="J353" s="2">
+        <v>0</v>
+      </c>
+      <c r="K353" s="2">
+        <v>0</v>
+      </c>
+      <c r="L353" s="2">
+        <v>0</v>
+      </c>
+      <c r="M353" s="2">
+        <v>0</v>
+      </c>
+      <c r="N353" s="2">
+        <v>0</v>
+      </c>
+      <c r="O353" s="1">
+        <v>8</v>
+      </c>
+      <c r="P353" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="354" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A354" s="1">
+        <v>8</v>
+      </c>
+      <c r="B354" s="1">
+        <v>8</v>
+      </c>
+      <c r="C354" s="2">
+        <v>0</v>
+      </c>
+      <c r="D354" s="2">
+        <v>0</v>
+      </c>
+      <c r="E354" s="2">
+        <v>0</v>
+      </c>
+      <c r="F354" s="2">
+        <v>0</v>
+      </c>
+      <c r="G354" s="2">
+        <v>0</v>
+      </c>
+      <c r="H354" s="2">
+        <v>0</v>
+      </c>
+      <c r="I354" s="2">
+        <v>0</v>
+      </c>
+      <c r="J354" s="2">
+        <v>0</v>
+      </c>
+      <c r="K354" s="2">
+        <v>0</v>
+      </c>
+      <c r="L354" s="2">
+        <v>0</v>
+      </c>
+      <c r="M354" s="2">
+        <v>0</v>
+      </c>
+      <c r="N354" s="2">
+        <v>0</v>
+      </c>
+      <c r="O354" s="1">
+        <v>8</v>
+      </c>
+      <c r="P354" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A355" s="1">
+        <v>8</v>
+      </c>
+      <c r="B355" s="1">
+        <v>8</v>
+      </c>
+      <c r="C355" s="1">
+        <v>8</v>
+      </c>
+      <c r="D355" s="2">
+        <v>0</v>
+      </c>
+      <c r="E355" s="2">
+        <v>0</v>
+      </c>
+      <c r="F355" s="2">
+        <v>0</v>
+      </c>
+      <c r="G355" s="2">
+        <v>0</v>
+      </c>
+      <c r="H355" s="2">
+        <v>0</v>
+      </c>
+      <c r="I355" s="2">
+        <v>0</v>
+      </c>
+      <c r="J355" s="2">
+        <v>0</v>
+      </c>
+      <c r="K355" s="2">
+        <v>0</v>
+      </c>
+      <c r="L355" s="2">
+        <v>0</v>
+      </c>
+      <c r="M355" s="2">
+        <v>0</v>
+      </c>
+      <c r="N355" s="1">
+        <v>8</v>
+      </c>
+      <c r="O355" s="1">
+        <v>8</v>
+      </c>
+      <c r="P355" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A356" s="1">
+        <v>8</v>
+      </c>
+      <c r="B356" s="1">
+        <v>8</v>
+      </c>
+      <c r="C356" s="1">
+        <v>8</v>
+      </c>
+      <c r="D356" s="1">
+        <v>8</v>
+      </c>
+      <c r="E356" s="1">
+        <v>8</v>
+      </c>
+      <c r="F356" s="2">
+        <v>0</v>
+      </c>
+      <c r="G356" s="2">
+        <v>0</v>
+      </c>
+      <c r="H356" s="2">
+        <v>0</v>
+      </c>
+      <c r="I356" s="2">
+        <v>0</v>
+      </c>
+      <c r="J356" s="2">
+        <v>0</v>
+      </c>
+      <c r="K356" s="2">
+        <v>0</v>
+      </c>
+      <c r="L356" s="1">
+        <v>8</v>
+      </c>
+      <c r="M356" s="1">
+        <v>8</v>
+      </c>
+      <c r="N356" s="1">
+        <v>8</v>
+      </c>
+      <c r="O356" s="1">
+        <v>8</v>
+      </c>
+      <c r="P356" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="358" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A358" s="1">
+        <v>8</v>
+      </c>
+      <c r="B358" s="1">
+        <v>8</v>
+      </c>
+      <c r="C358" s="1">
+        <v>8</v>
+      </c>
+      <c r="D358" s="1">
+        <v>8</v>
+      </c>
+      <c r="E358" s="1">
+        <v>8</v>
+      </c>
+      <c r="F358" s="2">
+        <v>0</v>
+      </c>
+      <c r="G358" s="2">
+        <v>0</v>
+      </c>
+      <c r="H358" s="2">
+        <v>0</v>
+      </c>
+      <c r="I358" s="2">
+        <v>0</v>
+      </c>
+      <c r="J358" s="2">
+        <v>0</v>
+      </c>
+      <c r="K358" s="2">
+        <v>0</v>
+      </c>
+      <c r="L358" s="1">
+        <v>8</v>
+      </c>
+      <c r="M358" s="1">
+        <v>8</v>
+      </c>
+      <c r="N358" s="1">
+        <v>8</v>
+      </c>
+      <c r="O358" s="1">
+        <v>8</v>
+      </c>
+      <c r="P358" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="359" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A359" s="1">
+        <v>8</v>
+      </c>
+      <c r="B359" s="1">
+        <v>8</v>
+      </c>
+      <c r="C359" s="1">
+        <v>8</v>
+      </c>
+      <c r="D359" s="2">
+        <v>0</v>
+      </c>
+      <c r="E359" s="2">
+        <v>0</v>
+      </c>
+      <c r="F359" s="2">
+        <v>0</v>
+      </c>
+      <c r="G359" s="2">
+        <v>0</v>
+      </c>
+      <c r="H359" s="2">
+        <v>0</v>
+      </c>
+      <c r="I359" s="2">
+        <v>0</v>
+      </c>
+      <c r="J359" s="2">
+        <v>0</v>
+      </c>
+      <c r="K359" s="2">
+        <v>0</v>
+      </c>
+      <c r="L359" s="2">
+        <v>0</v>
+      </c>
+      <c r="M359" s="2">
+        <v>0</v>
+      </c>
+      <c r="N359" s="1">
+        <v>8</v>
+      </c>
+      <c r="O359" s="1">
+        <v>8</v>
+      </c>
+      <c r="P359" s="1">
+        <v>8</v>
+      </c>
+      <c r="R359" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S359" s="6"/>
+    </row>
+    <row r="360" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A360" s="1">
+        <v>8</v>
+      </c>
+      <c r="B360" s="1">
+        <v>8</v>
+      </c>
+      <c r="C360" s="2">
+        <v>0</v>
+      </c>
+      <c r="D360" s="2">
+        <v>0</v>
+      </c>
+      <c r="E360" s="2">
+        <v>0</v>
+      </c>
+      <c r="F360" s="2">
+        <v>0</v>
+      </c>
+      <c r="G360" s="2">
+        <v>0</v>
+      </c>
+      <c r="H360" s="2">
+        <v>0</v>
+      </c>
+      <c r="I360" s="2">
+        <v>0</v>
+      </c>
+      <c r="J360" s="2">
+        <v>0</v>
+      </c>
+      <c r="K360" s="2">
+        <v>0</v>
+      </c>
+      <c r="L360" s="2">
+        <v>0</v>
+      </c>
+      <c r="M360" s="2">
+        <v>0</v>
+      </c>
+      <c r="N360" s="2">
+        <v>0</v>
+      </c>
+      <c r="O360" s="1">
+        <v>8</v>
+      </c>
+      <c r="P360" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A361" s="1">
+        <v>8</v>
+      </c>
+      <c r="B361" s="1">
+        <v>8</v>
+      </c>
+      <c r="C361" s="2">
+        <v>0</v>
+      </c>
+      <c r="D361" s="2">
+        <v>0</v>
+      </c>
+      <c r="E361" s="3">
+        <v>1</v>
+      </c>
+      <c r="F361" s="2">
+        <v>0</v>
+      </c>
+      <c r="G361" s="2">
+        <v>0</v>
+      </c>
+      <c r="H361" s="2">
+        <v>0</v>
+      </c>
+      <c r="I361" s="2">
+        <v>0</v>
+      </c>
+      <c r="J361" s="2">
+        <v>0</v>
+      </c>
+      <c r="K361" s="2">
+        <v>0</v>
+      </c>
+      <c r="L361" s="3">
+        <v>1</v>
+      </c>
+      <c r="M361" s="2">
+        <v>0</v>
+      </c>
+      <c r="N361" s="2">
+        <v>0</v>
+      </c>
+      <c r="O361" s="1">
+        <v>8</v>
+      </c>
+      <c r="P361" s="1">
+        <v>8</v>
+      </c>
+      <c r="S361" s="7"/>
+    </row>
+    <row r="362" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A362" s="1">
+        <v>8</v>
+      </c>
+      <c r="B362" s="2">
+        <v>0</v>
+      </c>
+      <c r="C362" s="2">
+        <v>0</v>
+      </c>
+      <c r="D362" s="2">
+        <v>0</v>
+      </c>
+      <c r="E362" s="3">
+        <v>1</v>
+      </c>
+      <c r="F362" s="2">
+        <v>0</v>
+      </c>
+      <c r="G362" s="2">
+        <v>0</v>
+      </c>
+      <c r="H362" s="2">
+        <v>0</v>
+      </c>
+      <c r="I362" s="2">
+        <v>0</v>
+      </c>
+      <c r="J362" s="2">
+        <v>0</v>
+      </c>
+      <c r="K362" s="2">
+        <v>0</v>
+      </c>
+      <c r="L362" s="3">
+        <v>1</v>
+      </c>
+      <c r="M362" s="2">
+        <v>0</v>
+      </c>
+      <c r="N362" s="2">
+        <v>0</v>
+      </c>
+      <c r="O362" s="2">
+        <v>0</v>
+      </c>
+      <c r="P362" s="1">
+        <v>8</v>
+      </c>
+      <c r="R362" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S362" s="4">
+        <f>COUNTIF(A358:P373, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="363" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A363" s="1">
+        <v>8</v>
+      </c>
+      <c r="B363" s="2">
+        <v>0</v>
+      </c>
+      <c r="C363" s="2">
+        <v>0</v>
+      </c>
+      <c r="D363" s="2">
+        <v>0</v>
+      </c>
+      <c r="E363" s="3">
+        <v>1</v>
+      </c>
+      <c r="F363" s="2">
+        <v>0</v>
+      </c>
+      <c r="G363" s="2">
+        <v>0</v>
+      </c>
+      <c r="H363" s="2">
+        <v>0</v>
+      </c>
+      <c r="I363" s="2">
+        <v>0</v>
+      </c>
+      <c r="J363" s="2">
+        <v>0</v>
+      </c>
+      <c r="K363" s="2">
+        <v>0</v>
+      </c>
+      <c r="L363" s="3">
+        <v>1</v>
+      </c>
+      <c r="M363" s="2">
+        <v>0</v>
+      </c>
+      <c r="N363" s="2">
+        <v>0</v>
+      </c>
+      <c r="O363" s="2">
+        <v>0</v>
+      </c>
+      <c r="P363" s="1">
+        <v>8</v>
+      </c>
+      <c r="R363" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S363" s="5">
+        <f>COUNTIF(A358:P373, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="364" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A364" s="2">
+        <v>0</v>
+      </c>
+      <c r="B364" s="2">
+        <v>0</v>
+      </c>
+      <c r="C364" s="2">
+        <v>0</v>
+      </c>
+      <c r="D364" s="2">
+        <v>0</v>
+      </c>
+      <c r="E364" s="3">
+        <v>1</v>
+      </c>
+      <c r="F364" s="2">
+        <v>0</v>
+      </c>
+      <c r="G364" s="2">
+        <v>0</v>
+      </c>
+      <c r="H364" s="2">
+        <v>0</v>
+      </c>
+      <c r="I364" s="2">
+        <v>0</v>
+      </c>
+      <c r="J364" s="2">
+        <v>0</v>
+      </c>
+      <c r="K364" s="2">
+        <v>0</v>
+      </c>
+      <c r="L364" s="3">
+        <v>1</v>
+      </c>
+      <c r="M364" s="2">
+        <v>0</v>
+      </c>
+      <c r="N364" s="2">
+        <v>0</v>
+      </c>
+      <c r="O364" s="2">
+        <v>0</v>
+      </c>
+      <c r="P364" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A365" s="2">
+        <v>0</v>
+      </c>
+      <c r="B365" s="2">
+        <v>0</v>
+      </c>
+      <c r="C365" s="2">
+        <v>0</v>
+      </c>
+      <c r="D365" s="2">
+        <v>0</v>
+      </c>
+      <c r="E365" s="3">
+        <v>1</v>
+      </c>
+      <c r="F365" s="3">
+        <v>1</v>
+      </c>
+      <c r="G365" s="3">
+        <v>1</v>
+      </c>
+      <c r="H365" s="3">
+        <v>1</v>
+      </c>
+      <c r="I365" s="3">
+        <v>1</v>
+      </c>
+      <c r="J365" s="3">
+        <v>1</v>
+      </c>
+      <c r="K365" s="3">
+        <v>1</v>
+      </c>
+      <c r="L365" s="3">
+        <v>1</v>
+      </c>
+      <c r="M365" s="2">
+        <v>0</v>
+      </c>
+      <c r="N365" s="2">
+        <v>0</v>
+      </c>
+      <c r="O365" s="2">
+        <v>0</v>
+      </c>
+      <c r="P365" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A366" s="2">
+        <v>0</v>
+      </c>
+      <c r="B366" s="2">
+        <v>0</v>
+      </c>
+      <c r="C366" s="2">
+        <v>0</v>
+      </c>
+      <c r="D366" s="2">
+        <v>0</v>
+      </c>
+      <c r="E366" s="3">
+        <v>1</v>
+      </c>
+      <c r="F366" s="2">
+        <v>0</v>
+      </c>
+      <c r="G366" s="2">
+        <v>0</v>
+      </c>
+      <c r="H366" s="2">
+        <v>0</v>
+      </c>
+      <c r="I366" s="2">
+        <v>0</v>
+      </c>
+      <c r="J366" s="2">
+        <v>0</v>
+      </c>
+      <c r="K366" s="2">
+        <v>0</v>
+      </c>
+      <c r="L366" s="3">
+        <v>1</v>
+      </c>
+      <c r="M366" s="2">
+        <v>0</v>
+      </c>
+      <c r="N366" s="2">
+        <v>0</v>
+      </c>
+      <c r="O366" s="2">
+        <v>0</v>
+      </c>
+      <c r="P366" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A367" s="2">
+        <v>0</v>
+      </c>
+      <c r="B367" s="2">
+        <v>0</v>
+      </c>
+      <c r="C367" s="2">
+        <v>0</v>
+      </c>
+      <c r="D367" s="2">
+        <v>0</v>
+      </c>
+      <c r="E367" s="3">
+        <v>1</v>
+      </c>
+      <c r="F367" s="2">
+        <v>0</v>
+      </c>
+      <c r="G367" s="2">
+        <v>0</v>
+      </c>
+      <c r="H367" s="2">
+        <v>0</v>
+      </c>
+      <c r="I367" s="2">
+        <v>0</v>
+      </c>
+      <c r="J367" s="2">
+        <v>0</v>
+      </c>
+      <c r="K367" s="2">
+        <v>0</v>
+      </c>
+      <c r="L367" s="3">
+        <v>1</v>
+      </c>
+      <c r="M367" s="2">
+        <v>0</v>
+      </c>
+      <c r="N367" s="2">
+        <v>0</v>
+      </c>
+      <c r="O367" s="2">
+        <v>0</v>
+      </c>
+      <c r="P367" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A368" s="1">
+        <v>8</v>
+      </c>
+      <c r="B368" s="2">
+        <v>0</v>
+      </c>
+      <c r="C368" s="2">
+        <v>0</v>
+      </c>
+      <c r="D368" s="2">
+        <v>0</v>
+      </c>
+      <c r="E368" s="3">
+        <v>1</v>
+      </c>
+      <c r="F368" s="2">
+        <v>0</v>
+      </c>
+      <c r="G368" s="2">
+        <v>0</v>
+      </c>
+      <c r="H368" s="2">
+        <v>0</v>
+      </c>
+      <c r="I368" s="2">
+        <v>0</v>
+      </c>
+      <c r="J368" s="2">
+        <v>0</v>
+      </c>
+      <c r="K368" s="2">
+        <v>0</v>
+      </c>
+      <c r="L368" s="3">
+        <v>1</v>
+      </c>
+      <c r="M368" s="2">
+        <v>0</v>
+      </c>
+      <c r="N368" s="2">
+        <v>0</v>
+      </c>
+      <c r="O368" s="2">
+        <v>0</v>
+      </c>
+      <c r="P368" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A369" s="1">
+        <v>8</v>
+      </c>
+      <c r="B369" s="2">
+        <v>0</v>
+      </c>
+      <c r="C369" s="2">
+        <v>0</v>
+      </c>
+      <c r="D369" s="2">
+        <v>0</v>
+      </c>
+      <c r="E369" s="3">
+        <v>1</v>
+      </c>
+      <c r="F369" s="2">
+        <v>0</v>
+      </c>
+      <c r="G369" s="2">
+        <v>0</v>
+      </c>
+      <c r="H369" s="2">
+        <v>0</v>
+      </c>
+      <c r="I369" s="2">
+        <v>0</v>
+      </c>
+      <c r="J369" s="2">
+        <v>0</v>
+      </c>
+      <c r="K369" s="2">
+        <v>0</v>
+      </c>
+      <c r="L369" s="3">
+        <v>1</v>
+      </c>
+      <c r="M369" s="2">
+        <v>0</v>
+      </c>
+      <c r="N369" s="2">
+        <v>0</v>
+      </c>
+      <c r="O369" s="2">
+        <v>0</v>
+      </c>
+      <c r="P369" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A370" s="1">
+        <v>8</v>
+      </c>
+      <c r="B370" s="1">
+        <v>8</v>
+      </c>
+      <c r="C370" s="2">
+        <v>0</v>
+      </c>
+      <c r="D370" s="2">
+        <v>0</v>
+      </c>
+      <c r="E370" s="2">
+        <v>0</v>
+      </c>
+      <c r="F370" s="2">
+        <v>0</v>
+      </c>
+      <c r="G370" s="2">
+        <v>0</v>
+      </c>
+      <c r="H370" s="2">
+        <v>0</v>
+      </c>
+      <c r="I370" s="2">
+        <v>0</v>
+      </c>
+      <c r="J370" s="2">
+        <v>0</v>
+      </c>
+      <c r="K370" s="2">
+        <v>0</v>
+      </c>
+      <c r="L370" s="2">
+        <v>0</v>
+      </c>
+      <c r="M370" s="2">
+        <v>0</v>
+      </c>
+      <c r="N370" s="2">
+        <v>0</v>
+      </c>
+      <c r="O370" s="1">
+        <v>8</v>
+      </c>
+      <c r="P370" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A371" s="1">
+        <v>8</v>
+      </c>
+      <c r="B371" s="1">
+        <v>8</v>
+      </c>
+      <c r="C371" s="2">
+        <v>0</v>
+      </c>
+      <c r="D371" s="2">
+        <v>0</v>
+      </c>
+      <c r="E371" s="2">
+        <v>0</v>
+      </c>
+      <c r="F371" s="2">
+        <v>0</v>
+      </c>
+      <c r="G371" s="2">
+        <v>0</v>
+      </c>
+      <c r="H371" s="2">
+        <v>0</v>
+      </c>
+      <c r="I371" s="2">
+        <v>0</v>
+      </c>
+      <c r="J371" s="2">
+        <v>0</v>
+      </c>
+      <c r="K371" s="2">
+        <v>0</v>
+      </c>
+      <c r="L371" s="2">
+        <v>0</v>
+      </c>
+      <c r="M371" s="2">
+        <v>0</v>
+      </c>
+      <c r="N371" s="2">
+        <v>0</v>
+      </c>
+      <c r="O371" s="1">
+        <v>8</v>
+      </c>
+      <c r="P371" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A372" s="1">
+        <v>8</v>
+      </c>
+      <c r="B372" s="1">
+        <v>8</v>
+      </c>
+      <c r="C372" s="1">
+        <v>8</v>
+      </c>
+      <c r="D372" s="2">
+        <v>0</v>
+      </c>
+      <c r="E372" s="2">
+        <v>0</v>
+      </c>
+      <c r="F372" s="2">
+        <v>0</v>
+      </c>
+      <c r="G372" s="2">
+        <v>0</v>
+      </c>
+      <c r="H372" s="2">
+        <v>0</v>
+      </c>
+      <c r="I372" s="2">
+        <v>0</v>
+      </c>
+      <c r="J372" s="2">
+        <v>0</v>
+      </c>
+      <c r="K372" s="2">
+        <v>0</v>
+      </c>
+      <c r="L372" s="2">
+        <v>0</v>
+      </c>
+      <c r="M372" s="2">
+        <v>0</v>
+      </c>
+      <c r="N372" s="1">
+        <v>8</v>
+      </c>
+      <c r="O372" s="1">
+        <v>8</v>
+      </c>
+      <c r="P372" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A373" s="1">
+        <v>8</v>
+      </c>
+      <c r="B373" s="1">
+        <v>8</v>
+      </c>
+      <c r="C373" s="1">
+        <v>8</v>
+      </c>
+      <c r="D373" s="1">
+        <v>8</v>
+      </c>
+      <c r="E373" s="1">
+        <v>8</v>
+      </c>
+      <c r="F373" s="2">
+        <v>0</v>
+      </c>
+      <c r="G373" s="2">
+        <v>0</v>
+      </c>
+      <c r="H373" s="2">
+        <v>0</v>
+      </c>
+      <c r="I373" s="2">
+        <v>0</v>
+      </c>
+      <c r="J373" s="2">
+        <v>0</v>
+      </c>
+      <c r="K373" s="2">
+        <v>0</v>
+      </c>
+      <c r="L373" s="1">
+        <v>8</v>
+      </c>
+      <c r="M373" s="1">
+        <v>8</v>
+      </c>
+      <c r="N373" s="1">
+        <v>8</v>
+      </c>
+      <c r="O373" s="1">
+        <v>8</v>
+      </c>
+      <c r="P373" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="375" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A375" s="1">
+        <v>8</v>
+      </c>
+      <c r="B375" s="1">
+        <v>8</v>
+      </c>
+      <c r="C375" s="1">
+        <v>8</v>
+      </c>
+      <c r="D375" s="1">
+        <v>8</v>
+      </c>
+      <c r="E375" s="1">
+        <v>8</v>
+      </c>
+      <c r="F375" s="2">
+        <v>0</v>
+      </c>
+      <c r="G375" s="2">
+        <v>0</v>
+      </c>
+      <c r="H375" s="2">
+        <v>0</v>
+      </c>
+      <c r="I375" s="2">
+        <v>0</v>
+      </c>
+      <c r="J375" s="2">
+        <v>0</v>
+      </c>
+      <c r="K375" s="2">
+        <v>0</v>
+      </c>
+      <c r="L375" s="1">
+        <v>8</v>
+      </c>
+      <c r="M375" s="1">
+        <v>8</v>
+      </c>
+      <c r="N375" s="1">
+        <v>8</v>
+      </c>
+      <c r="O375" s="1">
+        <v>8</v>
+      </c>
+      <c r="P375" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A376" s="1">
+        <v>8</v>
+      </c>
+      <c r="B376" s="1">
+        <v>8</v>
+      </c>
+      <c r="C376" s="1">
+        <v>8</v>
+      </c>
+      <c r="D376" s="2">
+        <v>0</v>
+      </c>
+      <c r="E376" s="2">
+        <v>0</v>
+      </c>
+      <c r="F376" s="2">
+        <v>0</v>
+      </c>
+      <c r="G376" s="2">
+        <v>0</v>
+      </c>
+      <c r="H376" s="2">
+        <v>0</v>
+      </c>
+      <c r="I376" s="2">
+        <v>0</v>
+      </c>
+      <c r="J376" s="2">
+        <v>0</v>
+      </c>
+      <c r="K376" s="2">
+        <v>0</v>
+      </c>
+      <c r="L376" s="2">
+        <v>0</v>
+      </c>
+      <c r="M376" s="2">
+        <v>0</v>
+      </c>
+      <c r="N376" s="1">
+        <v>8</v>
+      </c>
+      <c r="O376" s="1">
+        <v>8</v>
+      </c>
+      <c r="P376" s="1">
+        <v>8</v>
+      </c>
+      <c r="R376" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S376" s="6"/>
+    </row>
+    <row r="377" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A377" s="1">
+        <v>8</v>
+      </c>
+      <c r="B377" s="1">
+        <v>8</v>
+      </c>
+      <c r="C377" s="2">
+        <v>0</v>
+      </c>
+      <c r="D377" s="2">
+        <v>0</v>
+      </c>
+      <c r="E377" s="2">
+        <v>0</v>
+      </c>
+      <c r="F377" s="2">
+        <v>0</v>
+      </c>
+      <c r="G377" s="2">
+        <v>0</v>
+      </c>
+      <c r="H377" s="2">
+        <v>0</v>
+      </c>
+      <c r="I377" s="2">
+        <v>0</v>
+      </c>
+      <c r="J377" s="2">
+        <v>0</v>
+      </c>
+      <c r="K377" s="2">
+        <v>0</v>
+      </c>
+      <c r="L377" s="2">
+        <v>0</v>
+      </c>
+      <c r="M377" s="2">
+        <v>0</v>
+      </c>
+      <c r="N377" s="2">
+        <v>0</v>
+      </c>
+      <c r="O377" s="1">
+        <v>8</v>
+      </c>
+      <c r="P377" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A378" s="1">
+        <v>8</v>
+      </c>
+      <c r="B378" s="1">
+        <v>8</v>
+      </c>
+      <c r="C378" s="2">
+        <v>0</v>
+      </c>
+      <c r="D378" s="2">
+        <v>0</v>
+      </c>
+      <c r="E378" s="3">
+        <v>1</v>
+      </c>
+      <c r="F378" s="2">
+        <v>0</v>
+      </c>
+      <c r="G378" s="2">
+        <v>0</v>
+      </c>
+      <c r="H378" s="2">
+        <v>0</v>
+      </c>
+      <c r="I378" s="2">
+        <v>0</v>
+      </c>
+      <c r="J378" s="2">
+        <v>0</v>
+      </c>
+      <c r="K378" s="2">
+        <v>0</v>
+      </c>
+      <c r="L378" s="3">
+        <v>1</v>
+      </c>
+      <c r="M378" s="2">
+        <v>0</v>
+      </c>
+      <c r="N378" s="2">
+        <v>0</v>
+      </c>
+      <c r="O378" s="1">
+        <v>8</v>
+      </c>
+      <c r="P378" s="1">
+        <v>8</v>
+      </c>
+      <c r="S378" s="7"/>
+    </row>
+    <row r="379" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A379" s="1">
+        <v>8</v>
+      </c>
+      <c r="B379" s="2">
+        <v>0</v>
+      </c>
+      <c r="C379" s="2">
+        <v>0</v>
+      </c>
+      <c r="D379" s="2">
+        <v>0</v>
+      </c>
+      <c r="E379" s="3">
+        <v>1</v>
+      </c>
+      <c r="F379" s="2">
+        <v>0</v>
+      </c>
+      <c r="G379" s="2">
+        <v>0</v>
+      </c>
+      <c r="H379" s="2">
+        <v>0</v>
+      </c>
+      <c r="I379" s="2">
+        <v>0</v>
+      </c>
+      <c r="J379" s="2">
+        <v>0</v>
+      </c>
+      <c r="K379" s="2">
+        <v>0</v>
+      </c>
+      <c r="L379" s="3">
+        <v>1</v>
+      </c>
+      <c r="M379" s="2">
+        <v>0</v>
+      </c>
+      <c r="N379" s="2">
+        <v>0</v>
+      </c>
+      <c r="O379" s="2">
+        <v>0</v>
+      </c>
+      <c r="P379" s="1">
+        <v>8</v>
+      </c>
+      <c r="R379" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S379" s="4">
+        <f>COUNTIF(A375:P390, 0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="380" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A380" s="1">
+        <v>8</v>
+      </c>
+      <c r="B380" s="2">
+        <v>0</v>
+      </c>
+      <c r="C380" s="2">
+        <v>0</v>
+      </c>
+      <c r="D380" s="2">
+        <v>0</v>
+      </c>
+      <c r="E380" s="3">
+        <v>1</v>
+      </c>
+      <c r="F380" s="2">
+        <v>0</v>
+      </c>
+      <c r="G380" s="2">
+        <v>0</v>
+      </c>
+      <c r="H380" s="2">
+        <v>0</v>
+      </c>
+      <c r="I380" s="2">
+        <v>0</v>
+      </c>
+      <c r="J380" s="2">
+        <v>0</v>
+      </c>
+      <c r="K380" s="2">
+        <v>0</v>
+      </c>
+      <c r="L380" s="3">
+        <v>1</v>
+      </c>
+      <c r="M380" s="2">
+        <v>0</v>
+      </c>
+      <c r="N380" s="2">
+        <v>0</v>
+      </c>
+      <c r="O380" s="2">
+        <v>0</v>
+      </c>
+      <c r="P380" s="1">
+        <v>8</v>
+      </c>
+      <c r="R380" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S380" s="5">
+        <f>COUNTIF(A375:P390, 1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="381" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A381" s="2">
+        <v>0</v>
+      </c>
+      <c r="B381" s="2">
+        <v>0</v>
+      </c>
+      <c r="C381" s="2">
+        <v>0</v>
+      </c>
+      <c r="D381" s="2">
+        <v>0</v>
+      </c>
+      <c r="E381" s="3">
+        <v>1</v>
+      </c>
+      <c r="F381" s="2">
+        <v>0</v>
+      </c>
+      <c r="G381" s="2">
+        <v>0</v>
+      </c>
+      <c r="H381" s="2">
+        <v>0</v>
+      </c>
+      <c r="I381" s="2">
+        <v>0</v>
+      </c>
+      <c r="J381" s="2">
+        <v>0</v>
+      </c>
+      <c r="K381" s="2">
+        <v>0</v>
+      </c>
+      <c r="L381" s="3">
+        <v>1</v>
+      </c>
+      <c r="M381" s="2">
+        <v>0</v>
+      </c>
+      <c r="N381" s="2">
+        <v>0</v>
+      </c>
+      <c r="O381" s="2">
+        <v>0</v>
+      </c>
+      <c r="P381" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A382" s="2">
+        <v>0</v>
+      </c>
+      <c r="B382" s="2">
+        <v>0</v>
+      </c>
+      <c r="C382" s="2">
+        <v>0</v>
+      </c>
+      <c r="D382" s="2">
+        <v>0</v>
+      </c>
+      <c r="E382" s="3">
+        <v>1</v>
+      </c>
+      <c r="F382" s="3">
+        <v>1</v>
+      </c>
+      <c r="G382" s="3">
+        <v>1</v>
+      </c>
+      <c r="H382" s="3">
+        <v>1</v>
+      </c>
+      <c r="I382" s="3">
+        <v>1</v>
+      </c>
+      <c r="J382" s="3">
+        <v>1</v>
+      </c>
+      <c r="K382" s="3">
+        <v>1</v>
+      </c>
+      <c r="L382" s="3">
+        <v>1</v>
+      </c>
+      <c r="M382" s="2">
+        <v>0</v>
+      </c>
+      <c r="N382" s="2">
+        <v>0</v>
+      </c>
+      <c r="O382" s="2">
+        <v>0</v>
+      </c>
+      <c r="P382" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A383" s="2">
+        <v>0</v>
+      </c>
+      <c r="B383" s="2">
+        <v>0</v>
+      </c>
+      <c r="C383" s="2">
+        <v>0</v>
+      </c>
+      <c r="D383" s="2">
+        <v>0</v>
+      </c>
+      <c r="E383" s="3">
+        <v>1</v>
+      </c>
+      <c r="F383" s="2">
+        <v>0</v>
+      </c>
+      <c r="G383" s="2">
+        <v>0</v>
+      </c>
+      <c r="H383" s="2">
+        <v>0</v>
+      </c>
+      <c r="I383" s="2">
+        <v>0</v>
+      </c>
+      <c r="J383" s="2">
+        <v>0</v>
+      </c>
+      <c r="K383" s="2">
+        <v>0</v>
+      </c>
+      <c r="L383" s="3">
+        <v>1</v>
+      </c>
+      <c r="M383" s="2">
+        <v>0</v>
+      </c>
+      <c r="N383" s="2">
+        <v>0</v>
+      </c>
+      <c r="O383" s="2">
+        <v>0</v>
+      </c>
+      <c r="P383" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A384" s="2">
+        <v>0</v>
+      </c>
+      <c r="B384" s="2">
+        <v>0</v>
+      </c>
+      <c r="C384" s="2">
+        <v>0</v>
+      </c>
+      <c r="D384" s="2">
+        <v>0</v>
+      </c>
+      <c r="E384" s="3">
+        <v>1</v>
+      </c>
+      <c r="F384" s="2">
+        <v>0</v>
+      </c>
+      <c r="G384" s="2">
+        <v>0</v>
+      </c>
+      <c r="H384" s="2">
+        <v>0</v>
+      </c>
+      <c r="I384" s="2">
+        <v>0</v>
+      </c>
+      <c r="J384" s="2">
+        <v>0</v>
+      </c>
+      <c r="K384" s="2">
+        <v>0</v>
+      </c>
+      <c r="L384" s="3">
+        <v>1</v>
+      </c>
+      <c r="M384" s="2">
+        <v>0</v>
+      </c>
+      <c r="N384" s="2">
+        <v>0</v>
+      </c>
+      <c r="O384" s="2">
+        <v>0</v>
+      </c>
+      <c r="P384" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A385" s="1">
+        <v>8</v>
+      </c>
+      <c r="B385" s="2">
+        <v>0</v>
+      </c>
+      <c r="C385" s="2">
+        <v>0</v>
+      </c>
+      <c r="D385" s="2">
+        <v>0</v>
+      </c>
+      <c r="E385" s="3">
+        <v>1</v>
+      </c>
+      <c r="F385" s="2">
+        <v>0</v>
+      </c>
+      <c r="G385" s="2">
+        <v>0</v>
+      </c>
+      <c r="H385" s="2">
+        <v>0</v>
+      </c>
+      <c r="I385" s="2">
+        <v>0</v>
+      </c>
+      <c r="J385" s="2">
+        <v>0</v>
+      </c>
+      <c r="K385" s="2">
+        <v>0</v>
+      </c>
+      <c r="L385" s="3">
+        <v>1</v>
+      </c>
+      <c r="M385" s="2">
+        <v>0</v>
+      </c>
+      <c r="N385" s="2">
+        <v>0</v>
+      </c>
+      <c r="O385" s="2">
+        <v>0</v>
+      </c>
+      <c r="P385" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A386" s="1">
+        <v>8</v>
+      </c>
+      <c r="B386" s="2">
+        <v>0</v>
+      </c>
+      <c r="C386" s="2">
+        <v>0</v>
+      </c>
+      <c r="D386" s="2">
+        <v>0</v>
+      </c>
+      <c r="E386" s="3">
+        <v>1</v>
+      </c>
+      <c r="F386" s="2">
+        <v>0</v>
+      </c>
+      <c r="G386" s="2">
+        <v>0</v>
+      </c>
+      <c r="H386" s="2">
+        <v>0</v>
+      </c>
+      <c r="I386" s="2">
+        <v>0</v>
+      </c>
+      <c r="J386" s="2">
+        <v>0</v>
+      </c>
+      <c r="K386" s="2">
+        <v>0</v>
+      </c>
+      <c r="L386" s="3">
+        <v>1</v>
+      </c>
+      <c r="M386" s="2">
+        <v>0</v>
+      </c>
+      <c r="N386" s="2">
+        <v>0</v>
+      </c>
+      <c r="O386" s="2">
+        <v>0</v>
+      </c>
+      <c r="P386" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A387" s="1">
+        <v>8</v>
+      </c>
+      <c r="B387" s="1">
+        <v>8</v>
+      </c>
+      <c r="C387" s="2">
+        <v>0</v>
+      </c>
+      <c r="D387" s="2">
+        <v>0</v>
+      </c>
+      <c r="E387" s="2">
+        <v>0</v>
+      </c>
+      <c r="F387" s="2">
+        <v>0</v>
+      </c>
+      <c r="G387" s="2">
+        <v>0</v>
+      </c>
+      <c r="H387" s="2">
+        <v>0</v>
+      </c>
+      <c r="I387" s="2">
+        <v>0</v>
+      </c>
+      <c r="J387" s="2">
+        <v>0</v>
+      </c>
+      <c r="K387" s="2">
+        <v>0</v>
+      </c>
+      <c r="L387" s="2">
+        <v>0</v>
+      </c>
+      <c r="M387" s="2">
+        <v>0</v>
+      </c>
+      <c r="N387" s="2">
+        <v>0</v>
+      </c>
+      <c r="O387" s="1">
+        <v>8</v>
+      </c>
+      <c r="P387" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A388" s="1">
+        <v>8</v>
+      </c>
+      <c r="B388" s="1">
+        <v>8</v>
+      </c>
+      <c r="C388" s="2">
+        <v>0</v>
+      </c>
+      <c r="D388" s="2">
+        <v>0</v>
+      </c>
+      <c r="E388" s="2">
+        <v>0</v>
+      </c>
+      <c r="F388" s="2">
+        <v>0</v>
+      </c>
+      <c r="G388" s="2">
+        <v>0</v>
+      </c>
+      <c r="H388" s="2">
+        <v>0</v>
+      </c>
+      <c r="I388" s="2">
+        <v>0</v>
+      </c>
+      <c r="J388" s="2">
+        <v>0</v>
+      </c>
+      <c r="K388" s="2">
+        <v>0</v>
+      </c>
+      <c r="L388" s="2">
+        <v>0</v>
+      </c>
+      <c r="M388" s="2">
+        <v>0</v>
+      </c>
+      <c r="N388" s="2">
+        <v>0</v>
+      </c>
+      <c r="O388" s="1">
+        <v>8</v>
+      </c>
+      <c r="P388" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A389" s="1">
+        <v>8</v>
+      </c>
+      <c r="B389" s="1">
+        <v>8</v>
+      </c>
+      <c r="C389" s="1">
+        <v>8</v>
+      </c>
+      <c r="D389" s="2">
+        <v>0</v>
+      </c>
+      <c r="E389" s="2">
+        <v>0</v>
+      </c>
+      <c r="F389" s="2">
+        <v>0</v>
+      </c>
+      <c r="G389" s="2">
+        <v>0</v>
+      </c>
+      <c r="H389" s="2">
+        <v>0</v>
+      </c>
+      <c r="I389" s="2">
+        <v>0</v>
+      </c>
+      <c r="J389" s="2">
+        <v>0</v>
+      </c>
+      <c r="K389" s="2">
+        <v>0</v>
+      </c>
+      <c r="L389" s="2">
+        <v>0</v>
+      </c>
+      <c r="M389" s="2">
+        <v>0</v>
+      </c>
+      <c r="N389" s="1">
+        <v>8</v>
+      </c>
+      <c r="O389" s="1">
+        <v>8</v>
+      </c>
+      <c r="P389" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A390" s="1">
+        <v>8</v>
+      </c>
+      <c r="B390" s="1">
+        <v>8</v>
+      </c>
+      <c r="C390" s="1">
+        <v>8</v>
+      </c>
+      <c r="D390" s="1">
+        <v>8</v>
+      </c>
+      <c r="E390" s="1">
+        <v>8</v>
+      </c>
+      <c r="F390" s="2">
+        <v>0</v>
+      </c>
+      <c r="G390" s="2">
+        <v>0</v>
+      </c>
+      <c r="H390" s="2">
+        <v>0</v>
+      </c>
+      <c r="I390" s="2">
+        <v>0</v>
+      </c>
+      <c r="J390" s="2">
+        <v>0</v>
+      </c>
+      <c r="K390" s="2">
+        <v>0</v>
+      </c>
+      <c r="L390" s="1">
+        <v>8</v>
+      </c>
+      <c r="M390" s="1">
+        <v>8</v>
+      </c>
+      <c r="N390" s="1">
+        <v>8</v>
+      </c>
+      <c r="O390" s="1">
+        <v>8</v>
+      </c>
+      <c r="P390" s="1">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:P16">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="117" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="118" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="89" priority="120" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="88" priority="119" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:P33">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="112" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="113" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="cellIs" dxfId="85" priority="115" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="cellIs" dxfId="84" priority="114" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:P50">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="107" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="108" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="cellIs" dxfId="81" priority="110" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="cellIs" dxfId="80" priority="109" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:P67">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="102" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="103" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
+    <cfRule type="cellIs" dxfId="77" priority="105" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="cellIs" dxfId="76" priority="104" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:P84">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="97" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="98" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I79">
+    <cfRule type="cellIs" dxfId="73" priority="100" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="cellIs" dxfId="72" priority="99" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86:P101">
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -15787,17 +20170,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
+  <conditionalFormatting sqref="I96">
     <cfRule type="cellIs" dxfId="69" priority="95" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
+  <conditionalFormatting sqref="H90">
     <cfRule type="cellIs" dxfId="68" priority="94" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:P33">
+  <conditionalFormatting sqref="A103:P118">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -15815,17 +20198,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
+  <conditionalFormatting sqref="I113">
     <cfRule type="cellIs" dxfId="65" priority="90" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="H107">
     <cfRule type="cellIs" dxfId="64" priority="89" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:P50">
+  <conditionalFormatting sqref="A120:P135">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -15843,17 +20226,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
+  <conditionalFormatting sqref="I130">
     <cfRule type="cellIs" dxfId="61" priority="85" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H124">
     <cfRule type="cellIs" dxfId="60" priority="84" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:P67">
+  <conditionalFormatting sqref="A137:P152">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -15871,17 +20254,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
+  <conditionalFormatting sqref="I147">
     <cfRule type="cellIs" dxfId="57" priority="80" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
+  <conditionalFormatting sqref="H141">
     <cfRule type="cellIs" dxfId="56" priority="79" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:P84">
+  <conditionalFormatting sqref="A154:P169">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -15899,17 +20282,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I79">
+  <conditionalFormatting sqref="I164">
     <cfRule type="cellIs" dxfId="53" priority="75" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H158">
     <cfRule type="cellIs" dxfId="52" priority="74" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A86:P101">
+  <conditionalFormatting sqref="A171:P186">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -15927,17 +20310,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I96">
+  <conditionalFormatting sqref="I181">
     <cfRule type="cellIs" dxfId="49" priority="70" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
+  <conditionalFormatting sqref="H175">
     <cfRule type="cellIs" dxfId="48" priority="69" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103:P118">
+  <conditionalFormatting sqref="A188:P203">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -15955,17 +20338,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I113">
+  <conditionalFormatting sqref="I198">
     <cfRule type="cellIs" dxfId="45" priority="65" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H107">
+  <conditionalFormatting sqref="H192">
     <cfRule type="cellIs" dxfId="44" priority="64" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A120:P135">
+  <conditionalFormatting sqref="A205:P220">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -15983,45 +20366,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I130">
+  <conditionalFormatting sqref="I215">
     <cfRule type="cellIs" dxfId="41" priority="60" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H124">
+  <conditionalFormatting sqref="H209">
     <cfRule type="cellIs" dxfId="40" priority="59" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A137:P152">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="8"/>
-        <color rgb="FF00FF00"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="53" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I147">
-    <cfRule type="cellIs" dxfId="37" priority="55" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H141">
-    <cfRule type="cellIs" dxfId="36" priority="54" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:P169">
+  <conditionalFormatting sqref="A222:P237">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -16032,24 +20387,24 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I164">
-    <cfRule type="cellIs" dxfId="33" priority="50" operator="equal">
+  <conditionalFormatting sqref="I232">
+    <cfRule type="cellIs" dxfId="37" priority="50" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H158">
-    <cfRule type="cellIs" dxfId="32" priority="49" operator="equal">
+  <conditionalFormatting sqref="H226">
+    <cfRule type="cellIs" dxfId="36" priority="49" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A171:P186">
+  <conditionalFormatting sqref="A239:P254">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -16060,24 +20415,24 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I181">
-    <cfRule type="cellIs" dxfId="29" priority="45" operator="equal">
+  <conditionalFormatting sqref="I249">
+    <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H175">
-    <cfRule type="cellIs" dxfId="28" priority="44" operator="equal">
+  <conditionalFormatting sqref="H243">
+    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A188:P203">
+  <conditionalFormatting sqref="A256:P271">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -16088,24 +20443,24 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I198">
-    <cfRule type="cellIs" dxfId="25" priority="40" operator="equal">
+  <conditionalFormatting sqref="I266">
+    <cfRule type="cellIs" dxfId="29" priority="40" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H192">
-    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
+  <conditionalFormatting sqref="H260">
+    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A205:P220">
+  <conditionalFormatting sqref="A273:P288">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -16116,24 +20471,52 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I215">
-    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
+  <conditionalFormatting sqref="I283">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H209">
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
+  <conditionalFormatting sqref="H277">
+    <cfRule type="cellIs" dxfId="24" priority="34" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A222:P237">
+  <conditionalFormatting sqref="A290:P305">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I300">
+    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H294">
+    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A307:P322">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -16151,17 +20534,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I232">
+  <conditionalFormatting sqref="I317">
     <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H226">
+  <conditionalFormatting sqref="H311">
     <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A239:P254">
+  <conditionalFormatting sqref="A324:P339">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -16179,17 +20562,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I249">
+  <conditionalFormatting sqref="I334">
     <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H243">
+  <conditionalFormatting sqref="H328">
     <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A256:P271">
+  <conditionalFormatting sqref="A341:P356">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -16207,17 +20590,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I266">
+  <conditionalFormatting sqref="I351">
     <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H260">
+  <conditionalFormatting sqref="H345">
     <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A273:P288">
+  <conditionalFormatting sqref="A358:P373">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -16235,17 +20618,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I283">
+  <conditionalFormatting sqref="I368">
     <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H277">
+  <conditionalFormatting sqref="H362">
     <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A290:P305">
+  <conditionalFormatting sqref="A375:P390">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -16263,12 +20646,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I300">
+  <conditionalFormatting sqref="I385">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H294">
+  <conditionalFormatting sqref="H379">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>8</formula>
     </cfRule>

--- a/Report_Template.xlsx
+++ b/Report_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ait.lab\.spyder-py3\Wafer_Map_Creator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8482E4AF-31AA-41E9-9831-3EE8431FC6DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19C5B43-AF0D-4B0C-9251-012D01008D0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,15 +150,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="180">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+  <dxfs count="255">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -183,12 +178,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -213,12 +203,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -243,12 +228,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -273,12 +253,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -303,12 +278,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -333,12 +303,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -363,12 +328,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -393,12 +353,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -423,12 +378,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -453,12 +403,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -483,12 +428,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -513,12 +453,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -543,12 +478,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -573,12 +503,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -603,12 +528,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -633,12 +553,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -663,12 +578,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -693,12 +603,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -723,12 +628,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -753,12 +653,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -783,12 +678,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -813,12 +703,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -843,12 +728,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -1480,6 +1360,751 @@
       <font>
         <color theme="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1837,9 +2462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S390"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R387" sqref="R387"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18136,7 +18759,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:P16">
-    <cfRule type="colorScale" priority="226">
+    <cfRule type="colorScale" priority="322">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18146,25 +18769,18 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="323" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="324" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="177" priority="230" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="176" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="325" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:P33">
-    <cfRule type="colorScale" priority="106">
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18174,136 +18790,17 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="94" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="95" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" dxfId="85" priority="110" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="84" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="96" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:P50">
-    <cfRule type="colorScale" priority="101">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="8"/>
-        <color rgb="FF00FF00"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="102" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="103" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="cellIs" dxfId="81" priority="105" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="80" priority="104" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:P67">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="8"/>
-        <color rgb="FF00FF00"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="97" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="98" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
-    <cfRule type="cellIs" dxfId="77" priority="100" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="76" priority="99" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:P84">
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="8"/>
-        <color rgb="FF00FF00"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="92" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="93" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="73" priority="95" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="72" priority="94" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A86:P101">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="8"/>
-        <color rgb="FF00FF00"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="87" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="88" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I96">
-    <cfRule type="cellIs" dxfId="69" priority="90" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="68" priority="89" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103:P118">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18314,25 +18811,18 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I113">
-    <cfRule type="cellIs" dxfId="65" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="84" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H107">
-    <cfRule type="cellIs" dxfId="64" priority="84" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120:P135">
-    <cfRule type="colorScale" priority="76">
+  <conditionalFormatting sqref="A52:P67">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18342,25 +18832,18 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="61" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="80" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H124">
-    <cfRule type="cellIs" dxfId="60" priority="79" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A137:P152">
-    <cfRule type="colorScale" priority="71">
+  <conditionalFormatting sqref="A69:P84">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18370,25 +18853,18 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="75" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I147">
-    <cfRule type="cellIs" dxfId="57" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="76" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H141">
-    <cfRule type="cellIs" dxfId="56" priority="74" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:P169">
-    <cfRule type="colorScale" priority="66">
+  <conditionalFormatting sqref="A86:P101">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18398,24 +18874,38 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="71" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I164">
-    <cfRule type="cellIs" dxfId="53" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="72" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H158">
-    <cfRule type="cellIs" dxfId="52" priority="69" operator="equal">
+  <conditionalFormatting sqref="A103:P118">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="66" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="67" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="68" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A171:P186">
+  <conditionalFormatting sqref="A120:P135">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18426,25 +18916,18 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="63" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I181">
-    <cfRule type="cellIs" dxfId="49" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="64" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H175">
-    <cfRule type="cellIs" dxfId="48" priority="64" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188:P203">
-    <cfRule type="colorScale" priority="56">
+  <conditionalFormatting sqref="A137:P152">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18454,25 +18937,18 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I198">
-    <cfRule type="cellIs" dxfId="45" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="60" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H192">
-    <cfRule type="cellIs" dxfId="44" priority="59" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A205:P220">
-    <cfRule type="colorScale" priority="51">
+  <conditionalFormatting sqref="A154:P169">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18482,25 +18958,18 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I215">
-    <cfRule type="cellIs" dxfId="41" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="56" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H209">
-    <cfRule type="cellIs" dxfId="40" priority="54" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A222:P237">
-    <cfRule type="colorScale" priority="46">
+  <conditionalFormatting sqref="A171:P186">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18510,24 +18979,38 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I232">
-    <cfRule type="cellIs" dxfId="37" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="52" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H226">
-    <cfRule type="cellIs" dxfId="36" priority="49" operator="equal">
+  <conditionalFormatting sqref="A188:P203">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="47" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="48" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A239:P254">
+  <conditionalFormatting sqref="A205:P220">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18538,25 +19021,18 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I249">
-    <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="44" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H243">
-    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A256:P271">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="A222:P237">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18566,25 +19042,18 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I266">
-    <cfRule type="cellIs" dxfId="29" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H260">
-    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A273:P288">
-    <cfRule type="colorScale" priority="31">
+  <conditionalFormatting sqref="A239:P254">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18594,25 +19063,18 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I283">
-    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H277">
-    <cfRule type="cellIs" dxfId="24" priority="34" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A290:P305">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="A256:P271">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18622,24 +19084,38 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I300">
-    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="32" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H294">
-    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
+  <conditionalFormatting sqref="A273:P288">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A307:P322">
+  <conditionalFormatting sqref="A290:P305">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18650,25 +19126,18 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I317">
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H311">
-    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A324:P339">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="A307:P322">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18678,25 +19147,18 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I334">
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H328">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A341:P356">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="A324:P339">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18706,25 +19168,18 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I351">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H345">
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A358:P373">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="A341:P356">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18734,20 +19189,34 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I368">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H362">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+  <conditionalFormatting sqref="A358:P373">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FF00FF00"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18762,19 +19231,12 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I385">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H379">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>8</formula>
     </cfRule>

--- a/Report_Template.xlsx
+++ b/Report_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ait.lab\.spyder-py3\Wafer_Map_Creator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3E657F-391A-4A7C-B2E1-56E8B8EA55AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F10872A-EEB8-4BC7-9F8F-121C3D20FD7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,557 +150,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="132">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="66">
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
@@ -1587,7 +1037,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S374"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S362" sqref="S362:S363"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1856,7 +1308,10 @@
       <c r="R5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="2"/>
+      <c r="S5" s="2">
+        <f>COUNTIF(A1:P16, 0)</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1910,7 +1365,10 @@
       <c r="R6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="3">
+        <f>COUNTIF(A1:P16, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
@@ -2670,7 +2128,10 @@
       <c r="R22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S22" s="2"/>
+      <c r="S22" s="2">
+        <f>COUNTIF(A18:P33, 0)</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -2724,7 +2185,10 @@
       <c r="R23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S23" s="3"/>
+      <c r="S23" s="3">
+        <f>COUNTIF(A18:P33, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
@@ -3484,7 +2948,10 @@
       <c r="R39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S39" s="2"/>
+      <c r="S39" s="2">
+        <f>COUNTIF(A35:P50, 0)</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="40" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -3538,7 +3005,10 @@
       <c r="R40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S40" s="3"/>
+      <c r="S40" s="3">
+        <f>COUNTIF(A35:P50, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="41" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
@@ -4298,7 +3768,10 @@
       <c r="R56" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S56" s="2"/>
+      <c r="S56" s="2">
+        <f>COUNTIF(A52:P67, 0)</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="57" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
@@ -4352,7 +3825,10 @@
       <c r="R57" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S57" s="3"/>
+      <c r="S57" s="3">
+        <f>COUNTIF(A52:P67, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="58" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
@@ -5112,7 +4588,10 @@
       <c r="R73" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S73" s="2"/>
+      <c r="S73" s="2">
+        <f>COUNTIF(A69:P84, 0)</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="74" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
@@ -5166,7 +4645,10 @@
       <c r="R74" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S74" s="3"/>
+      <c r="S74" s="3">
+        <f>COUNTIF(A69:P84, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="75" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
@@ -5926,7 +5408,10 @@
       <c r="R90" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S90" s="2"/>
+      <c r="S90" s="2">
+        <f>COUNTIF(A86:P101, 0)</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="91" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
@@ -5980,7 +5465,10 @@
       <c r="R91" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S91" s="3"/>
+      <c r="S91" s="3">
+        <f>COUNTIF(A86:P101, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="92" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
@@ -6740,7 +6228,10 @@
       <c r="R107" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S107" s="2"/>
+      <c r="S107" s="2">
+        <f>COUNTIF(A103:P118, 0)</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="108" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
@@ -6794,7 +6285,10 @@
       <c r="R108" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S108" s="3"/>
+      <c r="S108" s="3">
+        <f>COUNTIF(A103:P118, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="109" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
@@ -7554,7 +7048,10 @@
       <c r="R124" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S124" s="2"/>
+      <c r="S124" s="2">
+        <f>COUNTIF(A120:P135, 0)</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="125" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
@@ -7608,7 +7105,10 @@
       <c r="R125" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S125" s="3"/>
+      <c r="S125" s="3">
+        <f>COUNTIF(A120:P135, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="126" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
@@ -8368,7 +7868,10 @@
       <c r="R141" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S141" s="2"/>
+      <c r="S141" s="2">
+        <f>COUNTIF(A137:P152, 0)</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="142" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
@@ -8422,7 +7925,10 @@
       <c r="R142" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S142" s="3"/>
+      <c r="S142" s="3">
+        <f>COUNTIF(A137:P152, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="143" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
@@ -9182,7 +8688,10 @@
       <c r="R158" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S158" s="2"/>
+      <c r="S158" s="2">
+        <f>COUNTIF(A154:P169, 0)</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="159" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
@@ -9236,7 +8745,10 @@
       <c r="R159" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S159" s="3"/>
+      <c r="S159" s="3">
+        <f>COUNTIF(A154:P169, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="160" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
@@ -9996,7 +9508,10 @@
       <c r="R175" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S175" s="2"/>
+      <c r="S175" s="2">
+        <f>COUNTIF(A171:P186, 0)</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="176" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
@@ -10050,7 +9565,10 @@
       <c r="R176" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S176" s="3"/>
+      <c r="S176" s="3">
+        <f>COUNTIF(A171:P186, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="177" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6">
@@ -10810,7 +10328,10 @@
       <c r="R192" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S192" s="2"/>
+      <c r="S192" s="2">
+        <f>COUNTIF(A188:P203, 0)</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="193" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
@@ -10864,7 +10385,10 @@
       <c r="R193" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S193" s="3"/>
+      <c r="S193" s="3">
+        <f>COUNTIF(A188:P203, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="194" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6">
@@ -11624,7 +11148,10 @@
       <c r="R209" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S209" s="2"/>
+      <c r="S209" s="2">
+        <f>COUNTIF(A205:P220, 0)</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="210" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
@@ -11678,7 +11205,10 @@
       <c r="R210" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S210" s="3"/>
+      <c r="S210" s="3">
+        <f>COUNTIF(A205:P220, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="211" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6">
@@ -12438,7 +11968,10 @@
       <c r="R226" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S226" s="2"/>
+      <c r="S226" s="2">
+        <f>COUNTIF(A222:P237, 0)</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="227" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
@@ -12492,7 +12025,10 @@
       <c r="R227" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S227" s="3"/>
+      <c r="S227" s="3">
+        <f>COUNTIF(A222:P237, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="228" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="6">
@@ -13252,7 +12788,10 @@
       <c r="R243" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S243" s="2"/>
+      <c r="S243" s="2">
+        <f>COUNTIF(A239:P254, 0)</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="244" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
@@ -13306,7 +12845,10 @@
       <c r="R244" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S244" s="3"/>
+      <c r="S244" s="3">
+        <f>COUNTIF(A239:P254, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="245" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="6">
@@ -14066,7 +13608,10 @@
       <c r="R260" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S260" s="2"/>
+      <c r="S260" s="2">
+        <f>COUNTIF(A256:P271, 0)</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="261" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
@@ -14120,7 +13665,10 @@
       <c r="R261" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S261" s="3"/>
+      <c r="S261" s="3">
+        <f>COUNTIF(A256:P271, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="262" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="6">
@@ -14880,7 +14428,10 @@
       <c r="R277" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S277" s="2"/>
+      <c r="S277" s="2">
+        <f>COUNTIF(A273:P288, 0)</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="278" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
@@ -14934,7 +14485,10 @@
       <c r="R278" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S278" s="3"/>
+      <c r="S278" s="3">
+        <f>COUNTIF(A273:P288, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="279" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6">
@@ -15694,7 +15248,10 @@
       <c r="R294" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S294" s="2"/>
+      <c r="S294" s="2">
+        <f>COUNTIF(A290:P305, 0)</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="295" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
@@ -15748,7 +15305,10 @@
       <c r="R295" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S295" s="3"/>
+      <c r="S295" s="3">
+        <f>COUNTIF(A290:P305, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="296" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="6">
@@ -16508,7 +16068,10 @@
       <c r="R311" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S311" s="2"/>
+      <c r="S311" s="2">
+        <f>COUNTIF(A307:P322, 0)</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="312" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
@@ -16562,7 +16125,10 @@
       <c r="R312" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S312" s="3"/>
+      <c r="S312" s="3">
+        <f>COUNTIF(A307:P322, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="313" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="6">
@@ -17322,7 +16888,10 @@
       <c r="R328" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S328" s="2"/>
+      <c r="S328" s="2">
+        <f>COUNTIF(A324:P339, 0)</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="329" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
@@ -17376,7 +16945,10 @@
       <c r="R329" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S329" s="3"/>
+      <c r="S329" s="3">
+        <f>COUNTIF(A324:P339, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="330" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="6">
@@ -18136,7 +17708,10 @@
       <c r="R345" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S345" s="2"/>
+      <c r="S345" s="2">
+        <f>COUNTIF(A341:P356, 0)</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="346" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
@@ -18190,7 +17765,10 @@
       <c r="R346" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S346" s="3"/>
+      <c r="S346" s="3">
+        <f>COUNTIF(A341:P356, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="347" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="6">
@@ -18950,7 +18528,10 @@
       <c r="R362" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S362" s="2"/>
+      <c r="S362" s="2">
+        <f>COUNTIF(A358:P373, 0)</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="363" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
@@ -19004,7 +18585,10 @@
       <c r="R363" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S363" s="3"/>
+      <c r="S363" s="3">
+        <f>COUNTIF(A358:P373, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="364" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="6">
@@ -19519,13 +19103,13 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="411" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="412" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="413" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19540,13 +19124,13 @@
         <color theme="0" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="87" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="88" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
